--- a/INTLINE/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 2021.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 2021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="45">
   <si>
     <t>New orders (value and volume index) in the main construction
 industry (local units with 20 or more persons employed):
@@ -151,7 +151,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:37:22</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:15:27</t>
   </si>
 </sst>
 </file>
@@ -1837,11 +1837,11 @@
       <c r="P10" t="n" s="10">
         <v>141.2</v>
       </c>
-      <c r="Q10" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R10" t="s" s="10">
-        <v>26</v>
+      <c r="Q10" t="n" s="10">
+        <v>156.1</v>
+      </c>
+      <c r="R10" t="n" s="10">
+        <v>215.8</v>
       </c>
       <c r="S10" t="s" s="10">
         <v>26</v>
@@ -1917,11 +1917,11 @@
       <c r="P11" t="n" s="10">
         <v>105.5</v>
       </c>
-      <c r="Q11" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R11" t="s" s="10">
-        <v>26</v>
+      <c r="Q11" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="R11" t="n" s="10">
+        <v>155.7</v>
       </c>
       <c r="S11" t="s" s="10">
         <v>26</v>
@@ -2000,11 +2000,11 @@
       <c r="P12" t="n" s="10">
         <v>143.7</v>
       </c>
-      <c r="Q12" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R12" t="s" s="10">
-        <v>26</v>
+      <c r="Q12" t="n" s="10">
+        <v>161.5</v>
+      </c>
+      <c r="R12" t="n" s="10">
+        <v>215.1</v>
       </c>
       <c r="S12" t="s" s="10">
         <v>26</v>
@@ -2080,11 +2080,11 @@
       <c r="P13" t="n" s="10">
         <v>106.4</v>
       </c>
-      <c r="Q13" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R13" t="s" s="10">
-        <v>26</v>
+      <c r="Q13" t="n" s="10">
+        <v>115.4</v>
+      </c>
+      <c r="R13" t="n" s="10">
+        <v>153.7</v>
       </c>
       <c r="S13" t="s" s="10">
         <v>26</v>
@@ -2163,11 +2163,11 @@
       <c r="P14" t="n" s="10">
         <v>164.2</v>
       </c>
-      <c r="Q14" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R14" t="s" s="10">
-        <v>26</v>
+      <c r="Q14" t="n" s="10">
+        <v>176.4</v>
+      </c>
+      <c r="R14" t="n" s="10">
+        <v>224.3</v>
       </c>
       <c r="S14" t="s" s="10">
         <v>26</v>
@@ -2243,11 +2243,11 @@
       <c r="P15" t="n" s="10">
         <v>121.7</v>
       </c>
-      <c r="Q15" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R15" t="s" s="10">
-        <v>26</v>
+      <c r="Q15" t="n" s="10">
+        <v>126.1</v>
+      </c>
+      <c r="R15" t="n" s="10">
+        <v>160.3</v>
       </c>
       <c r="S15" t="s" s="10">
         <v>26</v>
@@ -2326,11 +2326,11 @@
       <c r="P16" t="n" s="10">
         <v>129.4</v>
       </c>
-      <c r="Q16" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R16" t="s" s="10">
-        <v>26</v>
+      <c r="Q16" t="n" s="10">
+        <v>151.1</v>
+      </c>
+      <c r="R16" t="n" s="10">
+        <v>208.7</v>
       </c>
       <c r="S16" t="s" s="10">
         <v>26</v>
@@ -2406,11 +2406,11 @@
       <c r="P17" t="n" s="10">
         <v>95.8</v>
       </c>
-      <c r="Q17" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R17" t="s" s="10">
-        <v>26</v>
+      <c r="Q17" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="R17" t="n" s="10">
+        <v>149.1</v>
       </c>
       <c r="S17" t="s" s="10">
         <v>26</v>
@@ -2489,11 +2489,11 @@
       <c r="P18" t="n" s="10">
         <v>132.0</v>
       </c>
-      <c r="Q18" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R18" t="s" s="10">
-        <v>26</v>
+      <c r="Q18" t="n" s="10">
+        <v>158.8</v>
+      </c>
+      <c r="R18" t="n" s="10">
+        <v>209.4</v>
       </c>
       <c r="S18" t="s" s="10">
         <v>26</v>
@@ -2570,10 +2570,10 @@
         <v>32</v>
       </c>
       <c r="Q19" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R19" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S19" t="s" s="10">
         <v>26</v>
@@ -2652,11 +2652,11 @@
       <c r="P20" t="n" s="10">
         <v>119.7</v>
       </c>
-      <c r="Q20" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R20" t="s" s="10">
-        <v>26</v>
+      <c r="Q20" t="n" s="10">
+        <v>122.1</v>
+      </c>
+      <c r="R20" t="n" s="10">
+        <v>206.1</v>
       </c>
       <c r="S20" t="s" s="10">
         <v>26</v>
@@ -2733,10 +2733,10 @@
         <v>32</v>
       </c>
       <c r="Q21" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R21" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S21" t="s" s="10">
         <v>26</v>
@@ -2815,11 +2815,11 @@
       <c r="P22" t="n" s="10">
         <v>138.3</v>
       </c>
-      <c r="Q22" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R22" t="s" s="10">
-        <v>26</v>
+      <c r="Q22" t="n" s="10">
+        <v>149.9</v>
+      </c>
+      <c r="R22" t="n" s="10">
+        <v>216.7</v>
       </c>
       <c r="S22" t="s" s="10">
         <v>26</v>
@@ -2895,11 +2895,11 @@
       <c r="P23" t="n" s="10">
         <v>104.5</v>
       </c>
-      <c r="Q23" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R23" t="s" s="10">
-        <v>26</v>
+      <c r="Q23" t="n" s="10">
+        <v>109.3</v>
+      </c>
+      <c r="R23" t="n" s="10">
+        <v>158.0</v>
       </c>
       <c r="S23" t="s" s="10">
         <v>26</v>
@@ -2978,11 +2978,11 @@
       <c r="P24" t="n" s="10">
         <v>106.2</v>
       </c>
-      <c r="Q24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R24" t="s" s="10">
-        <v>26</v>
+      <c r="Q24" t="n" s="10">
+        <v>132.2</v>
+      </c>
+      <c r="R24" t="n" s="10">
+        <v>190.5</v>
       </c>
       <c r="S24" t="s" s="10">
         <v>26</v>
@@ -3058,11 +3058,11 @@
       <c r="P25" t="n" s="10">
         <v>83.0</v>
       </c>
-      <c r="Q25" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R25" t="s" s="10">
-        <v>26</v>
+      <c r="Q25" t="n" s="10">
+        <v>98.7</v>
+      </c>
+      <c r="R25" t="n" s="10">
+        <v>142.3</v>
       </c>
       <c r="S25" t="s" s="10">
         <v>26</v>
@@ -3141,11 +3141,11 @@
       <c r="P26" t="n" s="10">
         <v>156.9</v>
       </c>
-      <c r="Q26" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R26" t="s" s="10">
-        <v>26</v>
+      <c r="Q26" t="n" s="10">
+        <v>160.2</v>
+      </c>
+      <c r="R26" t="n" s="10">
+        <v>231.9</v>
       </c>
       <c r="S26" t="s" s="10">
         <v>26</v>
@@ -3221,11 +3221,11 @@
       <c r="P27" t="n" s="10">
         <v>117.0</v>
       </c>
-      <c r="Q27" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R27" t="s" s="10">
-        <v>26</v>
+      <c r="Q27" t="n" s="10">
+        <v>115.5</v>
+      </c>
+      <c r="R27" t="n" s="10">
+        <v>167.2</v>
       </c>
       <c r="S27" t="s" s="10">
         <v>26</v>
@@ -3304,11 +3304,11 @@
       <c r="P28" t="n" s="10">
         <v>170.0</v>
       </c>
-      <c r="Q28" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R28" t="s" s="10">
-        <v>26</v>
+      <c r="Q28" t="n" s="10">
+        <v>176.1</v>
+      </c>
+      <c r="R28" t="n" s="10">
+        <v>247.6</v>
       </c>
       <c r="S28" t="s" s="10">
         <v>26</v>
@@ -3385,10 +3385,10 @@
         <v>32</v>
       </c>
       <c r="Q29" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R29" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S29" t="s" s="10">
         <v>26</v>
@@ -3467,11 +3467,11 @@
       <c r="P30" t="n" s="10">
         <v>139.6</v>
       </c>
-      <c r="Q30" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R30" t="s" s="10">
-        <v>26</v>
+      <c r="Q30" t="n" s="10">
+        <v>139.3</v>
+      </c>
+      <c r="R30" t="n" s="10">
+        <v>211.1</v>
       </c>
       <c r="S30" t="s" s="10">
         <v>26</v>
@@ -3548,10 +3548,10 @@
         <v>32</v>
       </c>
       <c r="Q31" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R31" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S31" t="s" s="10">
         <v>26</v>
@@ -3630,16 +3630,16 @@
         <v>145.3</v>
       </c>
       <c r="O33" t="n" s="10">
-        <v>185.4</v>
+        <v>185.3</v>
       </c>
       <c r="P33" t="n" s="10">
         <v>142.8</v>
       </c>
-      <c r="Q33" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R33" t="s" s="10">
-        <v>26</v>
+      <c r="Q33" t="n" s="10">
+        <v>155.7</v>
+      </c>
+      <c r="R33" t="n" s="10">
+        <v>209.6</v>
       </c>
       <c r="S33" t="s" s="10">
         <v>26</v>
@@ -3715,11 +3715,11 @@
       <c r="P34" t="n" s="10">
         <v>106.8</v>
       </c>
-      <c r="Q34" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R34" t="s" s="10">
-        <v>26</v>
+      <c r="Q34" t="n" s="10">
+        <v>112.3</v>
+      </c>
+      <c r="R34" t="n" s="10">
+        <v>151.2</v>
       </c>
       <c r="S34" t="s" s="10">
         <v>26</v>
@@ -3798,11 +3798,11 @@
       <c r="P35" t="n" s="10">
         <v>145.4</v>
       </c>
-      <c r="Q35" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R35" t="s" s="10">
-        <v>26</v>
+      <c r="Q35" t="n" s="10">
+        <v>161.0</v>
+      </c>
+      <c r="R35" t="n" s="10">
+        <v>208.8</v>
       </c>
       <c r="S35" t="s" s="10">
         <v>26</v>
@@ -3878,11 +3878,11 @@
       <c r="P36" t="n" s="10">
         <v>107.7</v>
       </c>
-      <c r="Q36" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R36" t="s" s="10">
-        <v>26</v>
+      <c r="Q36" t="n" s="10">
+        <v>115.0</v>
+      </c>
+      <c r="R36" t="n" s="10">
+        <v>149.2</v>
       </c>
       <c r="S36" t="s" s="10">
         <v>26</v>
@@ -3961,11 +3961,11 @@
       <c r="P37" t="n" s="10">
         <v>165.7</v>
       </c>
-      <c r="Q37" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R37" t="s" s="10">
-        <v>26</v>
+      <c r="Q37" t="n" s="10">
+        <v>176.0</v>
+      </c>
+      <c r="R37" t="n" s="10">
+        <v>219.4</v>
       </c>
       <c r="S37" t="s" s="10">
         <v>26</v>
@@ -4041,11 +4041,11 @@
       <c r="P38" t="n" s="10">
         <v>122.8</v>
       </c>
-      <c r="Q38" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R38" t="s" s="10">
-        <v>26</v>
+      <c r="Q38" t="n" s="10">
+        <v>125.8</v>
+      </c>
+      <c r="R38" t="n" s="10">
+        <v>156.8</v>
       </c>
       <c r="S38" t="s" s="10">
         <v>26</v>
@@ -4124,11 +4124,11 @@
       <c r="P39" t="n" s="10">
         <v>131.3</v>
       </c>
-      <c r="Q39" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R39" t="s" s="10">
-        <v>26</v>
+      <c r="Q39" t="n" s="10">
+        <v>150.6</v>
+      </c>
+      <c r="R39" t="n" s="10">
+        <v>201.4</v>
       </c>
       <c r="S39" t="s" s="10">
         <v>26</v>
@@ -4204,11 +4204,11 @@
       <c r="P40" t="n" s="10">
         <v>97.2</v>
       </c>
-      <c r="Q40" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R40" t="s" s="10">
-        <v>26</v>
+      <c r="Q40" t="n" s="10">
+        <v>107.5</v>
+      </c>
+      <c r="R40" t="n" s="10">
+        <v>143.9</v>
       </c>
       <c r="S40" t="s" s="10">
         <v>26</v>
@@ -4287,11 +4287,11 @@
       <c r="P41" t="n" s="10">
         <v>134.0</v>
       </c>
-      <c r="Q41" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R41" t="s" s="10">
-        <v>26</v>
+      <c r="Q41" t="n" s="10">
+        <v>158.3</v>
+      </c>
+      <c r="R41" t="n" s="10">
+        <v>201.7</v>
       </c>
       <c r="S41" t="s" s="10">
         <v>26</v>
@@ -4367,11 +4367,11 @@
       <c r="P42" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q42" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R42" t="s" s="10">
-        <v>26</v>
+      <c r="Q42" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="R42" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="S42" t="s" s="10">
         <v>26</v>
@@ -4450,11 +4450,11 @@
       <c r="P43" t="n" s="10">
         <v>121.0</v>
       </c>
-      <c r="Q43" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R43" t="s" s="10">
-        <v>26</v>
+      <c r="Q43" t="n" s="10">
+        <v>121.8</v>
+      </c>
+      <c r="R43" t="n" s="10">
+        <v>200.5</v>
       </c>
       <c r="S43" t="s" s="10">
         <v>26</v>
@@ -4530,11 +4530,11 @@
       <c r="P44" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q44" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R44" t="s" s="10">
-        <v>26</v>
+      <c r="Q44" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="R44" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="S44" t="s" s="10">
         <v>26</v>
@@ -4575,13 +4575,13 @@
         <v>25</v>
       </c>
       <c r="D45" t="n" s="10">
-        <v>126.3</v>
+        <v>126.4</v>
       </c>
       <c r="E45" t="n" s="10">
         <v>136.7</v>
       </c>
       <c r="F45" t="n" s="10">
-        <v>159.1</v>
+        <v>159.0</v>
       </c>
       <c r="G45" t="n" s="10">
         <v>162.3</v>
@@ -4590,7 +4590,7 @@
         <v>154.2</v>
       </c>
       <c r="I45" t="n" s="10">
-        <v>164.1</v>
+        <v>164.0</v>
       </c>
       <c r="J45" t="n" s="10">
         <v>150.2</v>
@@ -4605,19 +4605,19 @@
         <v>146.8</v>
       </c>
       <c r="N45" t="n" s="10">
-        <v>148.1</v>
+        <v>148.0</v>
       </c>
       <c r="O45" t="n" s="10">
-        <v>161.7</v>
+        <v>161.6</v>
       </c>
       <c r="P45" t="n" s="10">
-        <v>139.8</v>
-      </c>
-      <c r="Q45" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R45" t="s" s="10">
-        <v>26</v>
+        <v>139.9</v>
+      </c>
+      <c r="Q45" t="n" s="10">
+        <v>149.5</v>
+      </c>
+      <c r="R45" t="n" s="10">
+        <v>210.5</v>
       </c>
       <c r="S45" t="s" s="10">
         <v>26</v>
@@ -4661,7 +4661,7 @@
         <v>111.9</v>
       </c>
       <c r="F46" t="n" s="10">
-        <v>130.3</v>
+        <v>130.2</v>
       </c>
       <c r="G46" t="n" s="10">
         <v>132.8</v>
@@ -4688,16 +4688,16 @@
         <v>111.8</v>
       </c>
       <c r="O46" t="n" s="10">
-        <v>122.2</v>
+        <v>122.1</v>
       </c>
       <c r="P46" t="n" s="10">
         <v>105.7</v>
       </c>
-      <c r="Q46" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R46" t="s" s="10">
-        <v>26</v>
+      <c r="Q46" t="n" s="10">
+        <v>109.1</v>
+      </c>
+      <c r="R46" t="n" s="10">
+        <v>153.5</v>
       </c>
       <c r="S46" t="s" s="10">
         <v>26</v>
@@ -4776,11 +4776,11 @@
       <c r="P47" t="n" s="10">
         <v>107.8</v>
       </c>
-      <c r="Q47" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R47" t="s" s="10">
-        <v>26</v>
+      <c r="Q47" t="n" s="10">
+        <v>131.8</v>
+      </c>
+      <c r="R47" t="n" s="10">
+        <v>183.7</v>
       </c>
       <c r="S47" t="s" s="10">
         <v>26</v>
@@ -4856,11 +4856,11 @@
       <c r="P48" t="n" s="10">
         <v>84.3</v>
       </c>
-      <c r="Q48" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R48" t="s" s="10">
-        <v>26</v>
+      <c r="Q48" t="n" s="10">
+        <v>98.4</v>
+      </c>
+      <c r="R48" t="n" s="10">
+        <v>137.2</v>
       </c>
       <c r="S48" t="s" s="10">
         <v>26</v>
@@ -4907,7 +4907,7 @@
         <v>136.7</v>
       </c>
       <c r="F49" t="n" s="10">
-        <v>166.5</v>
+        <v>166.4</v>
       </c>
       <c r="G49" t="n" s="10">
         <v>160.0</v>
@@ -4934,16 +4934,16 @@
         <v>173.9</v>
       </c>
       <c r="O49" t="n" s="10">
-        <v>188.6</v>
+        <v>188.5</v>
       </c>
       <c r="P49" t="n" s="10">
         <v>158.5</v>
       </c>
-      <c r="Q49" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R49" t="s" s="10">
-        <v>26</v>
+      <c r="Q49" t="n" s="10">
+        <v>159.9</v>
+      </c>
+      <c r="R49" t="n" s="10">
+        <v>226.1</v>
       </c>
       <c r="S49" t="s" s="10">
         <v>26</v>
@@ -4987,7 +4987,7 @@
         <v>111.7</v>
       </c>
       <c r="F50" t="n" s="10">
-        <v>136.1</v>
+        <v>136.0</v>
       </c>
       <c r="G50" t="n" s="10">
         <v>130.7</v>
@@ -5014,16 +5014,16 @@
         <v>129.7</v>
       </c>
       <c r="O50" t="n" s="10">
-        <v>140.7</v>
+        <v>140.6</v>
       </c>
       <c r="P50" t="n" s="10">
         <v>118.2</v>
       </c>
-      <c r="Q50" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R50" t="s" s="10">
-        <v>26</v>
+      <c r="Q50" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="R50" t="n" s="10">
+        <v>163.0</v>
       </c>
       <c r="S50" t="s" s="10">
         <v>26</v>
@@ -5064,22 +5064,22 @@
         <v>25</v>
       </c>
       <c r="D51" t="n" s="10">
-        <v>157.8</v>
+        <v>157.9</v>
       </c>
       <c r="E51" t="n" s="10">
         <v>137.8</v>
       </c>
       <c r="F51" t="n" s="10">
-        <v>165.3</v>
+        <v>165.1</v>
       </c>
       <c r="G51" t="n" s="10">
         <v>161.1</v>
       </c>
       <c r="H51" t="n" s="10">
-        <v>156.9</v>
+        <v>157.0</v>
       </c>
       <c r="I51" t="n" s="10">
-        <v>176.3</v>
+        <v>176.2</v>
       </c>
       <c r="J51" t="n" s="10">
         <v>150.9</v>
@@ -5091,22 +5091,22 @@
         <v>192.4</v>
       </c>
       <c r="M51" t="n" s="10">
-        <v>171.4</v>
+        <v>171.5</v>
       </c>
       <c r="N51" t="n" s="10">
-        <v>200.0</v>
+        <v>199.9</v>
       </c>
       <c r="O51" t="n" s="10">
-        <v>206.9</v>
+        <v>206.7</v>
       </c>
       <c r="P51" t="n" s="10">
-        <v>171.8</v>
-      </c>
-      <c r="Q51" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R51" t="s" s="10">
-        <v>26</v>
+        <v>171.9</v>
+      </c>
+      <c r="Q51" t="n" s="10">
+        <v>175.7</v>
+      </c>
+      <c r="R51" t="n" s="10">
+        <v>240.9</v>
       </c>
       <c r="S51" t="s" s="10">
         <v>26</v>
@@ -5182,11 +5182,11 @@
       <c r="P52" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q52" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R52" t="s" s="10">
-        <v>26</v>
+      <c r="Q52" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="R52" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="S52" t="s" s="10">
         <v>26</v>
@@ -5265,11 +5265,11 @@
       <c r="P53" t="n" s="10">
         <v>140.9</v>
       </c>
-      <c r="Q53" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R53" t="s" s="10">
-        <v>26</v>
+      <c r="Q53" t="n" s="10">
+        <v>139.0</v>
+      </c>
+      <c r="R53" t="n" s="10">
+        <v>206.5</v>
       </c>
       <c r="S53" t="s" s="10">
         <v>26</v>
@@ -5345,11 +5345,11 @@
       <c r="P54" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q54" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R54" t="s" s="10">
-        <v>26</v>
+      <c r="Q54" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="R54" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="S54" t="s" s="10">
         <v>26</v>
@@ -5395,49 +5395,49 @@
         <v>25</v>
       </c>
       <c r="D56" t="n" s="10">
-        <v>158.5</v>
+        <v>159.0</v>
       </c>
       <c r="E56" t="n" s="10">
-        <v>156.0</v>
+        <v>155.8</v>
       </c>
       <c r="F56" t="n" s="10">
-        <v>140.8</v>
+        <v>139.6</v>
       </c>
       <c r="G56" t="n" s="10">
-        <v>150.5</v>
+        <v>150.8</v>
       </c>
       <c r="H56" t="n" s="10">
-        <v>152.7</v>
+        <v>152.8</v>
       </c>
       <c r="I56" t="n" s="10">
-        <v>149.4</v>
+        <v>149.3</v>
       </c>
       <c r="J56" t="n" s="10">
-        <v>152.7</v>
+        <v>152.8</v>
       </c>
       <c r="K56" t="n" s="10">
-        <v>165.2</v>
+        <v>165.4</v>
       </c>
       <c r="L56" t="n" s="10">
-        <v>174.7</v>
+        <v>174.9</v>
       </c>
       <c r="M56" t="n" s="10">
-        <v>165.6</v>
+        <v>165.8</v>
       </c>
       <c r="N56" t="n" s="10">
-        <v>157.9</v>
+        <v>158.3</v>
       </c>
       <c r="O56" t="n" s="10">
-        <v>189.3</v>
+        <v>189.4</v>
       </c>
       <c r="P56" t="n" s="10">
-        <v>169.0</v>
-      </c>
-      <c r="Q56" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R56" t="s" s="10">
-        <v>26</v>
+        <v>169.5</v>
+      </c>
+      <c r="Q56" t="n" s="10">
+        <v>168.9</v>
+      </c>
+      <c r="R56" t="n" s="10">
+        <v>186.4</v>
       </c>
       <c r="S56" t="s" s="10">
         <v>26</v>
@@ -5475,49 +5475,49 @@
         <v>25</v>
       </c>
       <c r="D57" t="n" s="10">
-        <v>131.9</v>
+        <v>132.3</v>
       </c>
       <c r="E57" t="n" s="10">
-        <v>128.4</v>
+        <v>128.2</v>
       </c>
       <c r="F57" t="n" s="10">
-        <v>115.6</v>
+        <v>114.6</v>
       </c>
       <c r="G57" t="n" s="10">
-        <v>123.1</v>
+        <v>123.4</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>121.4</v>
+        <v>121.5</v>
       </c>
       <c r="I57" t="n" s="10">
-        <v>118.7</v>
+        <v>118.6</v>
       </c>
       <c r="J57" t="n" s="10">
-        <v>120.9</v>
+        <v>121.0</v>
       </c>
       <c r="K57" t="n" s="10">
         <v>126.4</v>
       </c>
       <c r="L57" t="n" s="10">
-        <v>133.3</v>
+        <v>133.4</v>
       </c>
       <c r="M57" t="n" s="10">
-        <v>126.0</v>
+        <v>126.2</v>
       </c>
       <c r="N57" t="n" s="10">
-        <v>118.2</v>
+        <v>118.5</v>
       </c>
       <c r="O57" t="n" s="10">
-        <v>141.1</v>
+        <v>141.2</v>
       </c>
       <c r="P57" t="n" s="10">
-        <v>125.9</v>
-      </c>
-      <c r="Q57" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R57" t="s" s="10">
-        <v>26</v>
+        <v>126.2</v>
+      </c>
+      <c r="Q57" t="n" s="10">
+        <v>122.3</v>
+      </c>
+      <c r="R57" t="n" s="10">
+        <v>134.6</v>
       </c>
       <c r="S57" t="s" s="10">
         <v>26</v>
@@ -5596,11 +5596,11 @@
       <c r="P58" t="n" s="10">
         <v>169.7</v>
       </c>
-      <c r="Q58" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R58" t="s" s="10">
-        <v>26</v>
+      <c r="Q58" t="n" s="10">
+        <v>173.4</v>
+      </c>
+      <c r="R58" t="n" s="10">
+        <v>192.5</v>
       </c>
       <c r="S58" t="s" s="10">
         <v>26</v>
@@ -5676,11 +5676,11 @@
       <c r="P59" t="n" s="10">
         <v>125.0</v>
       </c>
-      <c r="Q59" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R59" t="s" s="10">
-        <v>26</v>
+      <c r="Q59" t="n" s="10">
+        <v>124.4</v>
+      </c>
+      <c r="R59" t="n" s="10">
+        <v>137.8</v>
       </c>
       <c r="S59" t="s" s="10">
         <v>26</v>
@@ -5759,11 +5759,11 @@
       <c r="P60" t="n" s="10">
         <v>193.8</v>
       </c>
-      <c r="Q60" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R60" t="s" s="10">
-        <v>26</v>
+      <c r="Q60" t="n" s="10">
+        <v>196.0</v>
+      </c>
+      <c r="R60" t="n" s="10">
+        <v>201.3</v>
       </c>
       <c r="S60" t="s" s="10">
         <v>26</v>
@@ -5839,11 +5839,11 @@
       <c r="P61" t="n" s="10">
         <v>142.8</v>
       </c>
-      <c r="Q61" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R61" t="s" s="10">
-        <v>26</v>
+      <c r="Q61" t="n" s="10">
+        <v>140.8</v>
+      </c>
+      <c r="R61" t="n" s="10">
+        <v>144.2</v>
       </c>
       <c r="S61" t="s" s="10">
         <v>26</v>
@@ -5922,11 +5922,11 @@
       <c r="P62" t="n" s="10">
         <v>152.9</v>
       </c>
-      <c r="Q62" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R62" t="s" s="10">
-        <v>26</v>
+      <c r="Q62" t="n" s="10">
+        <v>157.6</v>
+      </c>
+      <c r="R62" t="n" s="10">
+        <v>186.4</v>
       </c>
       <c r="S62" t="s" s="10">
         <v>26</v>
@@ -6002,11 +6002,11 @@
       <c r="P63" t="n" s="10">
         <v>112.6</v>
       </c>
-      <c r="Q63" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R63" t="s" s="10">
-        <v>26</v>
+      <c r="Q63" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="R63" t="n" s="10">
+        <v>133.3</v>
       </c>
       <c r="S63" t="s" s="10">
         <v>26</v>
@@ -6085,11 +6085,11 @@
       <c r="P64" t="n" s="10">
         <v>150.9</v>
       </c>
-      <c r="Q64" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R64" t="s" s="10">
-        <v>26</v>
+      <c r="Q64" t="n" s="10">
+        <v>164.3</v>
+      </c>
+      <c r="R64" t="n" s="10">
+        <v>190.2</v>
       </c>
       <c r="S64" t="s" s="10">
         <v>26</v>
@@ -6165,11 +6165,11 @@
       <c r="P65" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q65" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R65" t="s" s="10">
-        <v>26</v>
+      <c r="Q65" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="R65" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="S65" t="s" s="10">
         <v>26</v>
@@ -6248,11 +6248,11 @@
       <c r="P66" t="n" s="10">
         <v>160.2</v>
       </c>
-      <c r="Q66" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R66" t="s" s="10">
-        <v>26</v>
+      <c r="Q66" t="n" s="10">
+        <v>132.5</v>
+      </c>
+      <c r="R66" t="n" s="10">
+        <v>172.0</v>
       </c>
       <c r="S66" t="s" s="10">
         <v>26</v>
@@ -6328,11 +6328,11 @@
       <c r="P67" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q67" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R67" t="s" s="10">
-        <v>26</v>
+      <c r="Q67" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="R67" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="S67" t="s" s="10">
         <v>26</v>
@@ -6373,49 +6373,49 @@
         <v>25</v>
       </c>
       <c r="D68" t="n" s="10">
-        <v>152.6</v>
+        <v>153.5</v>
       </c>
       <c r="E68" t="n" s="10">
-        <v>150.4</v>
+        <v>149.9</v>
       </c>
       <c r="F68" t="n" s="10">
-        <v>137.5</v>
+        <v>135.0</v>
       </c>
       <c r="G68" t="n" s="10">
-        <v>145.6</v>
+        <v>146.3</v>
       </c>
       <c r="H68" t="n" s="10">
-        <v>145.1</v>
+        <v>145.3</v>
       </c>
       <c r="I68" t="n" s="10">
-        <v>146.7</v>
+        <v>146.4</v>
       </c>
       <c r="J68" t="n" s="10">
-        <v>142.6</v>
+        <v>142.8</v>
       </c>
       <c r="K68" t="n" s="10">
-        <v>158.4</v>
+        <v>158.7</v>
       </c>
       <c r="L68" t="n" s="10">
-        <v>169.1</v>
+        <v>169.6</v>
       </c>
       <c r="M68" t="n" s="10">
-        <v>157.3</v>
+        <v>157.9</v>
       </c>
       <c r="N68" t="n" s="10">
-        <v>162.8</v>
+        <v>163.6</v>
       </c>
       <c r="O68" t="n" s="10">
-        <v>172.2</v>
+        <v>172.6</v>
       </c>
       <c r="P68" t="n" s="10">
-        <v>168.3</v>
-      </c>
-      <c r="Q68" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R68" t="s" s="10">
-        <v>26</v>
+        <v>169.4</v>
+      </c>
+      <c r="Q68" t="n" s="10">
+        <v>163.8</v>
+      </c>
+      <c r="R68" t="n" s="10">
+        <v>179.4</v>
       </c>
       <c r="S68" t="s" s="10">
         <v>26</v>
@@ -6453,49 +6453,49 @@
         <v>25</v>
       </c>
       <c r="D69" t="n" s="10">
-        <v>126.6</v>
+        <v>127.3</v>
       </c>
       <c r="E69" t="n" s="10">
-        <v>123.4</v>
+        <v>123.0</v>
       </c>
       <c r="F69" t="n" s="10">
-        <v>112.6</v>
+        <v>110.5</v>
       </c>
       <c r="G69" t="n" s="10">
-        <v>118.9</v>
+        <v>119.4</v>
       </c>
       <c r="H69" t="n" s="10">
-        <v>116.6</v>
+        <v>116.8</v>
       </c>
       <c r="I69" t="n" s="10">
-        <v>117.7</v>
+        <v>117.5</v>
       </c>
       <c r="J69" t="n" s="10">
-        <v>114.1</v>
+        <v>114.3</v>
       </c>
       <c r="K69" t="n" s="10">
-        <v>122.8</v>
+        <v>123.0</v>
       </c>
       <c r="L69" t="n" s="10">
-        <v>130.7</v>
+        <v>131.0</v>
       </c>
       <c r="M69" t="n" s="10">
-        <v>121.3</v>
+        <v>121.7</v>
       </c>
       <c r="N69" t="n" s="10">
-        <v>123.2</v>
+        <v>123.8</v>
       </c>
       <c r="O69" t="n" s="10">
-        <v>130.1</v>
+        <v>130.3</v>
       </c>
       <c r="P69" t="n" s="10">
-        <v>126.9</v>
-      </c>
-      <c r="Q69" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R69" t="s" s="10">
-        <v>26</v>
+        <v>127.7</v>
+      </c>
+      <c r="Q69" t="n" s="10">
+        <v>119.8</v>
+      </c>
+      <c r="R69" t="n" s="10">
+        <v>130.9</v>
       </c>
       <c r="S69" t="s" s="10">
         <v>26</v>
@@ -6574,11 +6574,11 @@
       <c r="P70" t="n" s="10">
         <v>155.1</v>
       </c>
-      <c r="Q70" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R70" t="s" s="10">
-        <v>26</v>
+      <c r="Q70" t="n" s="10">
+        <v>135.7</v>
+      </c>
+      <c r="R70" t="n" s="10">
+        <v>152.0</v>
       </c>
       <c r="S70" t="s" s="10">
         <v>26</v>
@@ -6654,11 +6654,11 @@
       <c r="P71" t="n" s="10">
         <v>120.7</v>
       </c>
-      <c r="Q71" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R71" t="s" s="10">
-        <v>26</v>
+      <c r="Q71" t="n" s="10">
+        <v>101.6</v>
+      </c>
+      <c r="R71" t="n" s="10">
+        <v>113.6</v>
       </c>
       <c r="S71" t="s" s="10">
         <v>26</v>
@@ -6699,49 +6699,49 @@
         <v>25</v>
       </c>
       <c r="D72" t="n" s="10">
-        <v>165.3</v>
+        <v>166.8</v>
       </c>
       <c r="E72" t="n" s="10">
-        <v>155.2</v>
+        <v>154.4</v>
       </c>
       <c r="F72" t="n" s="10">
-        <v>147.3</v>
+        <v>143.3</v>
       </c>
       <c r="G72" t="n" s="10">
-        <v>154.7</v>
+        <v>155.7</v>
       </c>
       <c r="H72" t="n" s="10">
+        <v>153.3</v>
+      </c>
+      <c r="I72" t="n" s="10">
         <v>153.0</v>
       </c>
-      <c r="I72" t="n" s="10">
-        <v>153.4</v>
-      </c>
       <c r="J72" t="n" s="10">
-        <v>144.0</v>
+        <v>144.3</v>
       </c>
       <c r="K72" t="n" s="10">
-        <v>161.4</v>
+        <v>161.8</v>
       </c>
       <c r="L72" t="n" s="10">
-        <v>181.3</v>
+        <v>182.0</v>
       </c>
       <c r="M72" t="n" s="10">
-        <v>165.7</v>
+        <v>166.6</v>
       </c>
       <c r="N72" t="n" s="10">
-        <v>172.2</v>
+        <v>173.4</v>
       </c>
       <c r="O72" t="n" s="10">
-        <v>184.3</v>
+        <v>184.8</v>
       </c>
       <c r="P72" t="n" s="10">
-        <v>176.0</v>
-      </c>
-      <c r="Q72" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R72" t="s" s="10">
-        <v>26</v>
+        <v>177.7</v>
+      </c>
+      <c r="Q72" t="n" s="10">
+        <v>180.2</v>
+      </c>
+      <c r="R72" t="n" s="10">
+        <v>195.3</v>
       </c>
       <c r="S72" t="s" s="10">
         <v>26</v>
@@ -6779,49 +6779,49 @@
         <v>25</v>
       </c>
       <c r="D73" t="n" s="10">
-        <v>137.3</v>
+        <v>138.5</v>
       </c>
       <c r="E73" t="n" s="10">
-        <v>127.2</v>
+        <v>126.5</v>
       </c>
       <c r="F73" t="n" s="10">
-        <v>120.5</v>
+        <v>117.2</v>
       </c>
       <c r="G73" t="n" s="10">
-        <v>126.1</v>
+        <v>126.9</v>
       </c>
       <c r="H73" t="n" s="10">
-        <v>122.2</v>
+        <v>122.5</v>
       </c>
       <c r="I73" t="n" s="10">
-        <v>122.3</v>
+        <v>122.0</v>
       </c>
       <c r="J73" t="n" s="10">
-        <v>114.5</v>
+        <v>114.8</v>
       </c>
       <c r="K73" t="n" s="10">
-        <v>123.1</v>
+        <v>123.4</v>
       </c>
       <c r="L73" t="n" s="10">
-        <v>138.0</v>
+        <v>138.5</v>
       </c>
       <c r="M73" t="n" s="10">
-        <v>125.8</v>
+        <v>126.5</v>
       </c>
       <c r="N73" t="n" s="10">
-        <v>128.3</v>
+        <v>129.2</v>
       </c>
       <c r="O73" t="n" s="10">
-        <v>137.0</v>
+        <v>137.4</v>
       </c>
       <c r="P73" t="n" s="10">
-        <v>130.5</v>
-      </c>
-      <c r="Q73" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R73" t="s" s="10">
-        <v>26</v>
+        <v>131.7</v>
+      </c>
+      <c r="Q73" t="n" s="10">
+        <v>130.4</v>
+      </c>
+      <c r="R73" t="n" s="10">
+        <v>140.9</v>
       </c>
       <c r="S73" t="s" s="10">
         <v>26</v>
@@ -6862,49 +6862,49 @@
         <v>25</v>
       </c>
       <c r="D74" t="n" s="10">
-        <v>166.7</v>
+        <v>169.3</v>
       </c>
       <c r="E74" t="n" s="10">
-        <v>158.8</v>
+        <v>157.3</v>
       </c>
       <c r="F74" t="n" s="10">
-        <v>147.7</v>
+        <v>140.8</v>
       </c>
       <c r="G74" t="n" s="10">
-        <v>164.2</v>
+        <v>166.0</v>
       </c>
       <c r="H74" t="n" s="10">
-        <v>158.1</v>
+        <v>158.6</v>
       </c>
       <c r="I74" t="n" s="10">
-        <v>167.3</v>
+        <v>166.6</v>
       </c>
       <c r="J74" t="n" s="10">
-        <v>153.4</v>
+        <v>153.9</v>
       </c>
       <c r="K74" t="n" s="10">
-        <v>159.3</v>
+        <v>160.0</v>
       </c>
       <c r="L74" t="n" s="10">
-        <v>189.3</v>
+        <v>190.5</v>
       </c>
       <c r="M74" t="n" s="10">
-        <v>170.5</v>
+        <v>172.0</v>
       </c>
       <c r="N74" t="n" s="10">
-        <v>186.1</v>
+        <v>188.3</v>
       </c>
       <c r="O74" t="n" s="10">
-        <v>204.0</v>
+        <v>204.9</v>
       </c>
       <c r="P74" t="n" s="10">
-        <v>181.2</v>
-      </c>
-      <c r="Q74" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R74" t="s" s="10">
-        <v>26</v>
+        <v>184.2</v>
+      </c>
+      <c r="Q74" t="n" s="10">
+        <v>198.7</v>
+      </c>
+      <c r="R74" t="n" s="10">
+        <v>205.5</v>
       </c>
       <c r="S74" t="s" s="10">
         <v>26</v>
@@ -6980,11 +6980,11 @@
       <c r="P75" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q75" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R75" t="s" s="10">
-        <v>26</v>
+      <c r="Q75" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="R75" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="S75" t="s" s="10">
         <v>26</v>
@@ -7063,11 +7063,11 @@
       <c r="P76" t="n" s="10">
         <v>169.1</v>
       </c>
-      <c r="Q76" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R76" t="s" s="10">
-        <v>26</v>
+      <c r="Q76" t="n" s="10">
+        <v>155.7</v>
+      </c>
+      <c r="R76" t="n" s="10">
+        <v>181.8</v>
       </c>
       <c r="S76" t="s" s="10">
         <v>26</v>
@@ -7143,11 +7143,11 @@
       <c r="P77" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q77" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R77" t="s" s="10">
-        <v>26</v>
+      <c r="Q77" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="R77" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="S77" t="s" s="10">
         <v>26</v>
@@ -7193,49 +7193,49 @@
         <v>25</v>
       </c>
       <c r="D79" t="n" s="10">
-        <v>149.2</v>
+        <v>149.4</v>
       </c>
       <c r="E79" t="n" s="10">
-        <v>153.3</v>
+        <v>152.6</v>
       </c>
       <c r="F79" t="n" s="10">
-        <v>149.1</v>
+        <v>149.6</v>
       </c>
       <c r="G79" t="n" s="10">
         <v>154.7</v>
       </c>
       <c r="H79" t="n" s="10">
-        <v>160.3</v>
+        <v>159.9</v>
       </c>
       <c r="I79" t="n" s="10">
         <v>150.7</v>
       </c>
       <c r="J79" t="n" s="10">
-        <v>156.2</v>
+        <v>156.4</v>
       </c>
       <c r="K79" t="n" s="10">
-        <v>165.8</v>
+        <v>165.3</v>
       </c>
       <c r="L79" t="n" s="10">
-        <v>170.0</v>
+        <v>169.7</v>
       </c>
       <c r="M79" t="n" s="10">
-        <v>161.8</v>
+        <v>161.9</v>
       </c>
       <c r="N79" t="n" s="10">
-        <v>155.9</v>
+        <v>156.0</v>
       </c>
       <c r="O79" t="n" s="10">
-        <v>187.4</v>
+        <v>187.2</v>
       </c>
       <c r="P79" t="n" s="10">
-        <v>161.1</v>
-      </c>
-      <c r="Q79" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R79" t="s" s="10">
-        <v>26</v>
+        <v>161.0</v>
+      </c>
+      <c r="Q79" t="n" s="10">
+        <v>163.9</v>
+      </c>
+      <c r="R79" t="n" s="10">
+        <v>204.7</v>
       </c>
       <c r="S79" t="s" s="10">
         <v>26</v>
@@ -7273,49 +7273,49 @@
         <v>25</v>
       </c>
       <c r="D80" t="n" s="10">
+        <v>125.1</v>
+      </c>
+      <c r="E80" t="n" s="10">
+        <v>126.7</v>
+      </c>
+      <c r="F80" t="n" s="10">
+        <v>119.5</v>
+      </c>
+      <c r="G80" t="n" s="10">
+        <v>125.5</v>
+      </c>
+      <c r="H80" t="n" s="10">
+        <v>127.5</v>
+      </c>
+      <c r="I80" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="J80" t="n" s="10">
+        <v>123.4</v>
+      </c>
+      <c r="K80" t="n" s="10">
+        <v>127.6</v>
+      </c>
+      <c r="L80" t="n" s="10">
+        <v>129.6</v>
+      </c>
+      <c r="M80" t="n" s="10">
         <v>123.9</v>
       </c>
-      <c r="E80" t="n" s="10">
-        <v>126.0</v>
-      </c>
-      <c r="F80" t="n" s="10">
-        <v>121.6</v>
-      </c>
-      <c r="G80" t="n" s="10">
-        <v>126.1</v>
-      </c>
-      <c r="H80" t="n" s="10">
-        <v>128.3</v>
-      </c>
-      <c r="I80" t="n" s="10">
-        <v>119.0</v>
-      </c>
-      <c r="J80" t="n" s="10">
-        <v>123.6</v>
-      </c>
-      <c r="K80" t="n" s="10">
-        <v>127.9</v>
-      </c>
-      <c r="L80" t="n" s="10">
-        <v>129.8</v>
-      </c>
-      <c r="M80" t="n" s="10">
-        <v>123.6</v>
-      </c>
       <c r="N80" t="n" s="10">
-        <v>116.9</v>
+        <v>118.2</v>
       </c>
       <c r="O80" t="n" s="10">
-        <v>138.2</v>
+        <v>138.7</v>
       </c>
       <c r="P80" t="n" s="10">
-        <v>120.0</v>
-      </c>
-      <c r="Q80" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R80" t="s" s="10">
-        <v>26</v>
+        <v>123.0</v>
+      </c>
+      <c r="Q80" t="n" s="10">
+        <v>123.4</v>
+      </c>
+      <c r="R80" t="n" s="10">
+        <v>138.5</v>
       </c>
       <c r="S80" t="s" s="10">
         <v>26</v>
@@ -7356,49 +7356,49 @@
         <v>25</v>
       </c>
       <c r="D81" t="n" s="10">
-        <v>150.6</v>
+        <v>151.2</v>
       </c>
       <c r="E81" t="n" s="10">
-        <v>153.3</v>
+        <v>152.5</v>
       </c>
       <c r="F81" t="n" s="10">
-        <v>152.1</v>
+        <v>152.6</v>
       </c>
       <c r="G81" t="n" s="10">
-        <v>162.5</v>
+        <v>162.1</v>
       </c>
       <c r="H81" t="n" s="10">
-        <v>171.0</v>
+        <v>169.9</v>
       </c>
       <c r="I81" t="n" s="10">
-        <v>159.4</v>
+        <v>159.2</v>
       </c>
       <c r="J81" t="n" s="10">
-        <v>161.1</v>
+        <v>160.9</v>
       </c>
       <c r="K81" t="n" s="10">
         <v>169.1</v>
       </c>
       <c r="L81" t="n" s="10">
-        <v>172.5</v>
+        <v>172.2</v>
       </c>
       <c r="M81" t="n" s="10">
         <v>164.1</v>
       </c>
       <c r="N81" t="n" s="10">
-        <v>150.1</v>
+        <v>150.7</v>
       </c>
       <c r="O81" t="n" s="10">
-        <v>212.1</v>
+        <v>212.5</v>
       </c>
       <c r="P81" t="n" s="10">
-        <v>158.8</v>
-      </c>
-      <c r="Q81" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R81" t="s" s="10">
-        <v>26</v>
+        <v>160.1</v>
+      </c>
+      <c r="Q81" t="n" s="10">
+        <v>164.5</v>
+      </c>
+      <c r="R81" t="n" s="10">
+        <v>208.4</v>
       </c>
       <c r="S81" t="s" s="10">
         <v>26</v>
@@ -7436,49 +7436,49 @@
         <v>25</v>
       </c>
       <c r="D82" t="n" s="10">
-        <v>125.4</v>
+        <v>127.4</v>
       </c>
       <c r="E82" t="n" s="10">
+        <v>126.9</v>
+      </c>
+      <c r="F82" t="n" s="10">
+        <v>121.2</v>
+      </c>
+      <c r="G82" t="n" s="10">
+        <v>131.5</v>
+      </c>
+      <c r="H82" t="n" s="10">
+        <v>134.9</v>
+      </c>
+      <c r="I82" t="n" s="10">
+        <v>124.6</v>
+      </c>
+      <c r="J82" t="n" s="10">
         <v>126.1</v>
       </c>
-      <c r="F82" t="n" s="10">
-        <v>123.9</v>
-      </c>
-      <c r="G82" t="n" s="10">
-        <v>132.6</v>
-      </c>
-      <c r="H82" t="n" s="10">
-        <v>136.4</v>
-      </c>
-      <c r="I82" t="n" s="10">
-        <v>125.0</v>
-      </c>
-      <c r="J82" t="n" s="10">
-        <v>126.6</v>
-      </c>
       <c r="K82" t="n" s="10">
-        <v>129.1</v>
+        <v>129.0</v>
       </c>
       <c r="L82" t="n" s="10">
-        <v>130.1</v>
+        <v>129.9</v>
       </c>
       <c r="M82" t="n" s="10">
-        <v>123.9</v>
+        <v>124.3</v>
       </c>
       <c r="N82" t="n" s="10">
-        <v>111.0</v>
+        <v>112.7</v>
       </c>
       <c r="O82" t="n" s="10">
-        <v>155.1</v>
+        <v>156.1</v>
       </c>
       <c r="P82" t="n" s="10">
-        <v>116.4</v>
-      </c>
-      <c r="Q82" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R82" t="s" s="10">
-        <v>26</v>
+        <v>121.1</v>
+      </c>
+      <c r="Q82" t="n" s="10">
+        <v>122.8</v>
+      </c>
+      <c r="R82" t="n" s="10">
+        <v>138.4</v>
       </c>
       <c r="S82" t="s" s="10">
         <v>26</v>
@@ -7519,49 +7519,49 @@
         <v>25</v>
       </c>
       <c r="D83" t="n" s="10">
-        <v>163.5</v>
+        <v>163.9</v>
       </c>
       <c r="E83" t="n" s="10">
-        <v>169.3</v>
+        <v>168.9</v>
       </c>
       <c r="F83" t="n" s="10">
-        <v>166.7</v>
+        <v>166.9</v>
       </c>
       <c r="G83" t="n" s="10">
-        <v>209.7</v>
+        <v>209.9</v>
       </c>
       <c r="H83" t="n" s="10">
-        <v>184.6</v>
+        <v>183.2</v>
       </c>
       <c r="I83" t="n" s="10">
-        <v>173.8</v>
+        <v>173.5</v>
       </c>
       <c r="J83" t="n" s="10">
-        <v>176.8</v>
+        <v>176.7</v>
       </c>
       <c r="K83" t="n" s="10">
         <v>173.4</v>
       </c>
       <c r="L83" t="n" s="10">
-        <v>178.9</v>
+        <v>178.5</v>
       </c>
       <c r="M83" t="n" s="10">
-        <v>162.3</v>
+        <v>161.6</v>
       </c>
       <c r="N83" t="n" s="10">
         <v>165.9</v>
       </c>
       <c r="O83" t="n" s="10">
-        <v>175.7</v>
+        <v>176.7</v>
       </c>
       <c r="P83" t="n" s="10">
-        <v>182.8</v>
-      </c>
-      <c r="Q83" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R83" t="s" s="10">
-        <v>26</v>
+        <v>184.6</v>
+      </c>
+      <c r="Q83" t="n" s="10">
+        <v>183.1</v>
+      </c>
+      <c r="R83" t="n" s="10">
+        <v>213.3</v>
       </c>
       <c r="S83" t="s" s="10">
         <v>26</v>
@@ -7599,49 +7599,49 @@
         <v>25</v>
       </c>
       <c r="D84" t="n" s="10">
-        <v>135.3</v>
+        <v>136.4</v>
       </c>
       <c r="E84" t="n" s="10">
-        <v>139.5</v>
+        <v>139.3</v>
       </c>
       <c r="F84" t="n" s="10">
-        <v>135.7</v>
+        <v>133.8</v>
       </c>
       <c r="G84" t="n" s="10">
         <v>172.7</v>
       </c>
       <c r="H84" t="n" s="10">
-        <v>146.4</v>
+        <v>144.9</v>
       </c>
       <c r="I84" t="n" s="10">
-        <v>136.3</v>
+        <v>135.9</v>
       </c>
       <c r="J84" t="n" s="10">
-        <v>138.5</v>
+        <v>138.2</v>
       </c>
       <c r="K84" t="n" s="10">
         <v>131.9</v>
       </c>
       <c r="L84" t="n" s="10">
-        <v>134.5</v>
+        <v>134.2</v>
       </c>
       <c r="M84" t="n" s="10">
-        <v>121.0</v>
+        <v>120.7</v>
       </c>
       <c r="N84" t="n" s="10">
-        <v>122.6</v>
+        <v>123.3</v>
       </c>
       <c r="O84" t="n" s="10">
-        <v>127.2</v>
+        <v>129.5</v>
       </c>
       <c r="P84" t="n" s="10">
-        <v>134.4</v>
-      </c>
-      <c r="Q84" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R84" t="s" s="10">
-        <v>26</v>
+        <v>138.0</v>
+      </c>
+      <c r="Q84" t="n" s="10">
+        <v>134.3</v>
+      </c>
+      <c r="R84" t="n" s="10">
+        <v>144.7</v>
       </c>
       <c r="S84" t="s" s="10">
         <v>26</v>
@@ -7682,49 +7682,49 @@
         <v>25</v>
       </c>
       <c r="D85" t="n" s="10">
-        <v>140.8</v>
+        <v>144.0</v>
       </c>
       <c r="E85" t="n" s="10">
-        <v>140.3</v>
+        <v>141.9</v>
       </c>
       <c r="F85" t="n" s="10">
-        <v>140.4</v>
+        <v>135.7</v>
       </c>
       <c r="G85" t="n" s="10">
-        <v>141.3</v>
+        <v>141.0</v>
       </c>
       <c r="H85" t="n" s="10">
-        <v>160.4</v>
+        <v>158.5</v>
       </c>
       <c r="I85" t="n" s="10">
-        <v>148.1</v>
+        <v>147.3</v>
       </c>
       <c r="J85" t="n" s="10">
-        <v>149.4</v>
+        <v>148.3</v>
       </c>
       <c r="K85" t="n" s="10">
-        <v>165.2</v>
+        <v>164.6</v>
       </c>
       <c r="L85" t="n" s="10">
-        <v>167.1</v>
+        <v>166.7</v>
       </c>
       <c r="M85" t="n" s="10">
-        <v>164.4</v>
+        <v>165.6</v>
       </c>
       <c r="N85" t="n" s="10">
-        <v>137.8</v>
+        <v>141.2</v>
       </c>
       <c r="O85" t="n" s="10">
-        <v>234.9</v>
+        <v>235.9</v>
       </c>
       <c r="P85" t="n" s="10">
-        <v>140.7</v>
-      </c>
-      <c r="Q85" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R85" t="s" s="10">
-        <v>26</v>
+        <v>147.7</v>
+      </c>
+      <c r="Q85" t="n" s="10">
+        <v>157.4</v>
+      </c>
+      <c r="R85" t="n" s="10">
+        <v>187.6</v>
       </c>
       <c r="S85" t="s" s="10">
         <v>26</v>
@@ -7762,49 +7762,49 @@
         <v>25</v>
       </c>
       <c r="D86" t="n" s="10">
-        <v>118.3</v>
+        <v>120.2</v>
       </c>
       <c r="E86" t="n" s="10">
-        <v>116.4</v>
+        <v>117.5</v>
       </c>
       <c r="F86" t="n" s="10">
-        <v>115.4</v>
+        <v>112.1</v>
       </c>
       <c r="G86" t="n" s="10">
-        <v>116.2</v>
+        <v>115.9</v>
       </c>
       <c r="H86" t="n" s="10">
-        <v>118.9</v>
+        <v>117.7</v>
       </c>
       <c r="I86" t="n" s="10">
-        <v>117.2</v>
+        <v>116.8</v>
       </c>
       <c r="J86" t="n" s="10">
-        <v>118.1</v>
+        <v>117.4</v>
       </c>
       <c r="K86" t="n" s="10">
-        <v>127.2</v>
+        <v>126.9</v>
       </c>
       <c r="L86" t="n" s="10">
-        <v>126.8</v>
+        <v>126.6</v>
       </c>
       <c r="M86" t="n" s="10">
-        <v>125.4</v>
+        <v>126.3</v>
       </c>
       <c r="N86" t="n" s="10">
-        <v>102.3</v>
+        <v>104.7</v>
       </c>
       <c r="O86" t="n" s="10">
-        <v>174.3</v>
+        <v>175.1</v>
       </c>
       <c r="P86" t="n" s="10">
-        <v>103.5</v>
-      </c>
-      <c r="Q86" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R86" t="s" s="10">
-        <v>26</v>
+        <v>108.0</v>
+      </c>
+      <c r="Q86" t="n" s="10">
+        <v>112.8</v>
+      </c>
+      <c r="R86" t="n" s="10">
+        <v>132.7</v>
       </c>
       <c r="S86" t="s" s="10">
         <v>26</v>
@@ -7845,49 +7845,49 @@
         <v>25</v>
       </c>
       <c r="D87" t="n" s="10">
-        <v>145.5</v>
+        <v>148.0</v>
       </c>
       <c r="E87" t="n" s="10">
-        <v>142.3</v>
+        <v>144.4</v>
       </c>
       <c r="F87" t="n" s="10">
-        <v>140.0</v>
+        <v>136.2</v>
       </c>
       <c r="G87" t="n" s="10">
-        <v>140.5</v>
+        <v>140.9</v>
       </c>
       <c r="H87" t="n" s="10">
-        <v>148.8</v>
+        <v>148.0</v>
       </c>
       <c r="I87" t="n" s="10">
-        <v>154.5</v>
+        <v>153.9</v>
       </c>
       <c r="J87" t="n" s="10">
-        <v>158.1</v>
+        <v>156.8</v>
       </c>
       <c r="K87" t="n" s="10">
-        <v>173.0</v>
+        <v>171.9</v>
       </c>
       <c r="L87" t="n" s="10">
-        <v>177.2</v>
+        <v>176.2</v>
       </c>
       <c r="M87" t="n" s="10">
-        <v>171.1</v>
+        <v>171.7</v>
       </c>
       <c r="N87" t="n" s="10">
-        <v>145.9</v>
+        <v>147.6</v>
       </c>
       <c r="O87" t="n" s="10">
-        <v>180.3</v>
+        <v>183.8</v>
       </c>
       <c r="P87" t="n" s="10">
-        <v>143.4</v>
-      </c>
-      <c r="Q87" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R87" t="s" s="10">
-        <v>26</v>
+        <v>147.1</v>
+      </c>
+      <c r="Q87" t="n" s="10">
+        <v>161.4</v>
+      </c>
+      <c r="R87" t="n" s="10">
+        <v>192.6</v>
       </c>
       <c r="S87" t="s" s="10">
         <v>26</v>
@@ -7964,10 +7964,10 @@
         <v>32</v>
       </c>
       <c r="Q88" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R88" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S88" t="s" s="10">
         <v>26</v>
@@ -8008,49 +8008,49 @@
         <v>25</v>
       </c>
       <c r="D89" t="n" s="10">
-        <v>128.5</v>
+        <v>128.7</v>
       </c>
       <c r="E89" t="n" s="10">
-        <v>129.7</v>
+        <v>132.1</v>
       </c>
       <c r="F89" t="n" s="10">
-        <v>140.7</v>
+        <v>140.1</v>
       </c>
       <c r="G89" t="n" s="10">
-        <v>144.3</v>
+        <v>143.8</v>
       </c>
       <c r="H89" t="n" s="10">
-        <v>153.6</v>
+        <v>152.3</v>
       </c>
       <c r="I89" t="n" s="10">
-        <v>127.4</v>
+        <v>128.1</v>
       </c>
       <c r="J89" t="n" s="10">
-        <v>121.7</v>
+        <v>121.9</v>
       </c>
       <c r="K89" t="n" s="10">
-        <v>145.0</v>
+        <v>144.9</v>
       </c>
       <c r="L89" t="n" s="10">
-        <v>141.6</v>
+        <v>141.2</v>
       </c>
       <c r="M89" t="n" s="10">
-        <v>153.7</v>
+        <v>152.3</v>
       </c>
       <c r="N89" t="n" s="10">
-        <v>138.3</v>
+        <v>136.5</v>
       </c>
       <c r="O89" t="n" s="10">
-        <v>387.1</v>
+        <v>387.7</v>
       </c>
       <c r="P89" t="n" s="10">
-        <v>153.1</v>
-      </c>
-      <c r="Q89" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R89" t="s" s="10">
-        <v>26</v>
+        <v>152.2</v>
+      </c>
+      <c r="Q89" t="n" s="10">
+        <v>144.1</v>
+      </c>
+      <c r="R89" t="n" s="10">
+        <v>185.5</v>
       </c>
       <c r="S89" t="s" s="10">
         <v>26</v>
@@ -8127,10 +8127,10 @@
         <v>32</v>
       </c>
       <c r="Q90" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R90" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S90" t="s" s="10">
         <v>26</v>
@@ -8171,49 +8171,49 @@
         <v>25</v>
       </c>
       <c r="D91" t="n" s="10">
-        <v>146.7</v>
+        <v>147.2</v>
       </c>
       <c r="E91" t="n" s="10">
-        <v>152.3</v>
+        <v>152.6</v>
       </c>
       <c r="F91" t="n" s="10">
-        <v>144.5</v>
+        <v>146.2</v>
       </c>
       <c r="G91" t="n" s="10">
-        <v>144.4</v>
+        <v>146.1</v>
       </c>
       <c r="H91" t="n" s="10">
-        <v>146.7</v>
+        <v>148.3</v>
       </c>
       <c r="I91" t="n" s="10">
-        <v>153.0</v>
+        <v>140.6</v>
       </c>
       <c r="J91" t="n" s="10">
-        <v>149.5</v>
+        <v>151.1</v>
       </c>
       <c r="K91" t="n" s="10">
-        <v>160.4</v>
+        <v>160.8</v>
       </c>
       <c r="L91" t="n" s="10">
-        <v>165.6</v>
+        <v>166.5</v>
       </c>
       <c r="M91" t="n" s="10">
-        <v>157.9</v>
+        <v>159.3</v>
       </c>
       <c r="N91" t="n" s="10">
-        <v>160.7</v>
+        <v>161.8</v>
       </c>
       <c r="O91" t="n" s="10">
-        <v>159.3</v>
+        <v>159.7</v>
       </c>
       <c r="P91" t="n" s="10">
         <v>161.8</v>
       </c>
-      <c r="Q91" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R91" t="s" s="10">
-        <v>26</v>
+      <c r="Q91" t="n" s="10">
+        <v>163.0</v>
+      </c>
+      <c r="R91" t="n" s="10">
+        <v>200.4</v>
       </c>
       <c r="S91" t="s" s="10">
         <v>26</v>
@@ -8251,49 +8251,49 @@
         <v>25</v>
       </c>
       <c r="D92" t="n" s="10">
+        <v>121.6</v>
+      </c>
+      <c r="E92" t="n" s="10">
+        <v>125.5</v>
+      </c>
+      <c r="F92" t="n" s="10">
+        <v>119.3</v>
+      </c>
+      <c r="G92" t="n" s="10">
+        <v>118.8</v>
+      </c>
+      <c r="H92" t="n" s="10">
+        <v>119.3</v>
+      </c>
+      <c r="I92" t="n" s="10">
+        <v>112.0</v>
+      </c>
+      <c r="J92" t="n" s="10">
+        <v>120.7</v>
+      </c>
+      <c r="K92" t="n" s="10">
+        <v>125.7</v>
+      </c>
+      <c r="L92" t="n" s="10">
+        <v>128.9</v>
+      </c>
+      <c r="M92" t="n" s="10">
+        <v>123.2</v>
+      </c>
+      <c r="N92" t="n" s="10">
+        <v>123.0</v>
+      </c>
+      <c r="O92" t="n" s="10">
+        <v>119.7</v>
+      </c>
+      <c r="P92" t="n" s="10">
         <v>122.3</v>
       </c>
-      <c r="E92" t="n" s="10">
-        <v>126.1</v>
-      </c>
-      <c r="F92" t="n" s="10">
-        <v>118.8</v>
-      </c>
-      <c r="G92" t="n" s="10">
-        <v>118.4</v>
-      </c>
-      <c r="H92" t="n" s="10">
-        <v>118.9</v>
-      </c>
-      <c r="I92" t="n" s="10">
-        <v>111.8</v>
-      </c>
-      <c r="J92" t="n" s="10">
-        <v>120.3</v>
-      </c>
-      <c r="K92" t="n" s="10">
-        <v>126.1</v>
-      </c>
-      <c r="L92" t="n" s="10">
-        <v>129.0</v>
-      </c>
-      <c r="M92" t="n" s="10">
-        <v>123.0</v>
-      </c>
-      <c r="N92" t="n" s="10">
-        <v>123.1</v>
-      </c>
-      <c r="O92" t="n" s="10">
-        <v>120.3</v>
-      </c>
-      <c r="P92" t="n" s="10">
-        <v>123.3</v>
-      </c>
-      <c r="Q92" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R92" t="s" s="10">
-        <v>26</v>
+      <c r="Q92" t="n" s="10">
+        <v>120.7</v>
+      </c>
+      <c r="R92" t="n" s="10">
+        <v>144.2</v>
       </c>
       <c r="S92" t="s" s="10">
         <v>26</v>
@@ -8334,49 +8334,49 @@
         <v>25</v>
       </c>
       <c r="D93" t="n" s="10">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="E93" t="n" s="10">
-        <v>146.2</v>
+        <v>146.7</v>
       </c>
       <c r="F93" t="n" s="10">
-        <v>129.9</v>
+        <v>127.9</v>
       </c>
       <c r="G93" t="n" s="10">
-        <v>128.1</v>
+        <v>128.7</v>
       </c>
       <c r="H93" t="n" s="10">
-        <v>132.8</v>
+        <v>133.0</v>
       </c>
       <c r="I93" t="n" s="10">
-        <v>140.7</v>
+        <v>140.2</v>
       </c>
       <c r="J93" t="n" s="10">
+        <v>143.1</v>
+      </c>
+      <c r="K93" t="n" s="10">
+        <v>154.9</v>
+      </c>
+      <c r="L93" t="n" s="10">
         <v>143.6</v>
       </c>
-      <c r="K93" t="n" s="10">
-        <v>155.9</v>
-      </c>
-      <c r="L93" t="n" s="10">
-        <v>144.2</v>
-      </c>
       <c r="M93" t="n" s="10">
-        <v>142.4</v>
+        <v>142.8</v>
       </c>
       <c r="N93" t="n" s="10">
-        <v>143.0</v>
+        <v>144.1</v>
       </c>
       <c r="O93" t="n" s="10">
-        <v>131.8</v>
+        <v>132.7</v>
       </c>
       <c r="P93" t="n" s="10">
-        <v>148.3</v>
-      </c>
-      <c r="Q93" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R93" t="s" s="10">
-        <v>26</v>
+        <v>150.4</v>
+      </c>
+      <c r="Q93" t="n" s="10">
+        <v>141.5</v>
+      </c>
+      <c r="R93" t="n" s="10">
+        <v>163.6</v>
       </c>
       <c r="S93" t="s" s="10">
         <v>26</v>
@@ -8414,49 +8414,49 @@
         <v>25</v>
       </c>
       <c r="D94" t="n" s="10">
-        <v>107.6</v>
+        <v>107.8</v>
       </c>
       <c r="E94" t="n" s="10">
-        <v>120.2</v>
+        <v>120.7</v>
       </c>
       <c r="F94" t="n" s="10">
-        <v>105.9</v>
+        <v>105.0</v>
       </c>
       <c r="G94" t="n" s="10">
-        <v>104.4</v>
+        <v>105.1</v>
       </c>
       <c r="H94" t="n" s="10">
-        <v>107.7</v>
+        <v>108.0</v>
       </c>
       <c r="I94" t="n" s="10">
-        <v>113.6</v>
+        <v>113.3</v>
       </c>
       <c r="J94" t="n" s="10">
-        <v>116.3</v>
+        <v>115.9</v>
       </c>
       <c r="K94" t="n" s="10">
-        <v>124.6</v>
+        <v>123.7</v>
       </c>
       <c r="L94" t="n" s="10">
-        <v>114.9</v>
+        <v>114.4</v>
       </c>
       <c r="M94" t="n" s="10">
-        <v>114.0</v>
+        <v>114.1</v>
       </c>
       <c r="N94" t="n" s="10">
-        <v>113.1</v>
+        <v>113.4</v>
       </c>
       <c r="O94" t="n" s="10">
         <v>102.8</v>
       </c>
       <c r="P94" t="n" s="10">
-        <v>116.8</v>
-      </c>
-      <c r="Q94" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R94" t="s" s="10">
-        <v>26</v>
+        <v>117.4</v>
+      </c>
+      <c r="Q94" t="n" s="10">
+        <v>106.6</v>
+      </c>
+      <c r="R94" t="n" s="10">
+        <v>121.5</v>
       </c>
       <c r="S94" t="s" s="10">
         <v>26</v>
@@ -8497,49 +8497,49 @@
         <v>25</v>
       </c>
       <c r="D95" t="n" s="10">
-        <v>156.7</v>
+        <v>156.6</v>
       </c>
       <c r="E95" t="n" s="10">
-        <v>155.9</v>
+        <v>155.6</v>
       </c>
       <c r="F95" t="n" s="10">
-        <v>152.9</v>
+        <v>153.8</v>
       </c>
       <c r="G95" t="n" s="10">
-        <v>153.8</v>
+        <v>154.7</v>
       </c>
       <c r="H95" t="n" s="10">
-        <v>154.4</v>
+        <v>155.6</v>
       </c>
       <c r="I95" t="n" s="10">
-        <v>152.5</v>
+        <v>153.7</v>
       </c>
       <c r="J95" t="n" s="10">
-        <v>152.2</v>
+        <v>154.1</v>
       </c>
       <c r="K95" t="n" s="10">
-        <v>162.1</v>
+        <v>163.0</v>
       </c>
       <c r="L95" t="n" s="10">
-        <v>188.8</v>
+        <v>178.5</v>
       </c>
       <c r="M95" t="n" s="10">
-        <v>166.5</v>
+        <v>167.8</v>
       </c>
       <c r="N95" t="n" s="10">
-        <v>170.7</v>
+        <v>171.9</v>
       </c>
       <c r="O95" t="n" s="10">
-        <v>175.7</v>
+        <v>176.5</v>
       </c>
       <c r="P95" t="n" s="10">
-        <v>169.0</v>
-      </c>
-      <c r="Q95" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R95" t="s" s="10">
-        <v>26</v>
+        <v>169.6</v>
+      </c>
+      <c r="Q95" t="n" s="10">
+        <v>177.1</v>
+      </c>
+      <c r="R95" t="n" s="10">
+        <v>215.6</v>
       </c>
       <c r="S95" t="s" s="10">
         <v>26</v>
@@ -8577,49 +8577,49 @@
         <v>25</v>
       </c>
       <c r="D96" t="n" s="10">
-        <v>130.1</v>
+        <v>129.6</v>
       </c>
       <c r="E96" t="n" s="10">
-        <v>128.5</v>
+        <v>127.8</v>
       </c>
       <c r="F96" t="n" s="10">
-        <v>125.1</v>
+        <v>125.3</v>
       </c>
       <c r="G96" t="n" s="10">
         <v>125.6</v>
       </c>
       <c r="H96" t="n" s="10">
-        <v>124.3</v>
+        <v>124.5</v>
       </c>
       <c r="I96" t="n" s="10">
         <v>121.8</v>
       </c>
       <c r="J96" t="n" s="10">
-        <v>121.7</v>
+        <v>122.2</v>
       </c>
       <c r="K96" t="n" s="10">
-        <v>125.8</v>
+        <v>125.7</v>
       </c>
       <c r="L96" t="n" s="10">
         <v>136.4</v>
       </c>
       <c r="M96" t="n" s="10">
-        <v>127.4</v>
+        <v>127.7</v>
       </c>
       <c r="N96" t="n" s="10">
-        <v>127.9</v>
+        <v>128.2</v>
       </c>
       <c r="O96" t="n" s="10">
         <v>130.1</v>
       </c>
       <c r="P96" t="n" s="10">
-        <v>125.8</v>
-      </c>
-      <c r="Q96" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R96" t="s" s="10">
-        <v>26</v>
+        <v>125.6</v>
+      </c>
+      <c r="Q96" t="n" s="10">
+        <v>129.8</v>
+      </c>
+      <c r="R96" t="n" s="10">
+        <v>153.3</v>
       </c>
       <c r="S96" t="s" s="10">
         <v>26</v>
@@ -8660,49 +8660,49 @@
         <v>25</v>
       </c>
       <c r="D97" t="n" s="10">
-        <v>160.6</v>
+        <v>160.8</v>
       </c>
       <c r="E97" t="n" s="10">
-        <v>158.5</v>
+        <v>157.4</v>
       </c>
       <c r="F97" t="n" s="10">
-        <v>153.0</v>
+        <v>153.8</v>
       </c>
       <c r="G97" t="n" s="10">
-        <v>166.8</v>
+        <v>166.4</v>
       </c>
       <c r="H97" t="n" s="10">
-        <v>162.6</v>
+        <v>162.7</v>
       </c>
       <c r="I97" t="n" s="10">
-        <v>173.2</v>
+        <v>172.9</v>
       </c>
       <c r="J97" t="n" s="10">
-        <v>166.2</v>
+        <v>166.6</v>
       </c>
       <c r="K97" t="n" s="10">
-        <v>161.0</v>
+        <v>160.7</v>
       </c>
       <c r="L97" t="n" s="10">
-        <v>184.9</v>
+        <v>184.5</v>
       </c>
       <c r="M97" t="n" s="10">
-        <v>169.1</v>
+        <v>169.0</v>
       </c>
       <c r="N97" t="n" s="10">
-        <v>186.9</v>
+        <v>187.4</v>
       </c>
       <c r="O97" t="n" s="10">
-        <v>190.7</v>
+        <v>191.6</v>
       </c>
       <c r="P97" t="n" s="10">
-        <v>178.1</v>
-      </c>
-      <c r="Q97" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R97" t="s" s="10">
-        <v>26</v>
+        <v>178.9</v>
+      </c>
+      <c r="Q97" t="n" s="10">
+        <v>193.7</v>
+      </c>
+      <c r="R97" t="n" s="10">
+        <v>234.5</v>
       </c>
       <c r="S97" t="s" s="10">
         <v>26</v>
@@ -8779,10 +8779,10 @@
         <v>32</v>
       </c>
       <c r="Q98" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R98" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S98" t="s" s="10">
         <v>26</v>
@@ -8823,49 +8823,49 @@
         <v>25</v>
       </c>
       <c r="D99" t="n" s="10">
-        <v>151.9</v>
+        <v>150.6</v>
       </c>
       <c r="E99" t="n" s="10">
-        <v>153.5</v>
+        <v>153.3</v>
       </c>
       <c r="F99" t="n" s="10">
-        <v>154.5</v>
+        <v>154.2</v>
       </c>
       <c r="G99" t="n" s="10">
-        <v>138.3</v>
+        <v>139.5</v>
       </c>
       <c r="H99" t="n" s="10">
-        <v>145.6</v>
+        <v>146.2</v>
       </c>
       <c r="I99" t="n" s="10">
-        <v>128.0</v>
+        <v>128.6</v>
       </c>
       <c r="J99" t="n" s="10">
-        <v>136.6</v>
+        <v>137.6</v>
       </c>
       <c r="K99" t="n" s="10">
-        <v>167.0</v>
+        <v>166.4</v>
       </c>
       <c r="L99" t="n" s="10">
-        <v>170.5</v>
+        <v>170.7</v>
       </c>
       <c r="M99" t="n" s="10">
-        <v>164.9</v>
+        <v>166.0</v>
       </c>
       <c r="N99" t="n" s="10">
-        <v>151.9</v>
+        <v>151.8</v>
       </c>
       <c r="O99" t="n" s="10">
+        <v>156.4</v>
+      </c>
+      <c r="P99" t="n" s="10">
         <v>157.9</v>
       </c>
-      <c r="P99" t="n" s="10">
-        <v>160.2</v>
-      </c>
-      <c r="Q99" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R99" t="s" s="10">
-        <v>26</v>
+      <c r="Q99" t="n" s="10">
+        <v>155.6</v>
+      </c>
+      <c r="R99" t="n" s="10">
+        <v>190.8</v>
       </c>
       <c r="S99" t="s" s="10">
         <v>26</v>
@@ -8942,10 +8942,10 @@
         <v>32</v>
       </c>
       <c r="Q100" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R100" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S100" t="s" s="10">
         <v>26</v>
@@ -8991,49 +8991,49 @@
         <v>25</v>
       </c>
       <c r="D102" t="n" s="10">
-        <v>150.4</v>
+        <v>150.2</v>
       </c>
       <c r="E102" t="n" s="10">
-        <v>151.9</v>
+        <v>151.6</v>
       </c>
       <c r="F102" t="n" s="10">
-        <v>153.2</v>
+        <v>153.1</v>
       </c>
       <c r="G102" t="n" s="10">
-        <v>154.5</v>
+        <v>154.6</v>
       </c>
       <c r="H102" t="n" s="10">
-        <v>156.0</v>
+        <v>156.1</v>
       </c>
       <c r="I102" t="n" s="10">
-        <v>157.6</v>
+        <v>157.4</v>
       </c>
       <c r="J102" t="n" s="10">
-        <v>159.1</v>
+        <v>158.9</v>
       </c>
       <c r="K102" t="n" s="10">
-        <v>160.3</v>
+        <v>160.1</v>
       </c>
       <c r="L102" t="n" s="10">
-        <v>160.9</v>
+        <v>161.2</v>
       </c>
       <c r="M102" t="n" s="10">
-        <v>161.4</v>
+        <v>161.9</v>
       </c>
       <c r="N102" t="n" s="10">
-        <v>161.7</v>
+        <v>162.4</v>
       </c>
       <c r="O102" t="n" s="10">
-        <v>162.2</v>
+        <v>162.8</v>
       </c>
       <c r="P102" t="n" s="10">
-        <v>162.7</v>
-      </c>
-      <c r="Q102" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R102" t="s" s="10">
-        <v>26</v>
+        <v>163.1</v>
+      </c>
+      <c r="Q102" t="n" s="10">
+        <v>163.5</v>
+      </c>
+      <c r="R102" t="n" s="10">
+        <v>163.9</v>
       </c>
       <c r="S102" t="s" s="10">
         <v>26</v>
@@ -9071,49 +9071,49 @@
         <v>25</v>
       </c>
       <c r="D103" t="n" s="10">
-        <v>124.1</v>
+        <v>124.0</v>
       </c>
       <c r="E103" t="n" s="10">
-        <v>124.5</v>
+        <v>124.0</v>
       </c>
       <c r="F103" t="n" s="10">
+        <v>123.8</v>
+      </c>
+      <c r="G103" t="n" s="10">
+        <v>123.7</v>
+      </c>
+      <c r="H103" t="n" s="10">
+        <v>123.7</v>
+      </c>
+      <c r="I103" t="n" s="10">
+        <v>123.8</v>
+      </c>
+      <c r="J103" t="n" s="10">
+        <v>123.9</v>
+      </c>
+      <c r="K103" t="n" s="10">
+        <v>123.8</v>
+      </c>
+      <c r="L103" t="n" s="10">
+        <v>123.5</v>
+      </c>
+      <c r="M103" t="n" s="10">
+        <v>123.8</v>
+      </c>
+      <c r="N103" t="n" s="10">
         <v>124.7</v>
       </c>
-      <c r="G103" t="n" s="10">
-        <v>124.9</v>
-      </c>
-      <c r="H103" t="n" s="10">
-        <v>125.0</v>
-      </c>
-      <c r="I103" t="n" s="10">
-        <v>125.1</v>
-      </c>
-      <c r="J103" t="n" s="10">
-        <v>125.0</v>
-      </c>
-      <c r="K103" t="n" s="10">
-        <v>124.6</v>
-      </c>
-      <c r="L103" t="n" s="10">
-        <v>124.0</v>
-      </c>
-      <c r="M103" t="n" s="10">
-        <v>123.2</v>
-      </c>
-      <c r="N103" t="n" s="10">
-        <v>122.4</v>
-      </c>
       <c r="O103" t="n" s="10">
-        <v>121.6</v>
+        <v>125.9</v>
       </c>
       <c r="P103" t="n" s="10">
-        <v>120.8</v>
-      </c>
-      <c r="Q103" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R103" t="s" s="10">
-        <v>26</v>
+        <v>127.3</v>
+      </c>
+      <c r="Q103" t="n" s="10">
+        <v>128.4</v>
+      </c>
+      <c r="R103" t="n" s="10">
+        <v>129.1</v>
       </c>
       <c r="S103" t="s" s="10">
         <v>26</v>
@@ -9154,49 +9154,49 @@
         <v>25</v>
       </c>
       <c r="D104" t="n" s="10">
-        <v>153.3</v>
+        <v>152.9</v>
       </c>
       <c r="E104" t="n" s="10">
-        <v>155.7</v>
+        <v>155.2</v>
       </c>
       <c r="F104" t="n" s="10">
-        <v>157.7</v>
+        <v>157.1</v>
       </c>
       <c r="G104" t="n" s="10">
-        <v>159.5</v>
+        <v>159.0</v>
       </c>
       <c r="H104" t="n" s="10">
-        <v>161.4</v>
+        <v>160.8</v>
       </c>
       <c r="I104" t="n" s="10">
-        <v>163.2</v>
+        <v>162.3</v>
       </c>
       <c r="J104" t="n" s="10">
-        <v>164.4</v>
+        <v>163.7</v>
       </c>
       <c r="K104" t="n" s="10">
         <v>164.4</v>
       </c>
       <c r="L104" t="n" s="10">
-        <v>164.1</v>
+        <v>164.3</v>
       </c>
       <c r="M104" t="n" s="10">
-        <v>163.4</v>
+        <v>163.8</v>
       </c>
       <c r="N104" t="n" s="10">
-        <v>162.5</v>
+        <v>163.8</v>
       </c>
       <c r="O104" t="n" s="10">
-        <v>161.6</v>
+        <v>163.8</v>
       </c>
       <c r="P104" t="n" s="10">
-        <v>160.5</v>
-      </c>
-      <c r="Q104" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R104" t="s" s="10">
-        <v>26</v>
+        <v>163.8</v>
+      </c>
+      <c r="Q104" t="n" s="10">
+        <v>163.2</v>
+      </c>
+      <c r="R104" t="n" s="10">
+        <v>162.4</v>
       </c>
       <c r="S104" t="s" s="10">
         <v>26</v>
@@ -9234,49 +9234,49 @@
         <v>25</v>
       </c>
       <c r="D105" t="n" s="10">
+        <v>126.3</v>
+      </c>
+      <c r="E105" t="n" s="10">
+        <v>126.8</v>
+      </c>
+      <c r="F105" t="n" s="10">
         <v>126.6</v>
       </c>
-      <c r="E105" t="n" s="10">
-        <v>127.6</v>
-      </c>
-      <c r="F105" t="n" s="10">
-        <v>128.2</v>
-      </c>
       <c r="G105" t="n" s="10">
-        <v>128.6</v>
+        <v>126.6</v>
       </c>
       <c r="H105" t="n" s="10">
-        <v>128.9</v>
+        <v>126.7</v>
       </c>
       <c r="I105" t="n" s="10">
-        <v>128.9</v>
+        <v>126.7</v>
       </c>
       <c r="J105" t="n" s="10">
-        <v>128.3</v>
+        <v>126.6</v>
       </c>
       <c r="K105" t="n" s="10">
-        <v>126.8</v>
+        <v>126.0</v>
       </c>
       <c r="L105" t="n" s="10">
-        <v>125.2</v>
+        <v>124.6</v>
       </c>
       <c r="M105" t="n" s="10">
-        <v>123.4</v>
+        <v>123.9</v>
       </c>
       <c r="N105" t="n" s="10">
-        <v>121.5</v>
+        <v>124.6</v>
       </c>
       <c r="O105" t="n" s="10">
-        <v>119.4</v>
+        <v>125.8</v>
       </c>
       <c r="P105" t="n" s="10">
-        <v>117.1</v>
-      </c>
-      <c r="Q105" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R105" t="s" s="10">
-        <v>26</v>
+        <v>127.2</v>
+      </c>
+      <c r="Q105" t="n" s="10">
+        <v>127.8</v>
+      </c>
+      <c r="R105" t="n" s="10">
+        <v>127.7</v>
       </c>
       <c r="S105" t="s" s="10">
         <v>26</v>
@@ -9317,49 +9317,49 @@
         <v>25</v>
       </c>
       <c r="D106" t="n" s="10">
-        <v>169.5</v>
+        <v>169.4</v>
       </c>
       <c r="E106" t="n" s="10">
-        <v>170.5</v>
+        <v>170.3</v>
       </c>
       <c r="F106" t="n" s="10">
-        <v>171.4</v>
+        <v>170.7</v>
       </c>
       <c r="G106" t="n" s="10">
-        <v>172.2</v>
+        <v>171.3</v>
       </c>
       <c r="H106" t="n" s="10">
-        <v>172.9</v>
+        <v>172.0</v>
       </c>
       <c r="I106" t="n" s="10">
-        <v>173.5</v>
+        <v>172.7</v>
       </c>
       <c r="J106" t="n" s="10">
+        <v>173.1</v>
+      </c>
+      <c r="K106" t="n" s="10">
         <v>173.4</v>
       </c>
-      <c r="K106" t="n" s="10">
-        <v>173.2</v>
-      </c>
       <c r="L106" t="n" s="10">
-        <v>173.7</v>
+        <v>173.1</v>
       </c>
       <c r="M106" t="n" s="10">
-        <v>174.3</v>
+        <v>173.6</v>
       </c>
       <c r="N106" t="n" s="10">
         <v>175.2</v>
       </c>
       <c r="O106" t="n" s="10">
-        <v>175.6</v>
+        <v>177.2</v>
       </c>
       <c r="P106" t="n" s="10">
-        <v>175.6</v>
-      </c>
-      <c r="Q106" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R106" t="s" s="10">
-        <v>26</v>
+        <v>179.3</v>
+      </c>
+      <c r="Q106" t="n" s="10">
+        <v>180.7</v>
+      </c>
+      <c r="R106" t="n" s="10">
+        <v>181.7</v>
       </c>
       <c r="S106" t="s" s="10">
         <v>26</v>
@@ -9397,49 +9397,49 @@
         <v>25</v>
       </c>
       <c r="D107" t="n" s="10">
-        <v>139.5</v>
+        <v>139.4</v>
       </c>
       <c r="E107" t="n" s="10">
-        <v>139.2</v>
+        <v>138.9</v>
       </c>
       <c r="F107" t="n" s="10">
-        <v>138.8</v>
+        <v>137.5</v>
       </c>
       <c r="G107" t="n" s="10">
-        <v>138.3</v>
+        <v>136.4</v>
       </c>
       <c r="H107" t="n" s="10">
-        <v>137.5</v>
+        <v>135.6</v>
       </c>
       <c r="I107" t="n" s="10">
-        <v>136.4</v>
+        <v>134.7</v>
       </c>
       <c r="J107" t="n" s="10">
-        <v>134.7</v>
+        <v>133.6</v>
       </c>
       <c r="K107" t="n" s="10">
-        <v>132.9</v>
+        <v>132.4</v>
       </c>
       <c r="L107" t="n" s="10">
-        <v>131.8</v>
+        <v>130.5</v>
       </c>
       <c r="M107" t="n" s="10">
-        <v>130.9</v>
+        <v>130.0</v>
       </c>
       <c r="N107" t="n" s="10">
-        <v>130.2</v>
+        <v>131.0</v>
       </c>
       <c r="O107" t="n" s="10">
-        <v>129.1</v>
+        <v>132.7</v>
       </c>
       <c r="P107" t="n" s="10">
-        <v>127.6</v>
-      </c>
-      <c r="Q107" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R107" t="s" s="10">
-        <v>26</v>
+        <v>134.6</v>
+      </c>
+      <c r="Q107" t="n" s="10">
+        <v>135.8</v>
+      </c>
+      <c r="R107" t="n" s="10">
+        <v>136.3</v>
       </c>
       <c r="S107" t="s" s="10">
         <v>26</v>
@@ -9480,49 +9480,49 @@
         <v>25</v>
       </c>
       <c r="D108" t="n" s="10">
-        <v>139.7</v>
+        <v>138.9</v>
       </c>
       <c r="E108" t="n" s="10">
-        <v>142.8</v>
+        <v>141.2</v>
       </c>
       <c r="F108" t="n" s="10">
+        <v>143.0</v>
+      </c>
+      <c r="G108" t="n" s="10">
         <v>145.2</v>
       </c>
-      <c r="G108" t="n" s="10">
-        <v>147.6</v>
-      </c>
       <c r="H108" t="n" s="10">
-        <v>150.3</v>
+        <v>147.5</v>
       </c>
       <c r="I108" t="n" s="10">
-        <v>153.1</v>
+        <v>149.8</v>
       </c>
       <c r="J108" t="n" s="10">
-        <v>155.5</v>
+        <v>152.3</v>
       </c>
       <c r="K108" t="n" s="10">
-        <v>156.2</v>
+        <v>154.2</v>
       </c>
       <c r="L108" t="n" s="10">
-        <v>155.4</v>
+        <v>155.1</v>
       </c>
       <c r="M108" t="n" s="10">
-        <v>153.9</v>
+        <v>156.5</v>
       </c>
       <c r="N108" t="n" s="10">
-        <v>151.9</v>
+        <v>158.9</v>
       </c>
       <c r="O108" t="n" s="10">
-        <v>150.4</v>
+        <v>161.8</v>
       </c>
       <c r="P108" t="n" s="10">
-        <v>149.0</v>
-      </c>
-      <c r="Q108" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R108" t="s" s="10">
-        <v>26</v>
+        <v>164.9</v>
+      </c>
+      <c r="Q108" t="n" s="10">
+        <v>167.3</v>
+      </c>
+      <c r="R108" t="n" s="10">
+        <v>168.9</v>
       </c>
       <c r="S108" t="s" s="10">
         <v>26</v>
@@ -9560,49 +9560,49 @@
         <v>25</v>
       </c>
       <c r="D109" t="n" s="10">
-        <v>115.8</v>
+        <v>115.3</v>
       </c>
       <c r="E109" t="n" s="10">
-        <v>117.0</v>
+        <v>116.0</v>
       </c>
       <c r="F109" t="n" s="10">
-        <v>117.9</v>
+        <v>116.3</v>
       </c>
       <c r="G109" t="n" s="10">
-        <v>118.5</v>
+        <v>116.9</v>
       </c>
       <c r="H109" t="n" s="10">
-        <v>119.4</v>
+        <v>117.4</v>
       </c>
       <c r="I109" t="n" s="10">
-        <v>120.3</v>
+        <v>118.0</v>
       </c>
       <c r="J109" t="n" s="10">
-        <v>120.9</v>
+        <v>118.6</v>
       </c>
       <c r="K109" t="n" s="10">
-        <v>120.2</v>
+        <v>118.7</v>
       </c>
       <c r="L109" t="n" s="10">
-        <v>118.5</v>
+        <v>118.4</v>
       </c>
       <c r="M109" t="n" s="10">
-        <v>116.3</v>
+        <v>118.1</v>
       </c>
       <c r="N109" t="n" s="10">
-        <v>113.8</v>
+        <v>118.4</v>
       </c>
       <c r="O109" t="n" s="10">
-        <v>111.7</v>
+        <v>119.0</v>
       </c>
       <c r="P109" t="n" s="10">
-        <v>109.6</v>
-      </c>
-      <c r="Q109" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R109" t="s" s="10">
-        <v>26</v>
+        <v>119.7</v>
+      </c>
+      <c r="Q109" t="n" s="10">
+        <v>120.1</v>
+      </c>
+      <c r="R109" t="n" s="10">
+        <v>120.0</v>
       </c>
       <c r="S109" t="s" s="10">
         <v>26</v>
@@ -9643,49 +9643,49 @@
         <v>25</v>
       </c>
       <c r="D110" t="n" s="10">
-        <v>139.8</v>
+        <v>139.1</v>
       </c>
       <c r="E110" t="n" s="10">
-        <v>143.1</v>
+        <v>141.9</v>
       </c>
       <c r="F110" t="n" s="10">
-        <v>146.0</v>
+        <v>144.7</v>
       </c>
       <c r="G110" t="n" s="10">
-        <v>148.9</v>
+        <v>147.7</v>
       </c>
       <c r="H110" t="n" s="10">
-        <v>152.3</v>
+        <v>150.7</v>
       </c>
       <c r="I110" t="n" s="10">
-        <v>156.1</v>
+        <v>153.7</v>
       </c>
       <c r="J110" t="n" s="10">
-        <v>160.3</v>
+        <v>157.0</v>
       </c>
       <c r="K110" t="n" s="10">
-        <v>162.9</v>
+        <v>160.1</v>
       </c>
       <c r="L110" t="n" s="10">
-        <v>163.4</v>
+        <v>162.5</v>
       </c>
       <c r="M110" t="n" s="10">
-        <v>163.0</v>
+        <v>164.4</v>
       </c>
       <c r="N110" t="n" s="10">
-        <v>162.1</v>
+        <v>166.7</v>
       </c>
       <c r="O110" t="n" s="10">
-        <v>162.3</v>
+        <v>169.2</v>
       </c>
       <c r="P110" t="n" s="10">
-        <v>163.0</v>
-      </c>
-      <c r="Q110" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R110" t="s" s="10">
-        <v>26</v>
+        <v>171.7</v>
+      </c>
+      <c r="Q110" t="n" s="10">
+        <v>173.8</v>
+      </c>
+      <c r="R110" t="n" s="10">
+        <v>175.5</v>
       </c>
       <c r="S110" t="s" s="10">
         <v>26</v>
@@ -9762,10 +9762,10 @@
         <v>32</v>
       </c>
       <c r="Q111" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R111" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S111" t="s" s="10">
         <v>26</v>
@@ -9806,49 +9806,49 @@
         <v>25</v>
       </c>
       <c r="D112" t="n" s="10">
+        <v>137.6</v>
+      </c>
+      <c r="E112" t="n" s="10">
+        <v>137.5</v>
+      </c>
+      <c r="F112" t="n" s="10">
         <v>137.4</v>
       </c>
-      <c r="E112" t="n" s="10">
-        <v>137.0</v>
-      </c>
-      <c r="F112" t="n" s="10">
-        <v>136.8</v>
-      </c>
       <c r="G112" t="n" s="10">
-        <v>136.9</v>
+        <v>137.5</v>
       </c>
       <c r="H112" t="n" s="10">
-        <v>137.0</v>
+        <v>137.6</v>
       </c>
       <c r="I112" t="n" s="10">
-        <v>137.3</v>
+        <v>137.9</v>
       </c>
       <c r="J112" t="n" s="10">
-        <v>138.0</v>
+        <v>138.6</v>
       </c>
       <c r="K112" t="n" s="10">
-        <v>139.2</v>
+        <v>139.5</v>
       </c>
       <c r="L112" t="n" s="10">
-        <v>141.1</v>
+        <v>140.3</v>
       </c>
       <c r="M112" t="n" s="10">
-        <v>143.2</v>
+        <v>141.6</v>
       </c>
       <c r="N112" t="n" s="10">
-        <v>145.3</v>
+        <v>143.3</v>
       </c>
       <c r="O112" t="n" s="10">
-        <v>147.0</v>
+        <v>145.1</v>
       </c>
       <c r="P112" t="n" s="10">
-        <v>148.6</v>
-      </c>
-      <c r="Q112" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R112" t="s" s="10">
-        <v>26</v>
+        <v>146.9</v>
+      </c>
+      <c r="Q112" t="n" s="10">
+        <v>148.5</v>
+      </c>
+      <c r="R112" t="n" s="10">
+        <v>150.0</v>
       </c>
       <c r="S112" t="s" s="10">
         <v>26</v>
@@ -9925,10 +9925,10 @@
         <v>32</v>
       </c>
       <c r="Q113" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R113" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S113" t="s" s="10">
         <v>26</v>
@@ -9969,49 +9969,49 @@
         <v>25</v>
       </c>
       <c r="D114" t="n" s="10">
-        <v>146.5</v>
+        <v>147.1</v>
       </c>
       <c r="E114" t="n" s="10">
-        <v>147.4</v>
+        <v>147.5</v>
       </c>
       <c r="F114" t="n" s="10">
-        <v>148.2</v>
+        <v>148.6</v>
       </c>
       <c r="G114" t="n" s="10">
-        <v>149.2</v>
+        <v>149.5</v>
       </c>
       <c r="H114" t="n" s="10">
         <v>150.5</v>
       </c>
       <c r="I114" t="n" s="10">
-        <v>152.0</v>
+        <v>151.6</v>
       </c>
       <c r="J114" t="n" s="10">
-        <v>153.9</v>
+        <v>153.0</v>
       </c>
       <c r="K114" t="n" s="10">
-        <v>155.8</v>
+        <v>154.7</v>
       </c>
       <c r="L114" t="n" s="10">
         <v>157.1</v>
       </c>
       <c r="M114" t="n" s="10">
-        <v>158.2</v>
+        <v>159.0</v>
       </c>
       <c r="N114" t="n" s="10">
-        <v>159.2</v>
+        <v>160.0</v>
       </c>
       <c r="O114" t="n" s="10">
-        <v>160.7</v>
+        <v>160.9</v>
       </c>
       <c r="P114" t="n" s="10">
-        <v>162.3</v>
-      </c>
-      <c r="Q114" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R114" t="s" s="10">
-        <v>26</v>
+        <v>161.6</v>
+      </c>
+      <c r="Q114" t="n" s="10">
+        <v>163.0</v>
+      </c>
+      <c r="R114" t="n" s="10">
+        <v>164.6</v>
       </c>
       <c r="S114" t="s" s="10">
         <v>26</v>
@@ -10055,43 +10055,43 @@
         <v>121.1</v>
       </c>
       <c r="F115" t="n" s="10">
-        <v>120.9</v>
+        <v>121.2</v>
       </c>
       <c r="G115" t="n" s="10">
-        <v>120.7</v>
+        <v>121.1</v>
       </c>
       <c r="H115" t="n" s="10">
-        <v>120.6</v>
+        <v>121.1</v>
       </c>
       <c r="I115" t="n" s="10">
-        <v>120.7</v>
+        <v>121.1</v>
       </c>
       <c r="J115" t="n" s="10">
-        <v>121.0</v>
+        <v>121.2</v>
       </c>
       <c r="K115" t="n" s="10">
-        <v>121.6</v>
+        <v>121.5</v>
       </c>
       <c r="L115" t="n" s="10">
+        <v>122.2</v>
+      </c>
+      <c r="M115" t="n" s="10">
+        <v>122.5</v>
+      </c>
+      <c r="N115" t="n" s="10">
+        <v>122.2</v>
+      </c>
+      <c r="O115" t="n" s="10">
         <v>121.8</v>
       </c>
-      <c r="M115" t="n" s="10">
-        <v>122.0</v>
-      </c>
-      <c r="N115" t="n" s="10">
-        <v>122.1</v>
-      </c>
-      <c r="O115" t="n" s="10">
-        <v>122.5</v>
-      </c>
       <c r="P115" t="n" s="10">
-        <v>123.0</v>
-      </c>
-      <c r="Q115" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R115" t="s" s="10">
-        <v>26</v>
+        <v>121.2</v>
+      </c>
+      <c r="Q115" t="n" s="10">
+        <v>121.3</v>
+      </c>
+      <c r="R115" t="n" s="10">
+        <v>121.4</v>
       </c>
       <c r="S115" t="s" s="10">
         <v>26</v>
@@ -10132,49 +10132,49 @@
         <v>25</v>
       </c>
       <c r="D116" t="n" s="10">
-        <v>136.6</v>
+        <v>136.5</v>
       </c>
       <c r="E116" t="n" s="10">
-        <v>137.2</v>
+        <v>136.7</v>
       </c>
       <c r="F116" t="n" s="10">
-        <v>137.6</v>
+        <v>137.0</v>
       </c>
       <c r="G116" t="n" s="10">
-        <v>138.1</v>
+        <v>137.3</v>
       </c>
       <c r="H116" t="n" s="10">
-        <v>138.9</v>
+        <v>137.9</v>
       </c>
       <c r="I116" t="n" s="10">
-        <v>139.9</v>
+        <v>138.6</v>
       </c>
       <c r="J116" t="n" s="10">
-        <v>141.0</v>
+        <v>139.5</v>
       </c>
       <c r="K116" t="n" s="10">
-        <v>142.0</v>
+        <v>140.4</v>
       </c>
       <c r="L116" t="n" s="10">
-        <v>142.2</v>
+        <v>141.3</v>
       </c>
       <c r="M116" t="n" s="10">
-        <v>142.2</v>
+        <v>142.6</v>
       </c>
       <c r="N116" t="n" s="10">
-        <v>142.2</v>
+        <v>144.2</v>
       </c>
       <c r="O116" t="n" s="10">
-        <v>142.6</v>
+        <v>146.0</v>
       </c>
       <c r="P116" t="n" s="10">
-        <v>143.3</v>
-      </c>
-      <c r="Q116" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R116" t="s" s="10">
-        <v>26</v>
+        <v>148.0</v>
+      </c>
+      <c r="Q116" t="n" s="10">
+        <v>149.9</v>
+      </c>
+      <c r="R116" t="n" s="10">
+        <v>151.5</v>
       </c>
       <c r="S116" t="s" s="10">
         <v>26</v>
@@ -10212,49 +10212,49 @@
         <v>25</v>
       </c>
       <c r="D117" t="n" s="10">
-        <v>112.5</v>
+        <v>112.4</v>
       </c>
       <c r="E117" t="n" s="10">
+        <v>112.3</v>
+      </c>
+      <c r="F117" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="G117" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="H117" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="I117" t="n" s="10">
         <v>112.6</v>
       </c>
-      <c r="F117" t="n" s="10">
-        <v>112.6</v>
-      </c>
-      <c r="G117" t="n" s="10">
-        <v>112.6</v>
-      </c>
-      <c r="H117" t="n" s="10">
+      <c r="J117" t="n" s="10">
+        <v>112.7</v>
+      </c>
+      <c r="K117" t="n" s="10">
         <v>112.9</v>
       </c>
-      <c r="I117" t="n" s="10">
+      <c r="L117" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="M117" t="n" s="10">
+        <v>113.1</v>
+      </c>
+      <c r="N117" t="n" s="10">
         <v>113.2</v>
       </c>
-      <c r="J117" t="n" s="10">
-        <v>113.6</v>
-      </c>
-      <c r="K117" t="n" s="10">
+      <c r="O117" t="n" s="10">
+        <v>113.5</v>
+      </c>
+      <c r="P117" t="n" s="10">
         <v>113.8</v>
       </c>
-      <c r="L117" t="n" s="10">
-        <v>113.5</v>
-      </c>
-      <c r="M117" t="n" s="10">
-        <v>113.0</v>
-      </c>
-      <c r="N117" t="n" s="10">
-        <v>112.6</v>
-      </c>
-      <c r="O117" t="n" s="10">
-        <v>112.4</v>
-      </c>
-      <c r="P117" t="n" s="10">
-        <v>112.4</v>
-      </c>
-      <c r="Q117" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R117" t="s" s="10">
-        <v>26</v>
+      <c r="Q117" t="n" s="10">
+        <v>114.1</v>
+      </c>
+      <c r="R117" t="n" s="10">
+        <v>114.4</v>
       </c>
       <c r="S117" t="s" s="10">
         <v>26</v>
@@ -10295,49 +10295,49 @@
         <v>25</v>
       </c>
       <c r="D118" t="n" s="10">
-        <v>152.2</v>
+        <v>152.5</v>
       </c>
       <c r="E118" t="n" s="10">
-        <v>152.5</v>
+        <v>153.3</v>
       </c>
       <c r="F118" t="n" s="10">
-        <v>153.1</v>
+        <v>154.7</v>
       </c>
       <c r="G118" t="n" s="10">
-        <v>153.9</v>
+        <v>156.0</v>
       </c>
       <c r="H118" t="n" s="10">
-        <v>154.9</v>
+        <v>157.4</v>
       </c>
       <c r="I118" t="n" s="10">
-        <v>156.0</v>
+        <v>159.0</v>
       </c>
       <c r="J118" t="n" s="10">
-        <v>157.7</v>
+        <v>160.9</v>
       </c>
       <c r="K118" t="n" s="10">
-        <v>160.0</v>
+        <v>163.1</v>
       </c>
       <c r="L118" t="n" s="10">
-        <v>162.2</v>
+        <v>166.0</v>
       </c>
       <c r="M118" t="n" s="10">
-        <v>164.3</v>
+        <v>168.5</v>
       </c>
       <c r="N118" t="n" s="10">
-        <v>166.5</v>
+        <v>170.3</v>
       </c>
       <c r="O118" t="n" s="10">
-        <v>168.9</v>
+        <v>172.0</v>
       </c>
       <c r="P118" t="n" s="10">
-        <v>171.3</v>
-      </c>
-      <c r="Q118" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R118" t="s" s="10">
-        <v>26</v>
+        <v>173.5</v>
+      </c>
+      <c r="Q118" t="n" s="10">
+        <v>175.6</v>
+      </c>
+      <c r="R118" t="n" s="10">
+        <v>177.9</v>
       </c>
       <c r="S118" t="s" s="10">
         <v>26</v>
@@ -10378,46 +10378,46 @@
         <v>126.0</v>
       </c>
       <c r="E119" t="n" s="10">
+        <v>125.8</v>
+      </c>
+      <c r="F119" t="n" s="10">
         <v>125.9</v>
       </c>
-      <c r="F119" t="n" s="10">
-        <v>125.8</v>
-      </c>
       <c r="G119" t="n" s="10">
-        <v>125.8</v>
+        <v>125.9</v>
       </c>
       <c r="H119" t="n" s="10">
-        <v>125.8</v>
+        <v>125.9</v>
       </c>
       <c r="I119" t="n" s="10">
-        <v>126.0</v>
+        <v>126.1</v>
       </c>
       <c r="J119" t="n" s="10">
         <v>126.3</v>
       </c>
       <c r="K119" t="n" s="10">
-        <v>126.8</v>
+        <v>126.7</v>
       </c>
       <c r="L119" t="n" s="10">
-        <v>127.1</v>
+        <v>127.4</v>
       </c>
       <c r="M119" t="n" s="10">
-        <v>127.2</v>
+        <v>127.9</v>
       </c>
       <c r="N119" t="n" s="10">
-        <v>127.3</v>
+        <v>128.0</v>
       </c>
       <c r="O119" t="n" s="10">
-        <v>127.6</v>
+        <v>128.1</v>
       </c>
       <c r="P119" t="n" s="10">
         <v>128.0</v>
       </c>
-      <c r="Q119" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R119" t="s" s="10">
-        <v>26</v>
+      <c r="Q119" t="n" s="10">
+        <v>128.4</v>
+      </c>
+      <c r="R119" t="n" s="10">
+        <v>128.9</v>
       </c>
       <c r="S119" t="s" s="10">
         <v>26</v>
@@ -10458,49 +10458,49 @@
         <v>25</v>
       </c>
       <c r="D120" t="n" s="10">
-        <v>156.2</v>
+        <v>156.0</v>
       </c>
       <c r="E120" t="n" s="10">
-        <v>157.8</v>
+        <v>157.6</v>
       </c>
       <c r="F120" t="n" s="10">
         <v>159.4</v>
       </c>
       <c r="G120" t="n" s="10">
-        <v>161.2</v>
+        <v>161.5</v>
       </c>
       <c r="H120" t="n" s="10">
-        <v>163.4</v>
+        <v>163.7</v>
       </c>
       <c r="I120" t="n" s="10">
         <v>166.0</v>
       </c>
       <c r="J120" t="n" s="10">
-        <v>169.0</v>
+        <v>168.7</v>
       </c>
       <c r="K120" t="n" s="10">
-        <v>171.7</v>
+        <v>171.6</v>
       </c>
       <c r="L120" t="n" s="10">
-        <v>174.4</v>
+        <v>174.5</v>
       </c>
       <c r="M120" t="n" s="10">
-        <v>176.8</v>
+        <v>177.7</v>
       </c>
       <c r="N120" t="n" s="10">
-        <v>179.2</v>
+        <v>180.9</v>
       </c>
       <c r="O120" t="n" s="10">
-        <v>181.6</v>
+        <v>184.0</v>
       </c>
       <c r="P120" t="n" s="10">
-        <v>184.1</v>
-      </c>
-      <c r="Q120" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R120" t="s" s="10">
-        <v>26</v>
+        <v>187.0</v>
+      </c>
+      <c r="Q120" t="n" s="10">
+        <v>189.9</v>
+      </c>
+      <c r="R120" t="n" s="10">
+        <v>192.8</v>
       </c>
       <c r="S120" t="s" s="10">
         <v>26</v>
@@ -10577,10 +10577,10 @@
         <v>32</v>
       </c>
       <c r="Q121" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R121" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S121" t="s" s="10">
         <v>26</v>
@@ -10621,49 +10621,49 @@
         <v>25</v>
       </c>
       <c r="D122" t="n" s="10">
-        <v>147.9</v>
+        <v>148.0</v>
       </c>
       <c r="E122" t="n" s="10">
         <v>147.7</v>
       </c>
       <c r="F122" t="n" s="10">
-        <v>147.7</v>
+        <v>148.5</v>
       </c>
       <c r="G122" t="n" s="10">
-        <v>147.9</v>
+        <v>148.8</v>
       </c>
       <c r="H122" t="n" s="10">
-        <v>148.2</v>
+        <v>149.2</v>
       </c>
       <c r="I122" t="n" s="10">
-        <v>148.8</v>
+        <v>149.8</v>
       </c>
       <c r="J122" t="n" s="10">
-        <v>150.1</v>
+        <v>150.8</v>
       </c>
       <c r="K122" t="n" s="10">
-        <v>152.7</v>
+        <v>152.2</v>
       </c>
       <c r="L122" t="n" s="10">
-        <v>154.0</v>
+        <v>154.9</v>
       </c>
       <c r="M122" t="n" s="10">
-        <v>155.2</v>
+        <v>156.6</v>
       </c>
       <c r="N122" t="n" s="10">
-        <v>156.3</v>
+        <v>156.6</v>
       </c>
       <c r="O122" t="n" s="10">
-        <v>158.5</v>
+        <v>156.4</v>
       </c>
       <c r="P122" t="n" s="10">
-        <v>160.6</v>
-      </c>
-      <c r="Q122" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R122" t="s" s="10">
-        <v>26</v>
+        <v>156.0</v>
+      </c>
+      <c r="Q122" t="n" s="10">
+        <v>157.0</v>
+      </c>
+      <c r="R122" t="n" s="10">
+        <v>158.6</v>
       </c>
       <c r="S122" t="s" s="10">
         <v>26</v>
@@ -10740,10 +10740,10 @@
         <v>32</v>
       </c>
       <c r="Q123" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R123" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S123" t="s" s="10">
         <v>26</v>
@@ -10804,7 +10804,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:37:28&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:15:32&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 2021.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 2021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="45">
   <si>
     <t>New orders (value and volume index) in the main construction
 industry (local units with 20 or more persons employed):
@@ -151,7 +151,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:15:27</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:28:26</t>
   </si>
 </sst>
 </file>
@@ -1843,8 +1843,8 @@
       <c r="R10" t="n" s="10">
         <v>215.8</v>
       </c>
-      <c r="S10" t="s" s="10">
-        <v>26</v>
+      <c r="S10" t="n" s="10">
+        <v>161.2</v>
       </c>
       <c r="T10" t="s" s="10">
         <v>26</v>
@@ -1923,8 +1923,8 @@
       <c r="R11" t="n" s="10">
         <v>155.7</v>
       </c>
-      <c r="S11" t="s" s="10">
-        <v>26</v>
+      <c r="S11" t="n" s="10">
+        <v>116.3</v>
       </c>
       <c r="T11" t="s" s="10">
         <v>26</v>
@@ -2006,8 +2006,8 @@
       <c r="R12" t="n" s="10">
         <v>215.1</v>
       </c>
-      <c r="S12" t="s" s="10">
-        <v>26</v>
+      <c r="S12" t="n" s="10">
+        <v>154.7</v>
       </c>
       <c r="T12" t="s" s="10">
         <v>26</v>
@@ -2086,8 +2086,8 @@
       <c r="R13" t="n" s="10">
         <v>153.7</v>
       </c>
-      <c r="S13" t="s" s="10">
-        <v>26</v>
+      <c r="S13" t="n" s="10">
+        <v>110.5</v>
       </c>
       <c r="T13" t="s" s="10">
         <v>26</v>
@@ -2169,8 +2169,8 @@
       <c r="R14" t="n" s="10">
         <v>224.3</v>
       </c>
-      <c r="S14" t="s" s="10">
-        <v>26</v>
+      <c r="S14" t="n" s="10">
+        <v>175.6</v>
       </c>
       <c r="T14" t="s" s="10">
         <v>26</v>
@@ -2249,8 +2249,8 @@
       <c r="R15" t="n" s="10">
         <v>160.3</v>
       </c>
-      <c r="S15" t="s" s="10">
-        <v>26</v>
+      <c r="S15" t="n" s="10">
+        <v>125.5</v>
       </c>
       <c r="T15" t="s" s="10">
         <v>26</v>
@@ -2332,8 +2332,8 @@
       <c r="R16" t="n" s="10">
         <v>208.7</v>
       </c>
-      <c r="S16" t="s" s="10">
-        <v>26</v>
+      <c r="S16" t="n" s="10">
+        <v>140.2</v>
       </c>
       <c r="T16" t="s" s="10">
         <v>26</v>
@@ -2412,8 +2412,8 @@
       <c r="R17" t="n" s="10">
         <v>149.1</v>
       </c>
-      <c r="S17" t="s" s="10">
-        <v>26</v>
+      <c r="S17" t="n" s="10">
+        <v>100.1</v>
       </c>
       <c r="T17" t="s" s="10">
         <v>26</v>
@@ -2495,8 +2495,8 @@
       <c r="R18" t="n" s="10">
         <v>209.4</v>
       </c>
-      <c r="S18" t="s" s="10">
-        <v>26</v>
+      <c r="S18" t="n" s="10">
+        <v>139.2</v>
       </c>
       <c r="T18" t="s" s="10">
         <v>26</v>
@@ -2576,7 +2576,7 @@
         <v>32</v>
       </c>
       <c r="S19" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T19" t="s" s="10">
         <v>26</v>
@@ -2658,8 +2658,8 @@
       <c r="R20" t="n" s="10">
         <v>206.1</v>
       </c>
-      <c r="S20" t="s" s="10">
-        <v>26</v>
+      <c r="S20" t="n" s="10">
+        <v>143.7</v>
       </c>
       <c r="T20" t="s" s="10">
         <v>26</v>
@@ -2739,7 +2739,7 @@
         <v>32</v>
       </c>
       <c r="S21" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T21" t="s" s="10">
         <v>26</v>
@@ -2821,8 +2821,8 @@
       <c r="R22" t="n" s="10">
         <v>216.7</v>
       </c>
-      <c r="S22" t="s" s="10">
-        <v>26</v>
+      <c r="S22" t="n" s="10">
+        <v>168.7</v>
       </c>
       <c r="T22" t="s" s="10">
         <v>26</v>
@@ -2901,8 +2901,8 @@
       <c r="R23" t="n" s="10">
         <v>158.0</v>
       </c>
-      <c r="S23" t="s" s="10">
-        <v>26</v>
+      <c r="S23" t="n" s="10">
+        <v>123.1</v>
       </c>
       <c r="T23" t="s" s="10">
         <v>26</v>
@@ -2984,8 +2984,8 @@
       <c r="R24" t="n" s="10">
         <v>190.5</v>
       </c>
-      <c r="S24" t="s" s="10">
-        <v>26</v>
+      <c r="S24" t="n" s="10">
+        <v>158.6</v>
       </c>
       <c r="T24" t="s" s="10">
         <v>26</v>
@@ -3064,8 +3064,8 @@
       <c r="R25" t="n" s="10">
         <v>142.3</v>
       </c>
-      <c r="S25" t="s" s="10">
-        <v>26</v>
+      <c r="S25" t="n" s="10">
+        <v>118.4</v>
       </c>
       <c r="T25" t="s" s="10">
         <v>26</v>
@@ -3147,8 +3147,8 @@
       <c r="R26" t="n" s="10">
         <v>231.9</v>
       </c>
-      <c r="S26" t="s" s="10">
-        <v>26</v>
+      <c r="S26" t="n" s="10">
+        <v>174.6</v>
       </c>
       <c r="T26" t="s" s="10">
         <v>26</v>
@@ -3227,8 +3227,8 @@
       <c r="R27" t="n" s="10">
         <v>167.2</v>
       </c>
-      <c r="S27" t="s" s="10">
-        <v>26</v>
+      <c r="S27" t="n" s="10">
+        <v>125.9</v>
       </c>
       <c r="T27" t="s" s="10">
         <v>26</v>
@@ -3310,8 +3310,8 @@
       <c r="R28" t="n" s="10">
         <v>247.6</v>
       </c>
-      <c r="S28" t="s" s="10">
-        <v>26</v>
+      <c r="S28" t="n" s="10">
+        <v>168.1</v>
       </c>
       <c r="T28" t="s" s="10">
         <v>26</v>
@@ -3391,7 +3391,7 @@
         <v>32</v>
       </c>
       <c r="S29" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T29" t="s" s="10">
         <v>26</v>
@@ -3473,8 +3473,8 @@
       <c r="R30" t="n" s="10">
         <v>211.1</v>
       </c>
-      <c r="S30" t="s" s="10">
-        <v>26</v>
+      <c r="S30" t="n" s="10">
+        <v>183.2</v>
       </c>
       <c r="T30" t="s" s="10">
         <v>26</v>
@@ -3554,7 +3554,7 @@
         <v>32</v>
       </c>
       <c r="S31" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T31" t="s" s="10">
         <v>26</v>
@@ -3597,7 +3597,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="n" s="10">
-        <v>133.5</v>
+        <v>133.6</v>
       </c>
       <c r="E33" t="n" s="10">
         <v>143.2</v>
@@ -3609,10 +3609,10 @@
         <v>160.2</v>
       </c>
       <c r="H33" t="n" s="10">
-        <v>158.9</v>
+        <v>159.0</v>
       </c>
       <c r="I33" t="n" s="10">
-        <v>164.7</v>
+        <v>164.6</v>
       </c>
       <c r="J33" t="n" s="10">
         <v>160.0</v>
@@ -3624,7 +3624,7 @@
         <v>181.0</v>
       </c>
       <c r="M33" t="n" s="10">
-        <v>158.6</v>
+        <v>158.7</v>
       </c>
       <c r="N33" t="n" s="10">
         <v>145.3</v>
@@ -3641,8 +3641,8 @@
       <c r="R33" t="n" s="10">
         <v>209.6</v>
       </c>
-      <c r="S33" t="s" s="10">
-        <v>26</v>
+      <c r="S33" t="n" s="10">
+        <v>164.2</v>
       </c>
       <c r="T33" t="s" s="10">
         <v>26</v>
@@ -3677,7 +3677,7 @@
         <v>25</v>
       </c>
       <c r="D34" t="n" s="10">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="E34" t="n" s="10">
         <v>117.4</v>
@@ -3710,7 +3710,7 @@
         <v>108.6</v>
       </c>
       <c r="O34" t="n" s="10">
-        <v>138.4</v>
+        <v>138.3</v>
       </c>
       <c r="P34" t="n" s="10">
         <v>106.8</v>
@@ -3721,8 +3721,8 @@
       <c r="R34" t="n" s="10">
         <v>151.2</v>
       </c>
-      <c r="S34" t="s" s="10">
-        <v>26</v>
+      <c r="S34" t="n" s="10">
+        <v>118.5</v>
       </c>
       <c r="T34" t="s" s="10">
         <v>26</v>
@@ -3804,8 +3804,8 @@
       <c r="R35" t="n" s="10">
         <v>208.8</v>
       </c>
-      <c r="S35" t="s" s="10">
-        <v>26</v>
+      <c r="S35" t="n" s="10">
+        <v>157.6</v>
       </c>
       <c r="T35" t="s" s="10">
         <v>26</v>
@@ -3884,8 +3884,8 @@
       <c r="R36" t="n" s="10">
         <v>149.2</v>
       </c>
-      <c r="S36" t="s" s="10">
-        <v>26</v>
+      <c r="S36" t="n" s="10">
+        <v>112.6</v>
       </c>
       <c r="T36" t="s" s="10">
         <v>26</v>
@@ -3967,8 +3967,8 @@
       <c r="R37" t="n" s="10">
         <v>219.4</v>
       </c>
-      <c r="S37" t="s" s="10">
-        <v>26</v>
+      <c r="S37" t="n" s="10">
+        <v>178.1</v>
       </c>
       <c r="T37" t="s" s="10">
         <v>26</v>
@@ -4047,8 +4047,8 @@
       <c r="R38" t="n" s="10">
         <v>156.8</v>
       </c>
-      <c r="S38" t="s" s="10">
-        <v>26</v>
+      <c r="S38" t="n" s="10">
+        <v>127.3</v>
       </c>
       <c r="T38" t="s" s="10">
         <v>26</v>
@@ -4130,8 +4130,8 @@
       <c r="R39" t="n" s="10">
         <v>201.4</v>
       </c>
-      <c r="S39" t="s" s="10">
-        <v>26</v>
+      <c r="S39" t="n" s="10">
+        <v>143.3</v>
       </c>
       <c r="T39" t="s" s="10">
         <v>26</v>
@@ -4210,8 +4210,8 @@
       <c r="R40" t="n" s="10">
         <v>143.9</v>
       </c>
-      <c r="S40" t="s" s="10">
-        <v>26</v>
+      <c r="S40" t="n" s="10">
+        <v>102.3</v>
       </c>
       <c r="T40" t="s" s="10">
         <v>26</v>
@@ -4293,8 +4293,8 @@
       <c r="R41" t="n" s="10">
         <v>201.7</v>
       </c>
-      <c r="S41" t="s" s="10">
-        <v>26</v>
+      <c r="S41" t="n" s="10">
+        <v>142.5</v>
       </c>
       <c r="T41" t="s" s="10">
         <v>26</v>
@@ -4373,8 +4373,8 @@
       <c r="R42" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="S42" t="s" s="10">
-        <v>26</v>
+      <c r="S42" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="T42" t="s" s="10">
         <v>26</v>
@@ -4456,8 +4456,8 @@
       <c r="R43" t="n" s="10">
         <v>200.5</v>
       </c>
-      <c r="S43" t="s" s="10">
-        <v>26</v>
+      <c r="S43" t="n" s="10">
+        <v>146.2</v>
       </c>
       <c r="T43" t="s" s="10">
         <v>26</v>
@@ -4536,8 +4536,8 @@
       <c r="R44" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="S44" t="s" s="10">
-        <v>26</v>
+      <c r="S44" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="T44" t="s" s="10">
         <v>26</v>
@@ -4617,10 +4617,10 @@
         <v>149.5</v>
       </c>
       <c r="R45" t="n" s="10">
-        <v>210.5</v>
-      </c>
-      <c r="S45" t="s" s="10">
-        <v>26</v>
+        <v>210.4</v>
+      </c>
+      <c r="S45" t="n" s="10">
+        <v>171.9</v>
       </c>
       <c r="T45" t="s" s="10">
         <v>26</v>
@@ -4661,7 +4661,7 @@
         <v>111.9</v>
       </c>
       <c r="F46" t="n" s="10">
-        <v>130.2</v>
+        <v>130.1</v>
       </c>
       <c r="G46" t="n" s="10">
         <v>132.8</v>
@@ -4685,22 +4685,22 @@
         <v>113.2</v>
       </c>
       <c r="N46" t="n" s="10">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="O46" t="n" s="10">
-        <v>122.1</v>
+        <v>122.0</v>
       </c>
       <c r="P46" t="n" s="10">
         <v>105.7</v>
       </c>
       <c r="Q46" t="n" s="10">
-        <v>109.1</v>
+        <v>109.0</v>
       </c>
       <c r="R46" t="n" s="10">
         <v>153.5</v>
       </c>
-      <c r="S46" t="s" s="10">
-        <v>26</v>
+      <c r="S46" t="n" s="10">
+        <v>125.4</v>
       </c>
       <c r="T46" t="s" s="10">
         <v>26</v>
@@ -4738,22 +4738,22 @@
         <v>25</v>
       </c>
       <c r="D47" t="n" s="10">
-        <v>90.0</v>
+        <v>90.2</v>
       </c>
       <c r="E47" t="n" s="10">
         <v>136.7</v>
       </c>
       <c r="F47" t="n" s="10">
-        <v>146.5</v>
+        <v>146.3</v>
       </c>
       <c r="G47" t="n" s="10">
         <v>166.4</v>
       </c>
       <c r="H47" t="n" s="10">
-        <v>153.3</v>
+        <v>153.4</v>
       </c>
       <c r="I47" t="n" s="10">
-        <v>167.2</v>
+        <v>167.1</v>
       </c>
       <c r="J47" t="n" s="10">
         <v>161.9</v>
@@ -4765,25 +4765,25 @@
         <v>146.5</v>
       </c>
       <c r="M47" t="n" s="10">
-        <v>117.2</v>
+        <v>117.3</v>
       </c>
       <c r="N47" t="n" s="10">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="O47" t="n" s="10">
-        <v>115.5</v>
+        <v>115.3</v>
       </c>
       <c r="P47" t="n" s="10">
         <v>107.8</v>
       </c>
       <c r="Q47" t="n" s="10">
-        <v>131.8</v>
+        <v>131.7</v>
       </c>
       <c r="R47" t="n" s="10">
-        <v>183.7</v>
-      </c>
-      <c r="S47" t="s" s="10">
-        <v>26</v>
+        <v>183.5</v>
+      </c>
+      <c r="S47" t="n" s="10">
+        <v>162.4</v>
       </c>
       <c r="T47" t="s" s="10">
         <v>26</v>
@@ -4818,22 +4818,22 @@
         <v>25</v>
       </c>
       <c r="D48" t="n" s="10">
-        <v>74.7</v>
+        <v>74.9</v>
       </c>
       <c r="E48" t="n" s="10">
         <v>112.2</v>
       </c>
       <c r="F48" t="n" s="10">
-        <v>120.2</v>
+        <v>120.0</v>
       </c>
       <c r="G48" t="n" s="10">
         <v>136.5</v>
       </c>
       <c r="H48" t="n" s="10">
-        <v>124.2</v>
+        <v>124.3</v>
       </c>
       <c r="I48" t="n" s="10">
-        <v>135.5</v>
+        <v>135.4</v>
       </c>
       <c r="J48" t="n" s="10">
         <v>131.3</v>
@@ -4845,25 +4845,25 @@
         <v>116.6</v>
       </c>
       <c r="M48" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="N48" t="n" s="10">
-        <v>81.0</v>
+        <v>80.9</v>
       </c>
       <c r="O48" t="n" s="10">
-        <v>90.3</v>
+        <v>90.1</v>
       </c>
       <c r="P48" t="n" s="10">
         <v>84.3</v>
       </c>
       <c r="Q48" t="n" s="10">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="R48" t="n" s="10">
-        <v>137.2</v>
-      </c>
-      <c r="S48" t="s" s="10">
-        <v>26</v>
+        <v>137.1</v>
+      </c>
+      <c r="S48" t="n" s="10">
+        <v>121.2</v>
       </c>
       <c r="T48" t="s" s="10">
         <v>26</v>
@@ -4945,8 +4945,8 @@
       <c r="R49" t="n" s="10">
         <v>226.1</v>
       </c>
-      <c r="S49" t="s" s="10">
-        <v>26</v>
+      <c r="S49" t="n" s="10">
+        <v>177.4</v>
       </c>
       <c r="T49" t="s" s="10">
         <v>26</v>
@@ -5025,8 +5025,8 @@
       <c r="R50" t="n" s="10">
         <v>163.0</v>
       </c>
-      <c r="S50" t="s" s="10">
-        <v>26</v>
+      <c r="S50" t="n" s="10">
+        <v>127.9</v>
       </c>
       <c r="T50" t="s" s="10">
         <v>26</v>
@@ -5108,8 +5108,8 @@
       <c r="R51" t="n" s="10">
         <v>240.9</v>
       </c>
-      <c r="S51" t="s" s="10">
-        <v>26</v>
+      <c r="S51" t="n" s="10">
+        <v>171.0</v>
       </c>
       <c r="T51" t="s" s="10">
         <v>26</v>
@@ -5188,8 +5188,8 @@
       <c r="R52" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="S52" t="s" s="10">
-        <v>26</v>
+      <c r="S52" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="T52" t="s" s="10">
         <v>26</v>
@@ -5271,8 +5271,8 @@
       <c r="R53" t="n" s="10">
         <v>206.5</v>
       </c>
-      <c r="S53" t="s" s="10">
-        <v>26</v>
+      <c r="S53" t="n" s="10">
+        <v>185.8</v>
       </c>
       <c r="T53" t="s" s="10">
         <v>26</v>
@@ -5351,8 +5351,8 @@
       <c r="R54" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="S54" t="s" s="10">
-        <v>26</v>
+      <c r="S54" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="T54" t="s" s="10">
         <v>26</v>
@@ -5395,16 +5395,16 @@
         <v>25</v>
       </c>
       <c r="D56" t="n" s="10">
-        <v>159.0</v>
+        <v>158.8</v>
       </c>
       <c r="E56" t="n" s="10">
-        <v>155.8</v>
+        <v>156.1</v>
       </c>
       <c r="F56" t="n" s="10">
-        <v>139.6</v>
+        <v>139.2</v>
       </c>
       <c r="G56" t="n" s="10">
-        <v>150.8</v>
+        <v>151.4</v>
       </c>
       <c r="H56" t="n" s="10">
         <v>152.8</v>
@@ -5416,31 +5416,31 @@
         <v>152.8</v>
       </c>
       <c r="K56" t="n" s="10">
-        <v>165.4</v>
+        <v>165.1</v>
       </c>
       <c r="L56" t="n" s="10">
         <v>174.9</v>
       </c>
       <c r="M56" t="n" s="10">
-        <v>165.8</v>
+        <v>165.7</v>
       </c>
       <c r="N56" t="n" s="10">
-        <v>158.3</v>
+        <v>158.2</v>
       </c>
       <c r="O56" t="n" s="10">
-        <v>189.4</v>
+        <v>189.2</v>
       </c>
       <c r="P56" t="n" s="10">
-        <v>169.5</v>
+        <v>169.3</v>
       </c>
       <c r="Q56" t="n" s="10">
-        <v>168.9</v>
+        <v>169.4</v>
       </c>
       <c r="R56" t="n" s="10">
-        <v>186.4</v>
-      </c>
-      <c r="S56" t="s" s="10">
-        <v>26</v>
+        <v>185.7</v>
+      </c>
+      <c r="S56" t="n" s="10">
+        <v>155.5</v>
       </c>
       <c r="T56" t="s" s="10">
         <v>26</v>
@@ -5475,19 +5475,19 @@
         <v>25</v>
       </c>
       <c r="D57" t="n" s="10">
-        <v>132.3</v>
+        <v>132.1</v>
       </c>
       <c r="E57" t="n" s="10">
-        <v>128.2</v>
+        <v>128.4</v>
       </c>
       <c r="F57" t="n" s="10">
-        <v>114.6</v>
+        <v>114.2</v>
       </c>
       <c r="G57" t="n" s="10">
-        <v>123.4</v>
+        <v>123.9</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>121.5</v>
+        <v>121.6</v>
       </c>
       <c r="I57" t="n" s="10">
         <v>118.6</v>
@@ -5496,31 +5496,31 @@
         <v>121.0</v>
       </c>
       <c r="K57" t="n" s="10">
-        <v>126.4</v>
+        <v>126.2</v>
       </c>
       <c r="L57" t="n" s="10">
         <v>133.4</v>
       </c>
       <c r="M57" t="n" s="10">
-        <v>126.2</v>
+        <v>126.1</v>
       </c>
       <c r="N57" t="n" s="10">
-        <v>118.5</v>
+        <v>118.4</v>
       </c>
       <c r="O57" t="n" s="10">
-        <v>141.2</v>
+        <v>141.1</v>
       </c>
       <c r="P57" t="n" s="10">
-        <v>126.2</v>
+        <v>126.1</v>
       </c>
       <c r="Q57" t="n" s="10">
-        <v>122.3</v>
+        <v>122.6</v>
       </c>
       <c r="R57" t="n" s="10">
-        <v>134.6</v>
-      </c>
-      <c r="S57" t="s" s="10">
-        <v>26</v>
+        <v>134.0</v>
+      </c>
+      <c r="S57" t="n" s="10">
+        <v>112.0</v>
       </c>
       <c r="T57" t="s" s="10">
         <v>26</v>
@@ -5602,8 +5602,8 @@
       <c r="R58" t="n" s="10">
         <v>192.5</v>
       </c>
-      <c r="S58" t="s" s="10">
-        <v>26</v>
+      <c r="S58" t="n" s="10">
+        <v>153.8</v>
       </c>
       <c r="T58" t="s" s="10">
         <v>26</v>
@@ -5682,8 +5682,8 @@
       <c r="R59" t="n" s="10">
         <v>137.8</v>
       </c>
-      <c r="S59" t="s" s="10">
-        <v>26</v>
+      <c r="S59" t="n" s="10">
+        <v>109.7</v>
       </c>
       <c r="T59" t="s" s="10">
         <v>26</v>
@@ -5765,8 +5765,8 @@
       <c r="R60" t="n" s="10">
         <v>201.3</v>
       </c>
-      <c r="S60" t="s" s="10">
-        <v>26</v>
+      <c r="S60" t="n" s="10">
+        <v>169.2</v>
       </c>
       <c r="T60" t="s" s="10">
         <v>26</v>
@@ -5845,8 +5845,8 @@
       <c r="R61" t="n" s="10">
         <v>144.2</v>
       </c>
-      <c r="S61" t="s" s="10">
-        <v>26</v>
+      <c r="S61" t="n" s="10">
+        <v>120.8</v>
       </c>
       <c r="T61" t="s" s="10">
         <v>26</v>
@@ -5928,8 +5928,8 @@
       <c r="R62" t="n" s="10">
         <v>186.4</v>
       </c>
-      <c r="S62" t="s" s="10">
-        <v>26</v>
+      <c r="S62" t="n" s="10">
+        <v>143.1</v>
       </c>
       <c r="T62" t="s" s="10">
         <v>26</v>
@@ -6008,8 +6008,8 @@
       <c r="R63" t="n" s="10">
         <v>133.3</v>
       </c>
-      <c r="S63" t="s" s="10">
-        <v>26</v>
+      <c r="S63" t="n" s="10">
+        <v>102.0</v>
       </c>
       <c r="T63" t="s" s="10">
         <v>26</v>
@@ -6091,8 +6091,8 @@
       <c r="R64" t="n" s="10">
         <v>190.2</v>
       </c>
-      <c r="S64" t="s" s="10">
-        <v>26</v>
+      <c r="S64" t="n" s="10">
+        <v>141.7</v>
       </c>
       <c r="T64" t="s" s="10">
         <v>26</v>
@@ -6171,8 +6171,8 @@
       <c r="R65" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="S65" t="s" s="10">
-        <v>26</v>
+      <c r="S65" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="T65" t="s" s="10">
         <v>26</v>
@@ -6254,8 +6254,8 @@
       <c r="R66" t="n" s="10">
         <v>172.0</v>
       </c>
-      <c r="S66" t="s" s="10">
-        <v>26</v>
+      <c r="S66" t="n" s="10">
+        <v>148.1</v>
       </c>
       <c r="T66" t="s" s="10">
         <v>26</v>
@@ -6334,8 +6334,8 @@
       <c r="R67" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="S67" t="s" s="10">
-        <v>26</v>
+      <c r="S67" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="T67" t="s" s="10">
         <v>26</v>
@@ -6373,19 +6373,19 @@
         <v>25</v>
       </c>
       <c r="D68" t="n" s="10">
-        <v>153.5</v>
+        <v>153.1</v>
       </c>
       <c r="E68" t="n" s="10">
-        <v>149.9</v>
+        <v>150.7</v>
       </c>
       <c r="F68" t="n" s="10">
-        <v>135.0</v>
+        <v>133.9</v>
       </c>
       <c r="G68" t="n" s="10">
-        <v>146.3</v>
+        <v>147.7</v>
       </c>
       <c r="H68" t="n" s="10">
-        <v>145.3</v>
+        <v>145.5</v>
       </c>
       <c r="I68" t="n" s="10">
         <v>146.4</v>
@@ -6394,31 +6394,31 @@
         <v>142.8</v>
       </c>
       <c r="K68" t="n" s="10">
-        <v>158.7</v>
+        <v>158.1</v>
       </c>
       <c r="L68" t="n" s="10">
-        <v>169.6</v>
+        <v>169.5</v>
       </c>
       <c r="M68" t="n" s="10">
-        <v>157.9</v>
+        <v>157.7</v>
       </c>
       <c r="N68" t="n" s="10">
-        <v>163.6</v>
+        <v>163.3</v>
       </c>
       <c r="O68" t="n" s="10">
-        <v>172.6</v>
+        <v>172.1</v>
       </c>
       <c r="P68" t="n" s="10">
-        <v>169.4</v>
+        <v>168.9</v>
       </c>
       <c r="Q68" t="n" s="10">
-        <v>163.8</v>
+        <v>164.7</v>
       </c>
       <c r="R68" t="n" s="10">
-        <v>179.4</v>
-      </c>
-      <c r="S68" t="s" s="10">
-        <v>26</v>
+        <v>177.8</v>
+      </c>
+      <c r="S68" t="n" s="10">
+        <v>157.4</v>
       </c>
       <c r="T68" t="s" s="10">
         <v>26</v>
@@ -6453,52 +6453,52 @@
         <v>25</v>
       </c>
       <c r="D69" t="n" s="10">
-        <v>127.3</v>
+        <v>126.9</v>
       </c>
       <c r="E69" t="n" s="10">
-        <v>123.0</v>
+        <v>123.6</v>
       </c>
       <c r="F69" t="n" s="10">
-        <v>110.5</v>
+        <v>109.7</v>
       </c>
       <c r="G69" t="n" s="10">
-        <v>119.4</v>
+        <v>120.6</v>
       </c>
       <c r="H69" t="n" s="10">
-        <v>116.8</v>
+        <v>116.9</v>
       </c>
       <c r="I69" t="n" s="10">
         <v>117.5</v>
       </c>
       <c r="J69" t="n" s="10">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
       <c r="K69" t="n" s="10">
-        <v>123.0</v>
+        <v>122.6</v>
       </c>
       <c r="L69" t="n" s="10">
-        <v>131.0</v>
+        <v>130.9</v>
       </c>
       <c r="M69" t="n" s="10">
-        <v>121.7</v>
+        <v>121.6</v>
       </c>
       <c r="N69" t="n" s="10">
-        <v>123.8</v>
+        <v>123.6</v>
       </c>
       <c r="O69" t="n" s="10">
-        <v>130.3</v>
+        <v>130.0</v>
       </c>
       <c r="P69" t="n" s="10">
-        <v>127.7</v>
+        <v>127.3</v>
       </c>
       <c r="Q69" t="n" s="10">
-        <v>119.8</v>
+        <v>120.5</v>
       </c>
       <c r="R69" t="n" s="10">
-        <v>130.9</v>
-      </c>
-      <c r="S69" t="s" s="10">
-        <v>26</v>
+        <v>129.7</v>
+      </c>
+      <c r="S69" t="n" s="10">
+        <v>114.6</v>
       </c>
       <c r="T69" t="s" s="10">
         <v>26</v>
@@ -6536,52 +6536,52 @@
         <v>25</v>
       </c>
       <c r="D70" t="n" s="10">
-        <v>130.8</v>
+        <v>129.6</v>
       </c>
       <c r="E70" t="n" s="10">
-        <v>142.2</v>
+        <v>144.3</v>
       </c>
       <c r="F70" t="n" s="10">
-        <v>120.6</v>
+        <v>117.8</v>
       </c>
       <c r="G70" t="n" s="10">
-        <v>130.1</v>
+        <v>134.0</v>
       </c>
       <c r="H70" t="n" s="10">
-        <v>131.6</v>
+        <v>132.1</v>
       </c>
       <c r="I70" t="n" s="10">
         <v>135.2</v>
       </c>
       <c r="J70" t="n" s="10">
-        <v>140.2</v>
+        <v>140.3</v>
       </c>
       <c r="K70" t="n" s="10">
-        <v>153.3</v>
+        <v>151.7</v>
       </c>
       <c r="L70" t="n" s="10">
-        <v>148.3</v>
+        <v>148.0</v>
       </c>
       <c r="M70" t="n" s="10">
-        <v>142.9</v>
+        <v>142.5</v>
       </c>
       <c r="N70" t="n" s="10">
-        <v>146.7</v>
+        <v>146.0</v>
       </c>
       <c r="O70" t="n" s="10">
-        <v>151.6</v>
+        <v>150.3</v>
       </c>
       <c r="P70" t="n" s="10">
-        <v>155.1</v>
+        <v>153.9</v>
       </c>
       <c r="Q70" t="n" s="10">
-        <v>135.7</v>
+        <v>138.2</v>
       </c>
       <c r="R70" t="n" s="10">
-        <v>152.0</v>
-      </c>
-      <c r="S70" t="s" s="10">
-        <v>26</v>
+        <v>147.7</v>
+      </c>
+      <c r="S70" t="n" s="10">
+        <v>131.4</v>
       </c>
       <c r="T70" t="s" s="10">
         <v>26</v>
@@ -6616,52 +6616,52 @@
         <v>25</v>
       </c>
       <c r="D71" t="n" s="10">
-        <v>108.1</v>
+        <v>107.1</v>
       </c>
       <c r="E71" t="n" s="10">
-        <v>117.0</v>
+        <v>118.7</v>
       </c>
       <c r="F71" t="n" s="10">
-        <v>99.0</v>
+        <v>96.7</v>
       </c>
       <c r="G71" t="n" s="10">
-        <v>106.6</v>
+        <v>109.8</v>
       </c>
       <c r="H71" t="n" s="10">
-        <v>106.9</v>
+        <v>107.3</v>
       </c>
       <c r="I71" t="n" s="10">
         <v>109.7</v>
       </c>
       <c r="J71" t="n" s="10">
-        <v>113.5</v>
+        <v>113.6</v>
       </c>
       <c r="K71" t="n" s="10">
-        <v>122.3</v>
+        <v>121.1</v>
       </c>
       <c r="L71" t="n" s="10">
-        <v>118.1</v>
+        <v>117.8</v>
       </c>
       <c r="M71" t="n" s="10">
-        <v>113.5</v>
+        <v>113.2</v>
       </c>
       <c r="N71" t="n" s="10">
-        <v>114.5</v>
+        <v>114.0</v>
       </c>
       <c r="O71" t="n" s="10">
-        <v>118.2</v>
+        <v>117.2</v>
       </c>
       <c r="P71" t="n" s="10">
-        <v>120.7</v>
+        <v>119.8</v>
       </c>
       <c r="Q71" t="n" s="10">
-        <v>101.6</v>
+        <v>103.5</v>
       </c>
       <c r="R71" t="n" s="10">
-        <v>113.6</v>
-      </c>
-      <c r="S71" t="s" s="10">
-        <v>26</v>
+        <v>110.4</v>
+      </c>
+      <c r="S71" t="n" s="10">
+        <v>98.0</v>
       </c>
       <c r="T71" t="s" s="10">
         <v>26</v>
@@ -6743,8 +6743,8 @@
       <c r="R72" t="n" s="10">
         <v>195.3</v>
       </c>
-      <c r="S72" t="s" s="10">
-        <v>26</v>
+      <c r="S72" t="n" s="10">
+        <v>172.6</v>
       </c>
       <c r="T72" t="s" s="10">
         <v>26</v>
@@ -6823,8 +6823,8 @@
       <c r="R73" t="n" s="10">
         <v>140.9</v>
       </c>
-      <c r="S73" t="s" s="10">
-        <v>26</v>
+      <c r="S73" t="n" s="10">
+        <v>124.3</v>
       </c>
       <c r="T73" t="s" s="10">
         <v>26</v>
@@ -6906,8 +6906,8 @@
       <c r="R74" t="n" s="10">
         <v>205.5</v>
       </c>
-      <c r="S74" t="s" s="10">
-        <v>26</v>
+      <c r="S74" t="n" s="10">
+        <v>177.0</v>
       </c>
       <c r="T74" t="s" s="10">
         <v>26</v>
@@ -6986,8 +6986,8 @@
       <c r="R75" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="S75" t="s" s="10">
-        <v>26</v>
+      <c r="S75" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="T75" t="s" s="10">
         <v>26</v>
@@ -7069,8 +7069,8 @@
       <c r="R76" t="n" s="10">
         <v>181.8</v>
       </c>
-      <c r="S76" t="s" s="10">
-        <v>26</v>
+      <c r="S76" t="n" s="10">
+        <v>166.7</v>
       </c>
       <c r="T76" t="s" s="10">
         <v>26</v>
@@ -7149,8 +7149,8 @@
       <c r="R77" t="n" s="10">
         <v>0.0</v>
       </c>
-      <c r="S77" t="s" s="10">
-        <v>26</v>
+      <c r="S77" t="n" s="10">
+        <v>0.0</v>
       </c>
       <c r="T77" t="s" s="10">
         <v>26</v>
@@ -7193,52 +7193,52 @@
         <v>25</v>
       </c>
       <c r="D79" t="n" s="10">
-        <v>149.4</v>
+        <v>149.2</v>
       </c>
       <c r="E79" t="n" s="10">
-        <v>152.6</v>
+        <v>151.9</v>
       </c>
       <c r="F79" t="n" s="10">
-        <v>149.6</v>
+        <v>149.8</v>
       </c>
       <c r="G79" t="n" s="10">
-        <v>154.7</v>
+        <v>155.1</v>
       </c>
       <c r="H79" t="n" s="10">
-        <v>159.9</v>
+        <v>160.0</v>
       </c>
       <c r="I79" t="n" s="10">
-        <v>150.7</v>
+        <v>151.3</v>
       </c>
       <c r="J79" t="n" s="10">
-        <v>156.4</v>
+        <v>156.5</v>
       </c>
       <c r="K79" t="n" s="10">
-        <v>165.3</v>
+        <v>165.0</v>
       </c>
       <c r="L79" t="n" s="10">
         <v>169.7</v>
       </c>
       <c r="M79" t="n" s="10">
-        <v>161.9</v>
+        <v>161.8</v>
       </c>
       <c r="N79" t="n" s="10">
-        <v>156.0</v>
+        <v>155.8</v>
       </c>
       <c r="O79" t="n" s="10">
-        <v>187.2</v>
+        <v>187.5</v>
       </c>
       <c r="P79" t="n" s="10">
-        <v>161.0</v>
+        <v>160.4</v>
       </c>
       <c r="Q79" t="n" s="10">
-        <v>163.9</v>
+        <v>163.1</v>
       </c>
       <c r="R79" t="n" s="10">
-        <v>204.7</v>
-      </c>
-      <c r="S79" t="s" s="10">
-        <v>26</v>
+        <v>204.6</v>
+      </c>
+      <c r="S79" t="n" s="10">
+        <v>158.2</v>
       </c>
       <c r="T79" t="s" s="10">
         <v>26</v>
@@ -7273,52 +7273,52 @@
         <v>25</v>
       </c>
       <c r="D80" t="n" s="10">
-        <v>125.1</v>
+        <v>124.5</v>
       </c>
       <c r="E80" t="n" s="10">
-        <v>126.7</v>
+        <v>126.0</v>
       </c>
       <c r="F80" t="n" s="10">
-        <v>119.5</v>
+        <v>119.0</v>
       </c>
       <c r="G80" t="n" s="10">
-        <v>125.5</v>
+        <v>127.1</v>
       </c>
       <c r="H80" t="n" s="10">
+        <v>127.8</v>
+      </c>
+      <c r="I80" t="n" s="10">
+        <v>119.4</v>
+      </c>
+      <c r="J80" t="n" s="10">
+        <v>123.7</v>
+      </c>
+      <c r="K80" t="n" s="10">
         <v>127.5</v>
       </c>
-      <c r="I80" t="n" s="10">
-        <v>118.8</v>
-      </c>
-      <c r="J80" t="n" s="10">
-        <v>123.4</v>
-      </c>
-      <c r="K80" t="n" s="10">
-        <v>127.6</v>
-      </c>
       <c r="L80" t="n" s="10">
-        <v>129.6</v>
+        <v>129.8</v>
       </c>
       <c r="M80" t="n" s="10">
-        <v>123.9</v>
+        <v>124.0</v>
       </c>
       <c r="N80" t="n" s="10">
-        <v>118.2</v>
+        <v>117.7</v>
       </c>
       <c r="O80" t="n" s="10">
-        <v>138.7</v>
+        <v>138.6</v>
       </c>
       <c r="P80" t="n" s="10">
-        <v>123.0</v>
+        <v>121.3</v>
       </c>
       <c r="Q80" t="n" s="10">
-        <v>123.4</v>
+        <v>121.3</v>
       </c>
       <c r="R80" t="n" s="10">
-        <v>138.5</v>
-      </c>
-      <c r="S80" t="s" s="10">
-        <v>26</v>
+        <v>136.1</v>
+      </c>
+      <c r="S80" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="T80" t="s" s="10">
         <v>26</v>
@@ -7359,49 +7359,49 @@
         <v>151.2</v>
       </c>
       <c r="E81" t="n" s="10">
-        <v>152.5</v>
+        <v>152.3</v>
       </c>
       <c r="F81" t="n" s="10">
-        <v>152.6</v>
+        <v>153.0</v>
       </c>
       <c r="G81" t="n" s="10">
-        <v>162.1</v>
+        <v>161.6</v>
       </c>
       <c r="H81" t="n" s="10">
-        <v>169.9</v>
+        <v>169.8</v>
       </c>
       <c r="I81" t="n" s="10">
-        <v>159.2</v>
+        <v>159.3</v>
       </c>
       <c r="J81" t="n" s="10">
-        <v>160.9</v>
+        <v>160.8</v>
       </c>
       <c r="K81" t="n" s="10">
-        <v>169.1</v>
+        <v>168.6</v>
       </c>
       <c r="L81" t="n" s="10">
-        <v>172.2</v>
+        <v>172.3</v>
       </c>
       <c r="M81" t="n" s="10">
-        <v>164.1</v>
+        <v>163.9</v>
       </c>
       <c r="N81" t="n" s="10">
-        <v>150.7</v>
+        <v>150.6</v>
       </c>
       <c r="O81" t="n" s="10">
-        <v>212.5</v>
+        <v>213.3</v>
       </c>
       <c r="P81" t="n" s="10">
-        <v>160.1</v>
+        <v>159.8</v>
       </c>
       <c r="Q81" t="n" s="10">
-        <v>164.5</v>
+        <v>164.4</v>
       </c>
       <c r="R81" t="n" s="10">
-        <v>208.4</v>
-      </c>
-      <c r="S81" t="s" s="10">
-        <v>26</v>
+        <v>208.7</v>
+      </c>
+      <c r="S81" t="n" s="10">
+        <v>158.3</v>
       </c>
       <c r="T81" t="s" s="10">
         <v>26</v>
@@ -7436,52 +7436,52 @@
         <v>25</v>
       </c>
       <c r="D82" t="n" s="10">
-        <v>127.4</v>
+        <v>126.8</v>
       </c>
       <c r="E82" t="n" s="10">
-        <v>126.9</v>
+        <v>126.6</v>
       </c>
       <c r="F82" t="n" s="10">
-        <v>121.2</v>
+        <v>121.0</v>
       </c>
       <c r="G82" t="n" s="10">
-        <v>131.5</v>
+        <v>132.4</v>
       </c>
       <c r="H82" t="n" s="10">
-        <v>134.9</v>
+        <v>135.0</v>
       </c>
       <c r="I82" t="n" s="10">
-        <v>124.6</v>
+        <v>124.8</v>
       </c>
       <c r="J82" t="n" s="10">
-        <v>126.1</v>
+        <v>126.3</v>
       </c>
       <c r="K82" t="n" s="10">
-        <v>129.0</v>
+        <v>128.9</v>
       </c>
       <c r="L82" t="n" s="10">
-        <v>129.9</v>
+        <v>130.3</v>
       </c>
       <c r="M82" t="n" s="10">
-        <v>124.3</v>
+        <v>124.2</v>
       </c>
       <c r="N82" t="n" s="10">
-        <v>112.7</v>
+        <v>112.2</v>
       </c>
       <c r="O82" t="n" s="10">
-        <v>156.1</v>
+        <v>156.6</v>
       </c>
       <c r="P82" t="n" s="10">
-        <v>121.1</v>
+        <v>119.4</v>
       </c>
       <c r="Q82" t="n" s="10">
-        <v>122.8</v>
+        <v>121.0</v>
       </c>
       <c r="R82" t="n" s="10">
-        <v>138.4</v>
-      </c>
-      <c r="S82" t="s" s="10">
-        <v>26</v>
+        <v>136.6</v>
+      </c>
+      <c r="S82" t="n" s="10">
+        <v>115.6</v>
       </c>
       <c r="T82" t="s" s="10">
         <v>26</v>
@@ -7519,52 +7519,52 @@
         <v>25</v>
       </c>
       <c r="D83" t="n" s="10">
-        <v>163.9</v>
+        <v>164.8</v>
       </c>
       <c r="E83" t="n" s="10">
-        <v>168.9</v>
+        <v>170.0</v>
       </c>
       <c r="F83" t="n" s="10">
-        <v>166.9</v>
+        <v>167.6</v>
       </c>
       <c r="G83" t="n" s="10">
-        <v>209.9</v>
+        <v>206.0</v>
       </c>
       <c r="H83" t="n" s="10">
-        <v>183.2</v>
+        <v>183.0</v>
       </c>
       <c r="I83" t="n" s="10">
-        <v>173.5</v>
+        <v>173.1</v>
       </c>
       <c r="J83" t="n" s="10">
         <v>176.7</v>
       </c>
       <c r="K83" t="n" s="10">
-        <v>173.4</v>
+        <v>173.2</v>
       </c>
       <c r="L83" t="n" s="10">
-        <v>178.5</v>
+        <v>178.9</v>
       </c>
       <c r="M83" t="n" s="10">
-        <v>161.6</v>
+        <v>162.0</v>
       </c>
       <c r="N83" t="n" s="10">
-        <v>165.9</v>
+        <v>166.1</v>
       </c>
       <c r="O83" t="n" s="10">
-        <v>176.7</v>
+        <v>177.4</v>
       </c>
       <c r="P83" t="n" s="10">
-        <v>184.6</v>
+        <v>185.9</v>
       </c>
       <c r="Q83" t="n" s="10">
-        <v>183.1</v>
+        <v>185.3</v>
       </c>
       <c r="R83" t="n" s="10">
-        <v>213.3</v>
-      </c>
-      <c r="S83" t="s" s="10">
-        <v>26</v>
+        <v>214.5</v>
+      </c>
+      <c r="S83" t="n" s="10">
+        <v>194.6</v>
       </c>
       <c r="T83" t="s" s="10">
         <v>26</v>
@@ -7599,52 +7599,52 @@
         <v>25</v>
       </c>
       <c r="D84" t="n" s="10">
-        <v>136.4</v>
+        <v>136.6</v>
       </c>
       <c r="E84" t="n" s="10">
-        <v>139.3</v>
+        <v>140.1</v>
       </c>
       <c r="F84" t="n" s="10">
-        <v>133.8</v>
+        <v>134.8</v>
       </c>
       <c r="G84" t="n" s="10">
-        <v>172.7</v>
+        <v>171.3</v>
       </c>
       <c r="H84" t="n" s="10">
-        <v>144.9</v>
+        <v>144.7</v>
       </c>
       <c r="I84" t="n" s="10">
-        <v>135.9</v>
+        <v>135.6</v>
       </c>
       <c r="J84" t="n" s="10">
-        <v>138.2</v>
+        <v>138.0</v>
       </c>
       <c r="K84" t="n" s="10">
-        <v>131.9</v>
+        <v>131.8</v>
       </c>
       <c r="L84" t="n" s="10">
-        <v>134.2</v>
+        <v>134.5</v>
       </c>
       <c r="M84" t="n" s="10">
         <v>120.7</v>
       </c>
       <c r="N84" t="n" s="10">
-        <v>123.3</v>
+        <v>123.2</v>
       </c>
       <c r="O84" t="n" s="10">
-        <v>129.5</v>
+        <v>129.6</v>
       </c>
       <c r="P84" t="n" s="10">
-        <v>138.0</v>
+        <v>138.3</v>
       </c>
       <c r="Q84" t="n" s="10">
-        <v>134.3</v>
+        <v>135.7</v>
       </c>
       <c r="R84" t="n" s="10">
-        <v>144.7</v>
-      </c>
-      <c r="S84" t="s" s="10">
-        <v>26</v>
+        <v>146.4</v>
+      </c>
+      <c r="S84" t="n" s="10">
+        <v>144.5</v>
       </c>
       <c r="T84" t="s" s="10">
         <v>26</v>
@@ -7682,52 +7682,52 @@
         <v>25</v>
       </c>
       <c r="D85" t="n" s="10">
-        <v>144.0</v>
+        <v>141.4</v>
       </c>
       <c r="E85" t="n" s="10">
+        <v>139.8</v>
+      </c>
+      <c r="F85" t="n" s="10">
+        <v>141.0</v>
+      </c>
+      <c r="G85" t="n" s="10">
         <v>141.9</v>
       </c>
-      <c r="F85" t="n" s="10">
-        <v>135.7</v>
-      </c>
-      <c r="G85" t="n" s="10">
-        <v>141.0</v>
-      </c>
       <c r="H85" t="n" s="10">
-        <v>158.5</v>
+        <v>159.2</v>
       </c>
       <c r="I85" t="n" s="10">
-        <v>147.3</v>
+        <v>148.2</v>
       </c>
       <c r="J85" t="n" s="10">
-        <v>148.3</v>
+        <v>148.6</v>
       </c>
       <c r="K85" t="n" s="10">
-        <v>164.6</v>
+        <v>164.1</v>
       </c>
       <c r="L85" t="n" s="10">
-        <v>166.7</v>
+        <v>166.6</v>
       </c>
       <c r="M85" t="n" s="10">
-        <v>165.6</v>
+        <v>164.2</v>
       </c>
       <c r="N85" t="n" s="10">
-        <v>141.2</v>
+        <v>138.8</v>
       </c>
       <c r="O85" t="n" s="10">
-        <v>235.9</v>
+        <v>236.5</v>
       </c>
       <c r="P85" t="n" s="10">
-        <v>147.7</v>
+        <v>141.8</v>
       </c>
       <c r="Q85" t="n" s="10">
-        <v>157.4</v>
+        <v>150.5</v>
       </c>
       <c r="R85" t="n" s="10">
-        <v>187.6</v>
-      </c>
-      <c r="S85" t="s" s="10">
-        <v>26</v>
+        <v>202.1</v>
+      </c>
+      <c r="S85" t="n" s="10">
+        <v>146.3</v>
       </c>
       <c r="T85" t="s" s="10">
         <v>26</v>
@@ -7762,52 +7762,52 @@
         <v>25</v>
       </c>
       <c r="D86" t="n" s="10">
-        <v>120.2</v>
+        <v>119.6</v>
       </c>
       <c r="E86" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="F86" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="G86" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="H86" t="n" s="10">
+        <v>118.2</v>
+      </c>
+      <c r="I86" t="n" s="10">
+        <v>117.0</v>
+      </c>
+      <c r="J86" t="n" s="10">
         <v>117.5</v>
       </c>
-      <c r="F86" t="n" s="10">
-        <v>112.1</v>
-      </c>
-      <c r="G86" t="n" s="10">
-        <v>115.9</v>
-      </c>
-      <c r="H86" t="n" s="10">
-        <v>117.7</v>
-      </c>
-      <c r="I86" t="n" s="10">
-        <v>116.8</v>
-      </c>
-      <c r="J86" t="n" s="10">
-        <v>117.4</v>
-      </c>
       <c r="K86" t="n" s="10">
-        <v>126.9</v>
+        <v>126.5</v>
       </c>
       <c r="L86" t="n" s="10">
-        <v>126.6</v>
+        <v>126.8</v>
       </c>
       <c r="M86" t="n" s="10">
-        <v>126.3</v>
+        <v>125.8</v>
       </c>
       <c r="N86" t="n" s="10">
-        <v>104.7</v>
+        <v>104.2</v>
       </c>
       <c r="O86" t="n" s="10">
-        <v>175.1</v>
+        <v>175.9</v>
       </c>
       <c r="P86" t="n" s="10">
-        <v>108.0</v>
+        <v>106.4</v>
       </c>
       <c r="Q86" t="n" s="10">
-        <v>112.8</v>
+        <v>111.1</v>
       </c>
       <c r="R86" t="n" s="10">
-        <v>132.7</v>
-      </c>
-      <c r="S86" t="s" s="10">
-        <v>26</v>
+        <v>130.7</v>
+      </c>
+      <c r="S86" t="n" s="10">
+        <v>107.8</v>
       </c>
       <c r="T86" t="s" s="10">
         <v>26</v>
@@ -7845,52 +7845,52 @@
         <v>25</v>
       </c>
       <c r="D87" t="n" s="10">
-        <v>148.0</v>
+        <v>147.0</v>
       </c>
       <c r="E87" t="n" s="10">
+        <v>143.8</v>
+      </c>
+      <c r="F87" t="n" s="10">
+        <v>135.2</v>
+      </c>
+      <c r="G87" t="n" s="10">
         <v>144.4</v>
       </c>
-      <c r="F87" t="n" s="10">
-        <v>136.2</v>
-      </c>
-      <c r="G87" t="n" s="10">
-        <v>140.9</v>
-      </c>
       <c r="H87" t="n" s="10">
-        <v>148.0</v>
+        <v>149.1</v>
       </c>
       <c r="I87" t="n" s="10">
-        <v>153.9</v>
+        <v>154.3</v>
       </c>
       <c r="J87" t="n" s="10">
-        <v>156.8</v>
+        <v>157.2</v>
       </c>
       <c r="K87" t="n" s="10">
-        <v>171.9</v>
+        <v>171.6</v>
       </c>
       <c r="L87" t="n" s="10">
-        <v>176.2</v>
+        <v>176.4</v>
       </c>
       <c r="M87" t="n" s="10">
-        <v>171.7</v>
+        <v>171.5</v>
       </c>
       <c r="N87" t="n" s="10">
-        <v>147.6</v>
+        <v>147.0</v>
       </c>
       <c r="O87" t="n" s="10">
-        <v>183.8</v>
+        <v>182.8</v>
       </c>
       <c r="P87" t="n" s="10">
-        <v>147.1</v>
+        <v>144.7</v>
       </c>
       <c r="Q87" t="n" s="10">
-        <v>161.4</v>
+        <v>158.4</v>
       </c>
       <c r="R87" t="n" s="10">
-        <v>192.6</v>
-      </c>
-      <c r="S87" t="s" s="10">
-        <v>26</v>
+        <v>188.7</v>
+      </c>
+      <c r="S87" t="n" s="10">
+        <v>153.7</v>
       </c>
       <c r="T87" t="s" s="10">
         <v>26</v>
@@ -7970,7 +7970,7 @@
         <v>32</v>
       </c>
       <c r="S88" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T88" t="s" s="10">
         <v>26</v>
@@ -8008,52 +8008,52 @@
         <v>25</v>
       </c>
       <c r="D89" t="n" s="10">
-        <v>128.7</v>
+        <v>128.4</v>
       </c>
       <c r="E89" t="n" s="10">
-        <v>132.1</v>
+        <v>133.2</v>
       </c>
       <c r="F89" t="n" s="10">
-        <v>140.1</v>
+        <v>140.5</v>
       </c>
       <c r="G89" t="n" s="10">
-        <v>143.8</v>
+        <v>143.4</v>
       </c>
       <c r="H89" t="n" s="10">
-        <v>152.3</v>
+        <v>152.4</v>
       </c>
       <c r="I89" t="n" s="10">
-        <v>128.1</v>
+        <v>129.1</v>
       </c>
       <c r="J89" t="n" s="10">
-        <v>121.9</v>
+        <v>122.0</v>
       </c>
       <c r="K89" t="n" s="10">
-        <v>144.9</v>
+        <v>144.7</v>
       </c>
       <c r="L89" t="n" s="10">
-        <v>141.2</v>
+        <v>141.3</v>
       </c>
       <c r="M89" t="n" s="10">
-        <v>152.3</v>
+        <v>151.8</v>
       </c>
       <c r="N89" t="n" s="10">
         <v>136.5</v>
       </c>
       <c r="O89" t="n" s="10">
-        <v>387.7</v>
+        <v>388.1</v>
       </c>
       <c r="P89" t="n" s="10">
-        <v>152.2</v>
+        <v>151.8</v>
       </c>
       <c r="Q89" t="n" s="10">
-        <v>144.1</v>
+        <v>143.2</v>
       </c>
       <c r="R89" t="n" s="10">
-        <v>185.5</v>
-      </c>
-      <c r="S89" t="s" s="10">
-        <v>26</v>
+        <v>185.7</v>
+      </c>
+      <c r="S89" t="n" s="10">
+        <v>148.0</v>
       </c>
       <c r="T89" t="s" s="10">
         <v>26</v>
@@ -8133,7 +8133,7 @@
         <v>32</v>
       </c>
       <c r="S90" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T90" t="s" s="10">
         <v>26</v>
@@ -8171,52 +8171,52 @@
         <v>25</v>
       </c>
       <c r="D91" t="n" s="10">
-        <v>147.2</v>
+        <v>145.8</v>
       </c>
       <c r="E91" t="n" s="10">
-        <v>152.6</v>
+        <v>150.4</v>
       </c>
       <c r="F91" t="n" s="10">
-        <v>146.2</v>
+        <v>145.2</v>
       </c>
       <c r="G91" t="n" s="10">
-        <v>146.1</v>
+        <v>146.4</v>
       </c>
       <c r="H91" t="n" s="10">
-        <v>148.3</v>
+        <v>147.4</v>
       </c>
       <c r="I91" t="n" s="10">
-        <v>140.6</v>
+        <v>153.6</v>
       </c>
       <c r="J91" t="n" s="10">
-        <v>151.1</v>
+        <v>150.0</v>
       </c>
       <c r="K91" t="n" s="10">
-        <v>160.8</v>
+        <v>159.5</v>
       </c>
       <c r="L91" t="n" s="10">
-        <v>166.5</v>
+        <v>165.2</v>
       </c>
       <c r="M91" t="n" s="10">
-        <v>159.3</v>
+        <v>158.1</v>
       </c>
       <c r="N91" t="n" s="10">
-        <v>161.8</v>
+        <v>160.6</v>
       </c>
       <c r="O91" t="n" s="10">
-        <v>159.7</v>
+        <v>158.3</v>
       </c>
       <c r="P91" t="n" s="10">
-        <v>161.8</v>
+        <v>160.3</v>
       </c>
       <c r="Q91" t="n" s="10">
-        <v>163.0</v>
+        <v>160.9</v>
       </c>
       <c r="R91" t="n" s="10">
-        <v>200.4</v>
-      </c>
-      <c r="S91" t="s" s="10">
-        <v>26</v>
+        <v>199.6</v>
+      </c>
+      <c r="S91" t="n" s="10">
+        <v>157.1</v>
       </c>
       <c r="T91" t="s" s="10">
         <v>26</v>
@@ -8251,52 +8251,52 @@
         <v>25</v>
       </c>
       <c r="D92" t="n" s="10">
-        <v>121.6</v>
+        <v>121.3</v>
       </c>
       <c r="E92" t="n" s="10">
-        <v>125.5</v>
+        <v>124.5</v>
       </c>
       <c r="F92" t="n" s="10">
         <v>119.3</v>
       </c>
       <c r="G92" t="n" s="10">
-        <v>118.8</v>
+        <v>119.9</v>
       </c>
       <c r="H92" t="n" s="10">
-        <v>119.3</v>
+        <v>119.5</v>
       </c>
       <c r="I92" t="n" s="10">
-        <v>112.0</v>
+        <v>113.1</v>
       </c>
       <c r="J92" t="n" s="10">
-        <v>120.7</v>
+        <v>120.9</v>
       </c>
       <c r="K92" t="n" s="10">
-        <v>125.7</v>
+        <v>125.5</v>
       </c>
       <c r="L92" t="n" s="10">
-        <v>128.9</v>
+        <v>128.8</v>
       </c>
       <c r="M92" t="n" s="10">
         <v>123.2</v>
       </c>
       <c r="N92" t="n" s="10">
-        <v>123.0</v>
+        <v>122.8</v>
       </c>
       <c r="O92" t="n" s="10">
-        <v>119.7</v>
+        <v>119.2</v>
       </c>
       <c r="P92" t="n" s="10">
-        <v>122.3</v>
+        <v>121.4</v>
       </c>
       <c r="Q92" t="n" s="10">
-        <v>120.7</v>
+        <v>119.4</v>
       </c>
       <c r="R92" t="n" s="10">
-        <v>144.2</v>
-      </c>
-      <c r="S92" t="s" s="10">
-        <v>26</v>
+        <v>143.9</v>
+      </c>
+      <c r="S92" t="n" s="10">
+        <v>113.7</v>
       </c>
       <c r="T92" t="s" s="10">
         <v>26</v>
@@ -8334,52 +8334,52 @@
         <v>25</v>
       </c>
       <c r="D93" t="n" s="10">
-        <v>131.0</v>
+        <v>130.2</v>
       </c>
       <c r="E93" t="n" s="10">
-        <v>146.7</v>
+        <v>145.3</v>
       </c>
       <c r="F93" t="n" s="10">
-        <v>127.9</v>
+        <v>127.1</v>
       </c>
       <c r="G93" t="n" s="10">
-        <v>128.7</v>
+        <v>132.3</v>
       </c>
       <c r="H93" t="n" s="10">
-        <v>133.0</v>
+        <v>133.5</v>
       </c>
       <c r="I93" t="n" s="10">
-        <v>140.2</v>
+        <v>140.9</v>
       </c>
       <c r="J93" t="n" s="10">
+        <v>143.5</v>
+      </c>
+      <c r="K93" t="n" s="10">
+        <v>154.2</v>
+      </c>
+      <c r="L93" t="n" s="10">
+        <v>143.8</v>
+      </c>
+      <c r="M93" t="n" s="10">
         <v>143.1</v>
       </c>
-      <c r="K93" t="n" s="10">
-        <v>154.9</v>
-      </c>
-      <c r="L93" t="n" s="10">
-        <v>143.6</v>
-      </c>
-      <c r="M93" t="n" s="10">
-        <v>142.8</v>
-      </c>
       <c r="N93" t="n" s="10">
-        <v>144.1</v>
+        <v>143.4</v>
       </c>
       <c r="O93" t="n" s="10">
-        <v>132.7</v>
+        <v>130.6</v>
       </c>
       <c r="P93" t="n" s="10">
-        <v>150.4</v>
+        <v>148.5</v>
       </c>
       <c r="Q93" t="n" s="10">
-        <v>141.5</v>
+        <v>138.6</v>
       </c>
       <c r="R93" t="n" s="10">
-        <v>163.6</v>
-      </c>
-      <c r="S93" t="s" s="10">
-        <v>26</v>
+        <v>160.3</v>
+      </c>
+      <c r="S93" t="n" s="10">
+        <v>133.9</v>
       </c>
       <c r="T93" t="s" s="10">
         <v>26</v>
@@ -8414,52 +8414,52 @@
         <v>25</v>
       </c>
       <c r="D94" t="n" s="10">
-        <v>107.8</v>
+        <v>107.2</v>
       </c>
       <c r="E94" t="n" s="10">
-        <v>120.7</v>
+        <v>119.6</v>
       </c>
       <c r="F94" t="n" s="10">
-        <v>105.0</v>
+        <v>104.4</v>
       </c>
       <c r="G94" t="n" s="10">
-        <v>105.1</v>
+        <v>108.0</v>
       </c>
       <c r="H94" t="n" s="10">
-        <v>108.0</v>
+        <v>108.4</v>
       </c>
       <c r="I94" t="n" s="10">
-        <v>113.3</v>
+        <v>113.9</v>
       </c>
       <c r="J94" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="K94" t="n" s="10">
+        <v>123.1</v>
+      </c>
+      <c r="L94" t="n" s="10">
+        <v>114.5</v>
+      </c>
+      <c r="M94" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="N94" t="n" s="10">
+        <v>112.9</v>
+      </c>
+      <c r="O94" t="n" s="10">
+        <v>101.0</v>
+      </c>
+      <c r="P94" t="n" s="10">
         <v>115.9</v>
       </c>
-      <c r="K94" t="n" s="10">
-        <v>123.7</v>
-      </c>
-      <c r="L94" t="n" s="10">
-        <v>114.4</v>
-      </c>
-      <c r="M94" t="n" s="10">
-        <v>114.1</v>
-      </c>
-      <c r="N94" t="n" s="10">
-        <v>113.4</v>
-      </c>
-      <c r="O94" t="n" s="10">
-        <v>102.8</v>
-      </c>
-      <c r="P94" t="n" s="10">
-        <v>117.4</v>
-      </c>
       <c r="Q94" t="n" s="10">
-        <v>106.6</v>
+        <v>104.4</v>
       </c>
       <c r="R94" t="n" s="10">
-        <v>121.5</v>
-      </c>
-      <c r="S94" t="s" s="10">
-        <v>26</v>
+        <v>118.7</v>
+      </c>
+      <c r="S94" t="n" s="10">
+        <v>98.1</v>
       </c>
       <c r="T94" t="s" s="10">
         <v>26</v>
@@ -8497,52 +8497,52 @@
         <v>25</v>
       </c>
       <c r="D95" t="n" s="10">
-        <v>156.6</v>
+        <v>156.3</v>
       </c>
       <c r="E95" t="n" s="10">
-        <v>155.6</v>
+        <v>154.6</v>
       </c>
       <c r="F95" t="n" s="10">
-        <v>153.8</v>
+        <v>153.7</v>
       </c>
       <c r="G95" t="n" s="10">
-        <v>154.7</v>
+        <v>155.7</v>
       </c>
       <c r="H95" t="n" s="10">
-        <v>155.6</v>
+        <v>155.9</v>
       </c>
       <c r="I95" t="n" s="10">
-        <v>153.7</v>
+        <v>154.5</v>
       </c>
       <c r="J95" t="n" s="10">
-        <v>154.1</v>
+        <v>154.3</v>
       </c>
       <c r="K95" t="n" s="10">
-        <v>163.0</v>
+        <v>163.1</v>
       </c>
       <c r="L95" t="n" s="10">
-        <v>178.5</v>
+        <v>178.4</v>
       </c>
       <c r="M95" t="n" s="10">
-        <v>167.8</v>
+        <v>167.6</v>
       </c>
       <c r="N95" t="n" s="10">
-        <v>171.9</v>
+        <v>171.8</v>
       </c>
       <c r="O95" t="n" s="10">
-        <v>176.5</v>
+        <v>175.9</v>
       </c>
       <c r="P95" t="n" s="10">
-        <v>169.6</v>
+        <v>168.8</v>
       </c>
       <c r="Q95" t="n" s="10">
-        <v>177.1</v>
+        <v>175.8</v>
       </c>
       <c r="R95" t="n" s="10">
-        <v>215.6</v>
-      </c>
-      <c r="S95" t="s" s="10">
-        <v>26</v>
+        <v>215.1</v>
+      </c>
+      <c r="S95" t="n" s="10">
+        <v>173.3</v>
       </c>
       <c r="T95" t="s" s="10">
         <v>26</v>
@@ -8577,52 +8577,52 @@
         <v>25</v>
       </c>
       <c r="D96" t="n" s="10">
-        <v>129.6</v>
+        <v>129.3</v>
       </c>
       <c r="E96" t="n" s="10">
-        <v>127.8</v>
+        <v>127.0</v>
       </c>
       <c r="F96" t="n" s="10">
         <v>125.3</v>
       </c>
       <c r="G96" t="n" s="10">
-        <v>125.6</v>
+        <v>126.3</v>
       </c>
       <c r="H96" t="n" s="10">
-        <v>124.5</v>
+        <v>124.7</v>
       </c>
       <c r="I96" t="n" s="10">
-        <v>121.8</v>
+        <v>122.4</v>
       </c>
       <c r="J96" t="n" s="10">
-        <v>122.2</v>
+        <v>122.4</v>
       </c>
       <c r="K96" t="n" s="10">
         <v>125.7</v>
       </c>
       <c r="L96" t="n" s="10">
-        <v>136.4</v>
+        <v>136.3</v>
       </c>
       <c r="M96" t="n" s="10">
         <v>127.7</v>
       </c>
       <c r="N96" t="n" s="10">
-        <v>128.2</v>
+        <v>128.1</v>
       </c>
       <c r="O96" t="n" s="10">
-        <v>130.1</v>
+        <v>129.6</v>
       </c>
       <c r="P96" t="n" s="10">
-        <v>125.6</v>
+        <v>124.9</v>
       </c>
       <c r="Q96" t="n" s="10">
-        <v>129.8</v>
+        <v>128.8</v>
       </c>
       <c r="R96" t="n" s="10">
-        <v>153.3</v>
-      </c>
-      <c r="S96" t="s" s="10">
-        <v>26</v>
+        <v>153.1</v>
+      </c>
+      <c r="S96" t="n" s="10">
+        <v>123.8</v>
       </c>
       <c r="T96" t="s" s="10">
         <v>26</v>
@@ -8660,52 +8660,52 @@
         <v>25</v>
       </c>
       <c r="D97" t="n" s="10">
-        <v>160.8</v>
+        <v>159.6</v>
       </c>
       <c r="E97" t="n" s="10">
-        <v>157.4</v>
+        <v>155.3</v>
       </c>
       <c r="F97" t="n" s="10">
-        <v>153.8</v>
+        <v>154.1</v>
       </c>
       <c r="G97" t="n" s="10">
-        <v>166.4</v>
+        <v>167.5</v>
       </c>
       <c r="H97" t="n" s="10">
-        <v>162.7</v>
+        <v>163.0</v>
       </c>
       <c r="I97" t="n" s="10">
-        <v>172.9</v>
+        <v>172.5</v>
       </c>
       <c r="J97" t="n" s="10">
-        <v>166.6</v>
+        <v>166.7</v>
       </c>
       <c r="K97" t="n" s="10">
-        <v>160.7</v>
+        <v>160.9</v>
       </c>
       <c r="L97" t="n" s="10">
-        <v>184.5</v>
+        <v>184.1</v>
       </c>
       <c r="M97" t="n" s="10">
-        <v>169.0</v>
+        <v>168.3</v>
       </c>
       <c r="N97" t="n" s="10">
-        <v>187.4</v>
+        <v>191.5</v>
       </c>
       <c r="O97" t="n" s="10">
-        <v>191.6</v>
+        <v>190.0</v>
       </c>
       <c r="P97" t="n" s="10">
-        <v>178.9</v>
+        <v>175.9</v>
       </c>
       <c r="Q97" t="n" s="10">
-        <v>193.7</v>
+        <v>189.9</v>
       </c>
       <c r="R97" t="n" s="10">
-        <v>234.5</v>
-      </c>
-      <c r="S97" t="s" s="10">
-        <v>26</v>
+        <v>234.9</v>
+      </c>
+      <c r="S97" t="n" s="10">
+        <v>177.1</v>
       </c>
       <c r="T97" t="s" s="10">
         <v>26</v>
@@ -8785,7 +8785,7 @@
         <v>32</v>
       </c>
       <c r="S98" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T98" t="s" s="10">
         <v>26</v>
@@ -8823,52 +8823,52 @@
         <v>25</v>
       </c>
       <c r="D99" t="n" s="10">
-        <v>150.6</v>
+        <v>151.1</v>
       </c>
       <c r="E99" t="n" s="10">
+        <v>153.5</v>
+      </c>
+      <c r="F99" t="n" s="10">
         <v>153.3</v>
       </c>
-      <c r="F99" t="n" s="10">
-        <v>154.2</v>
-      </c>
       <c r="G99" t="n" s="10">
-        <v>139.5</v>
+        <v>140.1</v>
       </c>
       <c r="H99" t="n" s="10">
         <v>146.2</v>
       </c>
       <c r="I99" t="n" s="10">
-        <v>128.6</v>
+        <v>130.5</v>
       </c>
       <c r="J99" t="n" s="10">
-        <v>137.6</v>
+        <v>137.5</v>
       </c>
       <c r="K99" t="n" s="10">
-        <v>166.4</v>
+        <v>165.8</v>
       </c>
       <c r="L99" t="n" s="10">
-        <v>170.7</v>
+        <v>170.2</v>
       </c>
       <c r="M99" t="n" s="10">
-        <v>166.0</v>
+        <v>165.8</v>
       </c>
       <c r="N99" t="n" s="10">
-        <v>151.8</v>
+        <v>152.3</v>
       </c>
       <c r="O99" t="n" s="10">
-        <v>156.4</v>
+        <v>157.2</v>
       </c>
       <c r="P99" t="n" s="10">
-        <v>157.9</v>
+        <v>159.3</v>
       </c>
       <c r="Q99" t="n" s="10">
-        <v>155.6</v>
+        <v>156.8</v>
       </c>
       <c r="R99" t="n" s="10">
-        <v>190.8</v>
-      </c>
-      <c r="S99" t="s" s="10">
-        <v>26</v>
+        <v>189.1</v>
+      </c>
+      <c r="S99" t="n" s="10">
+        <v>167.3</v>
       </c>
       <c r="T99" t="s" s="10">
         <v>26</v>
@@ -8948,7 +8948,7 @@
         <v>32</v>
       </c>
       <c r="S100" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T100" t="s" s="10">
         <v>26</v>
@@ -8997,46 +8997,46 @@
         <v>151.6</v>
       </c>
       <c r="F102" t="n" s="10">
-        <v>153.1</v>
+        <v>153.2</v>
       </c>
       <c r="G102" t="n" s="10">
-        <v>154.6</v>
+        <v>154.8</v>
       </c>
       <c r="H102" t="n" s="10">
-        <v>156.1</v>
+        <v>156.3</v>
       </c>
       <c r="I102" t="n" s="10">
-        <v>157.4</v>
+        <v>157.7</v>
       </c>
       <c r="J102" t="n" s="10">
-        <v>158.9</v>
+        <v>159.0</v>
       </c>
       <c r="K102" t="n" s="10">
         <v>160.1</v>
       </c>
       <c r="L102" t="n" s="10">
-        <v>161.2</v>
+        <v>161.1</v>
       </c>
       <c r="M102" t="n" s="10">
         <v>161.9</v>
       </c>
       <c r="N102" t="n" s="10">
-        <v>162.4</v>
+        <v>162.0</v>
       </c>
       <c r="O102" t="n" s="10">
-        <v>162.8</v>
+        <v>162.0</v>
       </c>
       <c r="P102" t="n" s="10">
-        <v>163.1</v>
+        <v>161.9</v>
       </c>
       <c r="Q102" t="n" s="10">
-        <v>163.5</v>
+        <v>161.7</v>
       </c>
       <c r="R102" t="n" s="10">
-        <v>163.9</v>
-      </c>
-      <c r="S102" t="s" s="10">
-        <v>26</v>
+        <v>161.4</v>
+      </c>
+      <c r="S102" t="n" s="10">
+        <v>161.1</v>
       </c>
       <c r="T102" t="s" s="10">
         <v>26</v>
@@ -9074,49 +9074,49 @@
         <v>124.0</v>
       </c>
       <c r="E103" t="n" s="10">
+        <v>124.1</v>
+      </c>
+      <c r="F103" t="n" s="10">
+        <v>124.2</v>
+      </c>
+      <c r="G103" t="n" s="10">
+        <v>124.3</v>
+      </c>
+      <c r="H103" t="n" s="10">
+        <v>124.4</v>
+      </c>
+      <c r="I103" t="n" s="10">
+        <v>124.5</v>
+      </c>
+      <c r="J103" t="n" s="10">
+        <v>124.6</v>
+      </c>
+      <c r="K103" t="n" s="10">
+        <v>124.5</v>
+      </c>
+      <c r="L103" t="n" s="10">
+        <v>124.4</v>
+      </c>
+      <c r="M103" t="n" s="10">
+        <v>124.2</v>
+      </c>
+      <c r="N103" t="n" s="10">
+        <v>124.1</v>
+      </c>
+      <c r="O103" t="n" s="10">
         <v>124.0</v>
       </c>
-      <c r="F103" t="n" s="10">
+      <c r="P103" t="n" s="10">
         <v>123.8</v>
       </c>
-      <c r="G103" t="n" s="10">
+      <c r="Q103" t="n" s="10">
         <v>123.7</v>
       </c>
-      <c r="H103" t="n" s="10">
-        <v>123.7</v>
-      </c>
-      <c r="I103" t="n" s="10">
-        <v>123.8</v>
-      </c>
-      <c r="J103" t="n" s="10">
-        <v>123.9</v>
-      </c>
-      <c r="K103" t="n" s="10">
-        <v>123.8</v>
-      </c>
-      <c r="L103" t="n" s="10">
-        <v>123.5</v>
-      </c>
-      <c r="M103" t="n" s="10">
-        <v>123.8</v>
-      </c>
-      <c r="N103" t="n" s="10">
-        <v>124.7</v>
-      </c>
-      <c r="O103" t="n" s="10">
-        <v>125.9</v>
-      </c>
-      <c r="P103" t="n" s="10">
-        <v>127.3</v>
-      </c>
-      <c r="Q103" t="n" s="10">
-        <v>128.4</v>
-      </c>
       <c r="R103" t="n" s="10">
-        <v>129.1</v>
-      </c>
-      <c r="S103" t="s" s="10">
-        <v>26</v>
+        <v>123.6</v>
+      </c>
+      <c r="S103" t="n" s="10">
+        <v>123.3</v>
       </c>
       <c r="T103" t="s" s="10">
         <v>26</v>
@@ -9160,22 +9160,22 @@
         <v>155.2</v>
       </c>
       <c r="F104" t="n" s="10">
-        <v>157.1</v>
+        <v>157.3</v>
       </c>
       <c r="G104" t="n" s="10">
-        <v>159.0</v>
+        <v>158.9</v>
       </c>
       <c r="H104" t="n" s="10">
-        <v>160.8</v>
+        <v>160.5</v>
       </c>
       <c r="I104" t="n" s="10">
-        <v>162.3</v>
+        <v>162.0</v>
       </c>
       <c r="J104" t="n" s="10">
-        <v>163.7</v>
+        <v>163.2</v>
       </c>
       <c r="K104" t="n" s="10">
-        <v>164.4</v>
+        <v>164.0</v>
       </c>
       <c r="L104" t="n" s="10">
         <v>164.3</v>
@@ -9184,22 +9184,22 @@
         <v>163.8</v>
       </c>
       <c r="N104" t="n" s="10">
-        <v>163.8</v>
+        <v>163.1</v>
       </c>
       <c r="O104" t="n" s="10">
-        <v>163.8</v>
+        <v>162.9</v>
       </c>
       <c r="P104" t="n" s="10">
-        <v>163.8</v>
+        <v>162.7</v>
       </c>
       <c r="Q104" t="n" s="10">
-        <v>163.2</v>
+        <v>162.4</v>
       </c>
       <c r="R104" t="n" s="10">
-        <v>162.4</v>
-      </c>
-      <c r="S104" t="s" s="10">
-        <v>26</v>
+        <v>161.7</v>
+      </c>
+      <c r="S104" t="n" s="10">
+        <v>160.7</v>
       </c>
       <c r="T104" t="s" s="10">
         <v>26</v>
@@ -9237,49 +9237,49 @@
         <v>126.3</v>
       </c>
       <c r="E105" t="n" s="10">
-        <v>126.8</v>
+        <v>126.9</v>
       </c>
       <c r="F105" t="n" s="10">
-        <v>126.6</v>
+        <v>127.2</v>
       </c>
       <c r="G105" t="n" s="10">
-        <v>126.6</v>
+        <v>127.1</v>
       </c>
       <c r="H105" t="n" s="10">
-        <v>126.7</v>
+        <v>127.0</v>
       </c>
       <c r="I105" t="n" s="10">
-        <v>126.7</v>
+        <v>127.0</v>
       </c>
       <c r="J105" t="n" s="10">
-        <v>126.6</v>
+        <v>126.9</v>
       </c>
       <c r="K105" t="n" s="10">
-        <v>126.0</v>
+        <v>126.4</v>
       </c>
       <c r="L105" t="n" s="10">
-        <v>124.6</v>
+        <v>125.6</v>
       </c>
       <c r="M105" t="n" s="10">
-        <v>123.9</v>
+        <v>124.3</v>
       </c>
       <c r="N105" t="n" s="10">
-        <v>124.6</v>
+        <v>123.6</v>
       </c>
       <c r="O105" t="n" s="10">
-        <v>125.8</v>
+        <v>123.4</v>
       </c>
       <c r="P105" t="n" s="10">
-        <v>127.2</v>
+        <v>123.3</v>
       </c>
       <c r="Q105" t="n" s="10">
-        <v>127.8</v>
+        <v>123.3</v>
       </c>
       <c r="R105" t="n" s="10">
-        <v>127.7</v>
-      </c>
-      <c r="S105" t="s" s="10">
-        <v>26</v>
+        <v>123.1</v>
+      </c>
+      <c r="S105" t="n" s="10">
+        <v>122.3</v>
       </c>
       <c r="T105" t="s" s="10">
         <v>26</v>
@@ -9317,52 +9317,52 @@
         <v>25</v>
       </c>
       <c r="D106" t="n" s="10">
-        <v>169.4</v>
+        <v>169.8</v>
       </c>
       <c r="E106" t="n" s="10">
-        <v>170.3</v>
+        <v>170.8</v>
       </c>
       <c r="F106" t="n" s="10">
-        <v>170.7</v>
+        <v>171.5</v>
       </c>
       <c r="G106" t="n" s="10">
         <v>171.3</v>
       </c>
       <c r="H106" t="n" s="10">
-        <v>172.0</v>
+        <v>171.6</v>
       </c>
       <c r="I106" t="n" s="10">
+        <v>172.1</v>
+      </c>
+      <c r="J106" t="n" s="10">
         <v>172.7</v>
       </c>
-      <c r="J106" t="n" s="10">
+      <c r="K106" t="n" s="10">
         <v>173.1</v>
       </c>
-      <c r="K106" t="n" s="10">
-        <v>173.4</v>
-      </c>
       <c r="L106" t="n" s="10">
-        <v>173.1</v>
+        <v>173.6</v>
       </c>
       <c r="M106" t="n" s="10">
         <v>173.6</v>
       </c>
       <c r="N106" t="n" s="10">
-        <v>175.2</v>
+        <v>175.1</v>
       </c>
       <c r="O106" t="n" s="10">
-        <v>177.2</v>
+        <v>178.0</v>
       </c>
       <c r="P106" t="n" s="10">
-        <v>179.3</v>
+        <v>181.3</v>
       </c>
       <c r="Q106" t="n" s="10">
-        <v>180.7</v>
+        <v>184.9</v>
       </c>
       <c r="R106" t="n" s="10">
-        <v>181.7</v>
-      </c>
-      <c r="S106" t="s" s="10">
-        <v>26</v>
+        <v>187.7</v>
+      </c>
+      <c r="S106" t="n" s="10">
+        <v>190.0</v>
       </c>
       <c r="T106" t="s" s="10">
         <v>26</v>
@@ -9397,52 +9397,52 @@
         <v>25</v>
       </c>
       <c r="D107" t="n" s="10">
-        <v>139.4</v>
+        <v>139.5</v>
       </c>
       <c r="E107" t="n" s="10">
-        <v>138.9</v>
+        <v>139.0</v>
       </c>
       <c r="F107" t="n" s="10">
-        <v>137.5</v>
+        <v>138.2</v>
       </c>
       <c r="G107" t="n" s="10">
-        <v>136.4</v>
+        <v>136.5</v>
       </c>
       <c r="H107" t="n" s="10">
-        <v>135.6</v>
+        <v>135.2</v>
       </c>
       <c r="I107" t="n" s="10">
-        <v>134.7</v>
+        <v>134.2</v>
       </c>
       <c r="J107" t="n" s="10">
-        <v>133.6</v>
+        <v>133.3</v>
       </c>
       <c r="K107" t="n" s="10">
-        <v>132.4</v>
+        <v>132.2</v>
       </c>
       <c r="L107" t="n" s="10">
-        <v>130.5</v>
+        <v>131.2</v>
       </c>
       <c r="M107" t="n" s="10">
         <v>130.0</v>
       </c>
       <c r="N107" t="n" s="10">
-        <v>131.0</v>
+        <v>130.4</v>
       </c>
       <c r="O107" t="n" s="10">
-        <v>132.7</v>
+        <v>132.3</v>
       </c>
       <c r="P107" t="n" s="10">
-        <v>134.6</v>
+        <v>134.7</v>
       </c>
       <c r="Q107" t="n" s="10">
-        <v>135.8</v>
+        <v>137.4</v>
       </c>
       <c r="R107" t="n" s="10">
-        <v>136.3</v>
-      </c>
-      <c r="S107" t="s" s="10">
-        <v>26</v>
+        <v>139.5</v>
+      </c>
+      <c r="S107" t="n" s="10">
+        <v>140.9</v>
       </c>
       <c r="T107" t="s" s="10">
         <v>26</v>
@@ -9480,52 +9480,52 @@
         <v>25</v>
       </c>
       <c r="D108" t="n" s="10">
-        <v>138.9</v>
+        <v>139.1</v>
       </c>
       <c r="E108" t="n" s="10">
-        <v>141.2</v>
+        <v>141.9</v>
       </c>
       <c r="F108" t="n" s="10">
-        <v>143.0</v>
+        <v>144.6</v>
       </c>
       <c r="G108" t="n" s="10">
-        <v>145.2</v>
+        <v>147.1</v>
       </c>
       <c r="H108" t="n" s="10">
-        <v>147.5</v>
+        <v>149.5</v>
       </c>
       <c r="I108" t="n" s="10">
-        <v>149.8</v>
+        <v>151.7</v>
       </c>
       <c r="J108" t="n" s="10">
-        <v>152.3</v>
+        <v>153.5</v>
       </c>
       <c r="K108" t="n" s="10">
-        <v>154.2</v>
+        <v>154.8</v>
       </c>
       <c r="L108" t="n" s="10">
-        <v>155.1</v>
+        <v>155.6</v>
       </c>
       <c r="M108" t="n" s="10">
-        <v>156.5</v>
+        <v>155.2</v>
       </c>
       <c r="N108" t="n" s="10">
-        <v>158.9</v>
+        <v>154.0</v>
       </c>
       <c r="O108" t="n" s="10">
-        <v>161.8</v>
+        <v>153.3</v>
       </c>
       <c r="P108" t="n" s="10">
-        <v>164.9</v>
+        <v>152.5</v>
       </c>
       <c r="Q108" t="n" s="10">
-        <v>167.3</v>
+        <v>151.7</v>
       </c>
       <c r="R108" t="n" s="10">
-        <v>168.9</v>
-      </c>
-      <c r="S108" t="s" s="10">
-        <v>26</v>
+        <v>150.1</v>
+      </c>
+      <c r="S108" t="n" s="10">
+        <v>148.3</v>
       </c>
       <c r="T108" t="s" s="10">
         <v>26</v>
@@ -9566,46 +9566,46 @@
         <v>116.0</v>
       </c>
       <c r="F109" t="n" s="10">
+        <v>116.7</v>
+      </c>
+      <c r="G109" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="H109" t="n" s="10">
+        <v>117.9</v>
+      </c>
+      <c r="I109" t="n" s="10">
+        <v>118.5</v>
+      </c>
+      <c r="J109" t="n" s="10">
+        <v>119.0</v>
+      </c>
+      <c r="K109" t="n" s="10">
+        <v>119.1</v>
+      </c>
+      <c r="L109" t="n" s="10">
+        <v>118.9</v>
+      </c>
+      <c r="M109" t="n" s="10">
+        <v>118.3</v>
+      </c>
+      <c r="N109" t="n" s="10">
+        <v>117.6</v>
+      </c>
+      <c r="O109" t="n" s="10">
+        <v>117.2</v>
+      </c>
+      <c r="P109" t="n" s="10">
+        <v>116.7</v>
+      </c>
+      <c r="Q109" t="n" s="10">
         <v>116.3</v>
       </c>
-      <c r="G109" t="n" s="10">
-        <v>116.9</v>
-      </c>
-      <c r="H109" t="n" s="10">
-        <v>117.4</v>
-      </c>
-      <c r="I109" t="n" s="10">
-        <v>118.0</v>
-      </c>
-      <c r="J109" t="n" s="10">
-        <v>118.6</v>
-      </c>
-      <c r="K109" t="n" s="10">
-        <v>118.7</v>
-      </c>
-      <c r="L109" t="n" s="10">
-        <v>118.4</v>
-      </c>
-      <c r="M109" t="n" s="10">
-        <v>118.1</v>
-      </c>
-      <c r="N109" t="n" s="10">
-        <v>118.4</v>
-      </c>
-      <c r="O109" t="n" s="10">
-        <v>119.0</v>
-      </c>
-      <c r="P109" t="n" s="10">
-        <v>119.7</v>
-      </c>
-      <c r="Q109" t="n" s="10">
-        <v>120.1</v>
-      </c>
       <c r="R109" t="n" s="10">
-        <v>120.0</v>
-      </c>
-      <c r="S109" t="s" s="10">
-        <v>26</v>
+        <v>115.7</v>
+      </c>
+      <c r="S109" t="n" s="10">
+        <v>114.8</v>
       </c>
       <c r="T109" t="s" s="10">
         <v>26</v>
@@ -9649,46 +9649,46 @@
         <v>141.9</v>
       </c>
       <c r="F110" t="n" s="10">
-        <v>144.7</v>
+        <v>145.0</v>
       </c>
       <c r="G110" t="n" s="10">
-        <v>147.7</v>
+        <v>148.6</v>
       </c>
       <c r="H110" t="n" s="10">
-        <v>150.7</v>
+        <v>152.0</v>
       </c>
       <c r="I110" t="n" s="10">
-        <v>153.7</v>
+        <v>155.2</v>
       </c>
       <c r="J110" t="n" s="10">
-        <v>157.0</v>
+        <v>158.3</v>
       </c>
       <c r="K110" t="n" s="10">
-        <v>160.1</v>
+        <v>161.2</v>
       </c>
       <c r="L110" t="n" s="10">
-        <v>162.5</v>
+        <v>163.7</v>
       </c>
       <c r="M110" t="n" s="10">
-        <v>164.4</v>
+        <v>165.4</v>
       </c>
       <c r="N110" t="n" s="10">
-        <v>166.7</v>
+        <v>166.3</v>
       </c>
       <c r="O110" t="n" s="10">
-        <v>169.2</v>
+        <v>167.1</v>
       </c>
       <c r="P110" t="n" s="10">
-        <v>171.7</v>
+        <v>167.4</v>
       </c>
       <c r="Q110" t="n" s="10">
-        <v>173.8</v>
+        <v>167.7</v>
       </c>
       <c r="R110" t="n" s="10">
-        <v>175.5</v>
-      </c>
-      <c r="S110" t="s" s="10">
-        <v>26</v>
+        <v>167.9</v>
+      </c>
+      <c r="S110" t="n" s="10">
+        <v>167.7</v>
       </c>
       <c r="T110" t="s" s="10">
         <v>26</v>
@@ -9768,7 +9768,7 @@
         <v>32</v>
       </c>
       <c r="S111" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T111" t="s" s="10">
         <v>26</v>
@@ -9812,46 +9812,46 @@
         <v>137.5</v>
       </c>
       <c r="F112" t="n" s="10">
-        <v>137.4</v>
+        <v>137.7</v>
       </c>
       <c r="G112" t="n" s="10">
-        <v>137.5</v>
+        <v>137.8</v>
       </c>
       <c r="H112" t="n" s="10">
-        <v>137.6</v>
+        <v>138.1</v>
       </c>
       <c r="I112" t="n" s="10">
-        <v>137.9</v>
+        <v>138.4</v>
       </c>
       <c r="J112" t="n" s="10">
-        <v>138.6</v>
+        <v>138.9</v>
       </c>
       <c r="K112" t="n" s="10">
-        <v>139.5</v>
+        <v>139.8</v>
       </c>
       <c r="L112" t="n" s="10">
-        <v>140.3</v>
+        <v>140.7</v>
       </c>
       <c r="M112" t="n" s="10">
-        <v>141.6</v>
+        <v>141.7</v>
       </c>
       <c r="N112" t="n" s="10">
         <v>143.3</v>
       </c>
       <c r="O112" t="n" s="10">
-        <v>145.1</v>
+        <v>144.4</v>
       </c>
       <c r="P112" t="n" s="10">
-        <v>146.9</v>
+        <v>145.3</v>
       </c>
       <c r="Q112" t="n" s="10">
-        <v>148.5</v>
+        <v>146.2</v>
       </c>
       <c r="R112" t="n" s="10">
-        <v>150.0</v>
-      </c>
-      <c r="S112" t="s" s="10">
-        <v>26</v>
+        <v>147.6</v>
+      </c>
+      <c r="S112" t="n" s="10">
+        <v>148.8</v>
       </c>
       <c r="T112" t="s" s="10">
         <v>26</v>
@@ -9931,7 +9931,7 @@
         <v>32</v>
       </c>
       <c r="S113" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T113" t="s" s="10">
         <v>26</v>
@@ -9969,52 +9969,52 @@
         <v>25</v>
       </c>
       <c r="D114" t="n" s="10">
-        <v>147.1</v>
+        <v>146.4</v>
       </c>
       <c r="E114" t="n" s="10">
-        <v>147.5</v>
+        <v>147.3</v>
       </c>
       <c r="F114" t="n" s="10">
-        <v>148.6</v>
+        <v>148.4</v>
       </c>
       <c r="G114" t="n" s="10">
-        <v>149.5</v>
+        <v>150.1</v>
       </c>
       <c r="H114" t="n" s="10">
-        <v>150.5</v>
+        <v>151.7</v>
       </c>
       <c r="I114" t="n" s="10">
-        <v>151.6</v>
+        <v>153.1</v>
       </c>
       <c r="J114" t="n" s="10">
-        <v>153.0</v>
+        <v>154.5</v>
       </c>
       <c r="K114" t="n" s="10">
-        <v>154.7</v>
+        <v>156.0</v>
       </c>
       <c r="L114" t="n" s="10">
-        <v>157.1</v>
+        <v>157.5</v>
       </c>
       <c r="M114" t="n" s="10">
-        <v>159.0</v>
+        <v>159.1</v>
       </c>
       <c r="N114" t="n" s="10">
+        <v>159.7</v>
+      </c>
+      <c r="O114" t="n" s="10">
+        <v>160.1</v>
+      </c>
+      <c r="P114" t="n" s="10">
+        <v>160.2</v>
+      </c>
+      <c r="Q114" t="n" s="10">
+        <v>160.1</v>
+      </c>
+      <c r="R114" t="n" s="10">
         <v>160.0</v>
       </c>
-      <c r="O114" t="n" s="10">
-        <v>160.9</v>
-      </c>
-      <c r="P114" t="n" s="10">
-        <v>161.6</v>
-      </c>
-      <c r="Q114" t="n" s="10">
-        <v>163.0</v>
-      </c>
-      <c r="R114" t="n" s="10">
-        <v>164.6</v>
-      </c>
-      <c r="S114" t="s" s="10">
-        <v>26</v>
+      <c r="S114" t="n" s="10">
+        <v>160.4</v>
       </c>
       <c r="T114" t="s" s="10">
         <v>26</v>
@@ -10052,49 +10052,49 @@
         <v>121.4</v>
       </c>
       <c r="E115" t="n" s="10">
+        <v>121.2</v>
+      </c>
+      <c r="F115" t="n" s="10">
         <v>121.1</v>
       </c>
-      <c r="F115" t="n" s="10">
-        <v>121.2</v>
-      </c>
       <c r="G115" t="n" s="10">
-        <v>121.1</v>
+        <v>121.5</v>
       </c>
       <c r="H115" t="n" s="10">
-        <v>121.1</v>
+        <v>121.7</v>
       </c>
       <c r="I115" t="n" s="10">
-        <v>121.1</v>
+        <v>121.8</v>
       </c>
       <c r="J115" t="n" s="10">
-        <v>121.2</v>
+        <v>121.8</v>
       </c>
       <c r="K115" t="n" s="10">
-        <v>121.5</v>
+        <v>122.0</v>
       </c>
       <c r="L115" t="n" s="10">
-        <v>122.2</v>
+        <v>122.1</v>
       </c>
       <c r="M115" t="n" s="10">
-        <v>122.5</v>
+        <v>122.7</v>
       </c>
       <c r="N115" t="n" s="10">
         <v>122.2</v>
       </c>
       <c r="O115" t="n" s="10">
-        <v>121.8</v>
+        <v>121.2</v>
       </c>
       <c r="P115" t="n" s="10">
-        <v>121.2</v>
+        <v>120.0</v>
       </c>
       <c r="Q115" t="n" s="10">
-        <v>121.3</v>
+        <v>118.7</v>
       </c>
       <c r="R115" t="n" s="10">
-        <v>121.4</v>
-      </c>
-      <c r="S115" t="s" s="10">
-        <v>26</v>
+        <v>117.6</v>
+      </c>
+      <c r="S115" t="n" s="10">
+        <v>116.9</v>
       </c>
       <c r="T115" t="s" s="10">
         <v>26</v>
@@ -10135,49 +10135,49 @@
         <v>136.5</v>
       </c>
       <c r="E116" t="n" s="10">
-        <v>136.7</v>
+        <v>136.6</v>
       </c>
       <c r="F116" t="n" s="10">
-        <v>137.0</v>
+        <v>137.3</v>
       </c>
       <c r="G116" t="n" s="10">
-        <v>137.3</v>
+        <v>138.2</v>
       </c>
       <c r="H116" t="n" s="10">
-        <v>137.9</v>
+        <v>139.2</v>
       </c>
       <c r="I116" t="n" s="10">
-        <v>138.6</v>
+        <v>140.0</v>
       </c>
       <c r="J116" t="n" s="10">
-        <v>139.5</v>
+        <v>140.8</v>
       </c>
       <c r="K116" t="n" s="10">
-        <v>140.4</v>
+        <v>141.7</v>
       </c>
       <c r="L116" t="n" s="10">
-        <v>141.3</v>
+        <v>142.5</v>
       </c>
       <c r="M116" t="n" s="10">
-        <v>142.6</v>
+        <v>143.4</v>
       </c>
       <c r="N116" t="n" s="10">
-        <v>144.2</v>
+        <v>143.7</v>
       </c>
       <c r="O116" t="n" s="10">
-        <v>146.0</v>
+        <v>144.1</v>
       </c>
       <c r="P116" t="n" s="10">
-        <v>148.0</v>
+        <v>144.4</v>
       </c>
       <c r="Q116" t="n" s="10">
-        <v>149.9</v>
+        <v>144.6</v>
       </c>
       <c r="R116" t="n" s="10">
-        <v>151.5</v>
-      </c>
-      <c r="S116" t="s" s="10">
-        <v>26</v>
+        <v>144.6</v>
+      </c>
+      <c r="S116" t="n" s="10">
+        <v>144.8</v>
       </c>
       <c r="T116" t="s" s="10">
         <v>26</v>
@@ -10218,46 +10218,46 @@
         <v>112.3</v>
       </c>
       <c r="F117" t="n" s="10">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="G117" t="n" s="10">
-        <v>112.4</v>
+        <v>113.0</v>
       </c>
       <c r="H117" t="n" s="10">
-        <v>112.4</v>
+        <v>113.4</v>
       </c>
       <c r="I117" t="n" s="10">
-        <v>112.6</v>
+        <v>113.6</v>
       </c>
       <c r="J117" t="n" s="10">
-        <v>112.7</v>
+        <v>113.8</v>
       </c>
       <c r="K117" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="L117" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="M117" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="N117" t="n" s="10">
         <v>112.9</v>
       </c>
-      <c r="L117" t="n" s="10">
-        <v>113.0</v>
-      </c>
-      <c r="M117" t="n" s="10">
-        <v>113.1</v>
-      </c>
-      <c r="N117" t="n" s="10">
-        <v>113.2</v>
-      </c>
       <c r="O117" t="n" s="10">
-        <v>113.5</v>
+        <v>112.0</v>
       </c>
       <c r="P117" t="n" s="10">
-        <v>113.8</v>
+        <v>111.0</v>
       </c>
       <c r="Q117" t="n" s="10">
-        <v>114.1</v>
+        <v>109.9</v>
       </c>
       <c r="R117" t="n" s="10">
-        <v>114.4</v>
-      </c>
-      <c r="S117" t="s" s="10">
-        <v>26</v>
+        <v>108.6</v>
+      </c>
+      <c r="S117" t="n" s="10">
+        <v>107.5</v>
       </c>
       <c r="T117" t="s" s="10">
         <v>26</v>
@@ -10298,49 +10298,49 @@
         <v>152.5</v>
       </c>
       <c r="E118" t="n" s="10">
-        <v>153.3</v>
+        <v>153.4</v>
       </c>
       <c r="F118" t="n" s="10">
-        <v>154.7</v>
+        <v>154.5</v>
       </c>
       <c r="G118" t="n" s="10">
-        <v>156.0</v>
+        <v>156.4</v>
       </c>
       <c r="H118" t="n" s="10">
-        <v>157.4</v>
+        <v>158.2</v>
       </c>
       <c r="I118" t="n" s="10">
-        <v>159.0</v>
+        <v>159.8</v>
       </c>
       <c r="J118" t="n" s="10">
-        <v>160.9</v>
+        <v>161.6</v>
       </c>
       <c r="K118" t="n" s="10">
-        <v>163.1</v>
+        <v>163.7</v>
       </c>
       <c r="L118" t="n" s="10">
         <v>166.0</v>
       </c>
       <c r="M118" t="n" s="10">
-        <v>168.5</v>
+        <v>168.7</v>
       </c>
       <c r="N118" t="n" s="10">
-        <v>170.3</v>
+        <v>170.5</v>
       </c>
       <c r="O118" t="n" s="10">
-        <v>172.0</v>
+        <v>171.7</v>
       </c>
       <c r="P118" t="n" s="10">
-        <v>173.5</v>
+        <v>172.5</v>
       </c>
       <c r="Q118" t="n" s="10">
-        <v>175.6</v>
+        <v>173.2</v>
       </c>
       <c r="R118" t="n" s="10">
-        <v>177.9</v>
-      </c>
-      <c r="S118" t="s" s="10">
-        <v>26</v>
+        <v>174.3</v>
+      </c>
+      <c r="S118" t="n" s="10">
+        <v>175.8</v>
       </c>
       <c r="T118" t="s" s="10">
         <v>26</v>
@@ -10378,49 +10378,49 @@
         <v>126.0</v>
       </c>
       <c r="E119" t="n" s="10">
+        <v>125.9</v>
+      </c>
+      <c r="F119" t="n" s="10">
         <v>125.8</v>
       </c>
-      <c r="F119" t="n" s="10">
-        <v>125.9</v>
-      </c>
       <c r="G119" t="n" s="10">
-        <v>125.9</v>
+        <v>126.2</v>
       </c>
       <c r="H119" t="n" s="10">
-        <v>125.9</v>
+        <v>126.4</v>
       </c>
       <c r="I119" t="n" s="10">
-        <v>126.1</v>
+        <v>126.6</v>
       </c>
       <c r="J119" t="n" s="10">
-        <v>126.3</v>
+        <v>126.8</v>
       </c>
       <c r="K119" t="n" s="10">
-        <v>126.7</v>
+        <v>127.0</v>
       </c>
       <c r="L119" t="n" s="10">
         <v>127.4</v>
       </c>
       <c r="M119" t="n" s="10">
-        <v>127.9</v>
+        <v>128.0</v>
       </c>
       <c r="N119" t="n" s="10">
-        <v>128.0</v>
+        <v>128.1</v>
       </c>
       <c r="O119" t="n" s="10">
-        <v>128.1</v>
+        <v>127.6</v>
       </c>
       <c r="P119" t="n" s="10">
-        <v>128.0</v>
+        <v>127.1</v>
       </c>
       <c r="Q119" t="n" s="10">
-        <v>128.4</v>
+        <v>126.4</v>
       </c>
       <c r="R119" t="n" s="10">
-        <v>128.9</v>
-      </c>
-      <c r="S119" t="s" s="10">
-        <v>26</v>
+        <v>126.0</v>
+      </c>
+      <c r="S119" t="n" s="10">
+        <v>125.8</v>
       </c>
       <c r="T119" t="s" s="10">
         <v>26</v>
@@ -10458,52 +10458,52 @@
         <v>25</v>
       </c>
       <c r="D120" t="n" s="10">
-        <v>156.0</v>
+        <v>156.1</v>
       </c>
       <c r="E120" t="n" s="10">
-        <v>157.6</v>
+        <v>157.8</v>
       </c>
       <c r="F120" t="n" s="10">
-        <v>159.4</v>
+        <v>159.7</v>
       </c>
       <c r="G120" t="n" s="10">
-        <v>161.5</v>
+        <v>162.2</v>
       </c>
       <c r="H120" t="n" s="10">
-        <v>163.7</v>
+        <v>164.5</v>
       </c>
       <c r="I120" t="n" s="10">
-        <v>166.0</v>
+        <v>166.9</v>
       </c>
       <c r="J120" t="n" s="10">
-        <v>168.7</v>
+        <v>169.2</v>
       </c>
       <c r="K120" t="n" s="10">
         <v>171.6</v>
       </c>
       <c r="L120" t="n" s="10">
-        <v>174.5</v>
+        <v>174.0</v>
       </c>
       <c r="M120" t="n" s="10">
-        <v>177.7</v>
+        <v>176.7</v>
       </c>
       <c r="N120" t="n" s="10">
+        <v>178.6</v>
+      </c>
+      <c r="O120" t="n" s="10">
+        <v>179.9</v>
+      </c>
+      <c r="P120" t="n" s="10">
         <v>180.9</v>
       </c>
-      <c r="O120" t="n" s="10">
-        <v>184.0</v>
-      </c>
-      <c r="P120" t="n" s="10">
-        <v>187.0</v>
-      </c>
       <c r="Q120" t="n" s="10">
-        <v>189.9</v>
+        <v>181.6</v>
       </c>
       <c r="R120" t="n" s="10">
-        <v>192.8</v>
-      </c>
-      <c r="S120" t="s" s="10">
-        <v>26</v>
+        <v>182.4</v>
+      </c>
+      <c r="S120" t="n" s="10">
+        <v>183.7</v>
       </c>
       <c r="T120" t="s" s="10">
         <v>26</v>
@@ -10583,7 +10583,7 @@
         <v>32</v>
       </c>
       <c r="S121" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T121" t="s" s="10">
         <v>26</v>
@@ -10627,46 +10627,46 @@
         <v>147.7</v>
       </c>
       <c r="F122" t="n" s="10">
-        <v>148.5</v>
+        <v>147.6</v>
       </c>
       <c r="G122" t="n" s="10">
-        <v>148.8</v>
+        <v>148.4</v>
       </c>
       <c r="H122" t="n" s="10">
-        <v>149.2</v>
+        <v>149.1</v>
       </c>
       <c r="I122" t="n" s="10">
-        <v>149.8</v>
+        <v>149.7</v>
       </c>
       <c r="J122" t="n" s="10">
-        <v>150.8</v>
+        <v>150.6</v>
       </c>
       <c r="K122" t="n" s="10">
-        <v>152.2</v>
+        <v>151.9</v>
       </c>
       <c r="L122" t="n" s="10">
-        <v>154.9</v>
+        <v>153.7</v>
       </c>
       <c r="M122" t="n" s="10">
-        <v>156.6</v>
+        <v>156.1</v>
       </c>
       <c r="N122" t="n" s="10">
-        <v>156.6</v>
+        <v>157.9</v>
       </c>
       <c r="O122" t="n" s="10">
-        <v>156.4</v>
+        <v>158.9</v>
       </c>
       <c r="P122" t="n" s="10">
-        <v>156.0</v>
+        <v>159.8</v>
       </c>
       <c r="Q122" t="n" s="10">
-        <v>157.0</v>
+        <v>160.7</v>
       </c>
       <c r="R122" t="n" s="10">
-        <v>158.6</v>
-      </c>
-      <c r="S122" t="s" s="10">
-        <v>26</v>
+        <v>162.2</v>
+      </c>
+      <c r="S122" t="n" s="10">
+        <v>163.9</v>
       </c>
       <c r="T122" t="s" s="10">
         <v>26</v>
@@ -10746,7 +10746,7 @@
         <v>32</v>
       </c>
       <c r="S123" t="s" s="10">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T123" t="s" s="10">
         <v>26</v>
@@ -10804,7 +10804,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:15:32&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:28:32&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>